--- a/Sorption Experiments/RaPYR_pH5/RaPYR_pH5_NoScript.xlsx
+++ b/Sorption Experiments/RaPYR_pH5/RaPYR_pH5_NoScript.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="12285" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="12285" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,9 @@
     <sheet name="Bottle Results" sheetId="5" r:id="rId5"/>
     <sheet name="Averaged Results" sheetId="8" r:id="rId6"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId7"/>
+  </externalReferences>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -29,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="147">
   <si>
     <t>Parameters</t>
   </si>
@@ -175,21 +178,12 @@
     <t>Known Activity (uCi)</t>
   </si>
   <si>
-    <t>Known-Average</t>
-  </si>
-  <si>
     <t>Gamma Counter Calculated Activity</t>
   </si>
   <si>
     <t>Scint Counter Calculated Activity (Bq)</t>
   </si>
   <si>
-    <t>Squared Actual Activity Variation from Average</t>
-  </si>
-  <si>
-    <t>Error (Bq)</t>
-  </si>
-  <si>
     <t>Background</t>
   </si>
   <si>
@@ -199,15 +193,6 @@
     <t>SUMMARY OUTPUT</t>
   </si>
   <si>
-    <t>Counter CPS-&gt;Activity (Bq)</t>
-  </si>
-  <si>
-    <t>DOES NOT INCLUDE BACKGROUND</t>
-  </si>
-  <si>
-    <t>Activity (Bq) - &gt; Counter CPS</t>
-  </si>
-  <si>
     <t>Regression Statistics</t>
   </si>
   <si>
@@ -229,9 +214,6 @@
     <t>ANOVA</t>
   </si>
   <si>
-    <t>Std dev of residuals</t>
-  </si>
-  <si>
     <t>df</t>
   </si>
   <si>
@@ -295,15 +277,9 @@
     <t>Residuals</t>
   </si>
   <si>
-    <t>Residual Squared</t>
-  </si>
-  <si>
     <t>Parsons Gamma Counter</t>
   </si>
   <si>
-    <t>Gamma Counter CPS-&gt;Bq</t>
-  </si>
-  <si>
     <t>Solution counts (Bq)</t>
   </si>
   <si>
@@ -485,22 +461,26 @@
   </si>
   <si>
     <t>Ra_Stock_5</t>
+  </si>
+  <si>
+    <t>(Known-Average)^2</t>
+  </si>
+  <si>
+    <t>RaStock5</t>
+  </si>
+  <si>
+    <t>RaStock4</t>
+  </si>
+  <si>
+    <t>CPS-&gt;Bq No background</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -557,7 +537,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -584,17 +564,6 @@
       <left/>
       <right/>
       <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -607,7 +576,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -615,7 +584,7 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -624,48 +593,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -675,6 +632,15 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -690,6 +656,415 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>X Variable 1 Line Fit  Plot</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Y</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'[1]Calibration Data'!$F$3:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.4640522875816994E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.9815435847137763E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2604166666666666E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0219907407407408E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.4872685185185185E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.39049768518518518</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'[1]Calibration Data'!$I$3:$I$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.31819999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.591</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1819999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.91</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31.82</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>159.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Predicted Y</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'[1]Calibration Data'!$F$3:$F$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.4640522875816994E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.9815435847137763E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2604166666666666E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.0219907407407408E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.4872685185185185E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.39049768518518518</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'[1]Calibration Data'!$B$70:$B$75</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>-1.7375179093564292</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.12652001269851265</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.0339381254012432</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17.555200391349953</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35.9801326442823</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>157.96292673562442</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="555523640"/>
+        <c:axId val="555524032"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="555523640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>X Variable 1</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="555524032"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="555524032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Y</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="555523640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1457325</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1181100</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sample Parameters"/>
+      <sheetName val="Scintillation Counter Results"/>
+      <sheetName val="Gamma Counter Results"/>
+      <sheetName val="Quality Control Notes"/>
+      <sheetName val="Calibration Data"/>
+      <sheetName val="Stock Log"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4">
+        <row r="3">
+          <cell r="F3">
+            <v>3.4640522875816994E-3</v>
+          </cell>
+          <cell r="I3">
+            <v>0.31819999999999998</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="F4">
+            <v>7.9815435847137763E-3</v>
+          </cell>
+          <cell r="I4">
+            <v>1.591</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="F5">
+            <v>1.2604166666666666E-2</v>
+          </cell>
+          <cell r="I5">
+            <v>3.1819999999999999</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="F6">
+            <v>5.0219907407407408E-2</v>
+          </cell>
+          <cell r="I6">
+            <v>15.91</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="F7">
+            <v>9.4872685185185185E-2</v>
+          </cell>
+          <cell r="I7">
+            <v>31.82</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="F8">
+            <v>0.39049768518518518</v>
+          </cell>
+          <cell r="I8">
+            <v>159.1</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="B70">
+            <v>-1.7375179093564292</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="B71">
+            <v>0.12652001269851265</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="B72">
+            <v>2.0339381254012432</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="B73">
+            <v>17.555200391349953</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="B74">
+            <v>35.9801326442823</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="B75">
+            <v>157.96292673562442</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="5"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -958,7 +1333,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B6" sqref="B6:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -988,7 +1363,7 @@
       <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="25">
+      <c r="B2" s="19">
         <v>42468</v>
       </c>
     </row>
@@ -1014,7 +1389,7 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -1022,7 +1397,7 @@
         <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1030,10 +1405,10 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>1438.3391127455641</v>
+        <v>675.45997631774435</v>
       </c>
       <c r="C6">
-        <v>7.1916955637278202</v>
+        <v>0.13742948708443162</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -1057,10 +1432,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD74"/>
+  <dimension ref="A1:AE76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19:C19"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1074,14 +1449,15 @@
     <col min="7" max="7" width="12" style="2" customWidth="1"/>
     <col min="8" max="8" width="19.28515625" style="2" customWidth="1"/>
     <col min="9" max="10" width="18.7109375" style="2" customWidth="1"/>
-    <col min="11" max="12" width="22" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="34.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="35.5703125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="18" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
       <c r="B1" s="3" t="s">
         <v>42</v>
       </c>
@@ -1107,24 +1483,20 @@
         <v>35</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+    </row>
+    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="B2" s="2">
         <v>69.266666666666666</v>
@@ -1149,16 +1521,16 @@
       <c r="I2" s="2">
         <v>0</v>
       </c>
+      <c r="K2">
+        <f>F2*$B$63+$B$62</f>
+        <v>-2.6893013764520717</v>
+      </c>
       <c r="L2">
-        <f t="shared" ref="L2:L8" si="0">(D2-$L$30)/$L$31</f>
-        <v>0.24403057137578671</v>
-      </c>
-      <c r="N2">
-        <f t="shared" ref="N2:N8" si="1">$L$20/ABS($L$31)*SQRT(1/$L$21+1+(D2-AVERAGE($D$3:$D$8))^2/($L$31^2*(SUM($M$3:$M$8))))</f>
-        <v>0.23936202341417753</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+        <f>D2*$B$30+$B$29</f>
+        <v>0.13209164838024126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>36</v>
       </c>
@@ -1169,11 +1541,11 @@
         <v>4.5389670875898238</v>
       </c>
       <c r="D3" s="2">
-        <f t="shared" ref="D3:E8" si="2">B3/60</f>
+        <f t="shared" ref="D3:E9" si="0">B3/60</f>
         <v>3.5588888888888888</v>
       </c>
       <c r="E3" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>7.5649451459830402E-2</v>
       </c>
       <c r="F3" s="2">
@@ -1184,34 +1556,26 @@
       </c>
       <c r="H3" s="5">
         <f>H7/100</f>
-        <v>1.59E-5</v>
+        <v>8.599999999999999E-6</v>
       </c>
       <c r="I3" s="5">
-        <f t="shared" ref="I3:I8" si="3">H3*37000</f>
-        <v>0.58830000000000005</v>
+        <f t="shared" ref="I3:I8" si="1">H3*37000</f>
+        <v>0.31819999999999998</v>
       </c>
       <c r="J3" s="5">
         <f>(I3-AVERAGE($I$3:$I$8))^2</f>
-        <v>4187.7723690000012</v>
+        <v>1225.1400040000001</v>
       </c>
       <c r="K3">
-        <f>F3*$B$61+$B$60</f>
-        <v>-2.249901649732176</v>
+        <f>F3*$B$63+$B$62</f>
+        <v>-1.7375179093564292</v>
       </c>
       <c r="L3">
-        <f t="shared" si="0"/>
-        <v>0.77044240244938123</v>
-      </c>
-      <c r="M3">
-        <f>(I3-AVERAGE($I$3:$I$8))^2</f>
-        <v>4187.7723690000012</v>
-      </c>
-      <c r="N3">
-        <f>$L$20/ABS($L$31)*SQRT(1/$L$21+1+(D3-AVERAGE($D$3:$D$8))^2/($L$31^2*(SUM($M$3:$M$8))))</f>
-        <v>0.23926048894726873</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+        <f t="shared" ref="L3:L10" si="2">D3*$B$30+$B$29</f>
+        <v>0.41681673309525025</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>37</v>
       </c>
@@ -1222,11 +1586,11 @@
         <v>12.530584805000577</v>
       </c>
       <c r="D4" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>14.189444444444446</v>
       </c>
       <c r="E4" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.20884308008334296</v>
       </c>
       <c r="F4" s="2">
@@ -1237,34 +1601,26 @@
       </c>
       <c r="H4" s="5">
         <f>H7/20</f>
-        <v>7.9500000000000008E-5</v>
+        <v>4.3000000000000002E-5</v>
       </c>
       <c r="I4" s="5">
-        <f t="shared" si="3"/>
-        <v>2.9415000000000004</v>
+        <f t="shared" si="1"/>
+        <v>1.591</v>
       </c>
       <c r="J4" s="5">
-        <f t="shared" ref="J4:J8" si="4">(I4-AVERAGE($I$3:$I$8))^2</f>
-        <v>3888.7446560400017</v>
+        <f t="shared" ref="J4:J8" si="3">(I4-AVERAGE($I$3:$I$8))^2</f>
+        <v>1137.6589326399999</v>
       </c>
       <c r="K4">
-        <f t="shared" ref="K4:K8" si="5">F4*$B$61+$B$60</f>
-        <v>1.1815378350424348</v>
+        <f t="shared" ref="K4:K9" si="4">F4*$B$63+$B$62</f>
+        <v>0.12652001269851265</v>
       </c>
       <c r="L4">
-        <f t="shared" si="0"/>
-        <v>3.0978200335938433</v>
-      </c>
-      <c r="M4">
-        <f t="shared" ref="M4:M8" si="6">(I4-AVERAGE($I$3:$I$8))^2</f>
-        <v>3888.7446560400017</v>
-      </c>
-      <c r="N4">
-        <f t="shared" si="1"/>
-        <v>0.23882097262076729</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1.6756463301427775</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>38</v>
       </c>
@@ -1275,11 +1631,11 @@
         <v>32.620954410720707</v>
       </c>
       <c r="D5" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>27.261666666666667</v>
       </c>
       <c r="E5" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.54368257351201177</v>
       </c>
       <c r="F5" s="2">
@@ -1290,34 +1646,26 @@
       </c>
       <c r="H5" s="5">
         <f>H7/10</f>
-        <v>1.5900000000000002E-4</v>
+        <v>8.6000000000000003E-5</v>
       </c>
       <c r="I5" s="5">
+        <f t="shared" si="1"/>
+        <v>3.1819999999999999</v>
+      </c>
+      <c r="J5" s="5">
         <f t="shared" si="3"/>
-        <v>5.8830000000000009</v>
-      </c>
-      <c r="J5" s="5">
+        <v>1032.8638992399999</v>
+      </c>
+      <c r="K5">
         <f t="shared" si="4"/>
-        <v>3530.5343748900009</v>
-      </c>
-      <c r="K5">
-        <f t="shared" si="5"/>
-        <v>4.6928343319972328</v>
+        <v>2.0339381254012432</v>
       </c>
       <c r="L5">
-        <f t="shared" si="0"/>
-        <v>5.9597586623280572</v>
-      </c>
-      <c r="M5">
-        <f t="shared" si="6"/>
-        <v>3530.5343748900009</v>
-      </c>
-      <c r="N5">
-        <f t="shared" si="1"/>
-        <v>0.23830159492838568</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>3.2236087246307998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>39</v>
       </c>
@@ -1328,11 +1676,11 @@
         <v>50.234140670352431</v>
       </c>
       <c r="D6" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>133.3138888888889</v>
       </c>
       <c r="E6" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.83723567783920716</v>
       </c>
       <c r="F6" s="2">
@@ -1343,34 +1691,26 @@
       </c>
       <c r="H6" s="5">
         <f>H7/2</f>
-        <v>7.9500000000000003E-4</v>
+        <v>4.2999999999999999E-4</v>
       </c>
       <c r="I6" s="5">
+        <f t="shared" si="1"/>
+        <v>15.91</v>
+      </c>
+      <c r="J6" s="5">
         <f t="shared" si="3"/>
-        <v>29.415000000000003</v>
-      </c>
-      <c r="J6" s="5">
+        <v>376.75586404000001</v>
+      </c>
+      <c r="K6">
         <f t="shared" si="4"/>
-        <v>1287.8265276900004</v>
-      </c>
-      <c r="K6">
-        <f t="shared" si="5"/>
-        <v>33.265360439300757</v>
+        <v>17.555200391349953</v>
       </c>
       <c r="L6">
-        <f t="shared" si="0"/>
-        <v>29.178071989722408</v>
-      </c>
-      <c r="M6">
-        <f t="shared" si="6"/>
-        <v>1287.8265276900004</v>
-      </c>
-      <c r="N6">
-        <f t="shared" si="1"/>
-        <v>0.23496515304651927</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>15.781905933869924</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>40</v>
       </c>
@@ -1381,11 +1721,11 @@
         <v>53.513259001171903</v>
       </c>
       <c r="D7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>267.61888888888888</v>
       </c>
       <c r="E7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0.89188765001953174</v>
       </c>
       <c r="F7" s="2">
@@ -1395,34 +1735,26 @@
         <v>2.9521990740740741E-3</v>
       </c>
       <c r="H7" s="5">
-        <v>1.5900000000000001E-3</v>
+        <v>8.5999999999999998E-4</v>
       </c>
       <c r="I7" s="5">
+        <f t="shared" si="1"/>
+        <v>31.82</v>
+      </c>
+      <c r="J7" s="5">
         <f t="shared" si="3"/>
-        <v>58.830000000000005</v>
-      </c>
-      <c r="J7" s="5">
+        <v>12.251400039999996</v>
+      </c>
+      <c r="K7">
         <f t="shared" si="4"/>
-        <v>41.877723690000082</v>
-      </c>
-      <c r="K7">
-        <f t="shared" si="5"/>
-        <v>67.183146815293682</v>
+        <v>35.9801326442823</v>
       </c>
       <c r="L7">
-        <f t="shared" si="0"/>
-        <v>58.581845961582474</v>
-      </c>
-      <c r="M7">
-        <f t="shared" si="6"/>
-        <v>41.877723690000082</v>
-      </c>
-      <c r="N7">
-        <f t="shared" si="1"/>
-        <v>0.23304764250463261</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>31.685788675267496</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>41</v>
       </c>
@@ -1433,11 +1765,11 @@
         <v>80.454997758225829</v>
       </c>
       <c r="D8" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>1343.9216666666666</v>
       </c>
       <c r="E8" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>1.3409166293037638</v>
       </c>
       <c r="F8" s="2">
@@ -1448,968 +1780,1279 @@
       </c>
       <c r="H8" s="5">
         <f>H7*5</f>
-        <v>7.9500000000000005E-3</v>
+        <v>4.3E-3</v>
       </c>
       <c r="I8" s="5">
+        <f t="shared" si="1"/>
+        <v>159.1</v>
+      </c>
+      <c r="J8" s="5">
         <f t="shared" si="3"/>
-        <v>294.15000000000003</v>
-      </c>
-      <c r="J8" s="5">
+        <v>15321.438888039998</v>
+      </c>
+      <c r="K8">
         <f t="shared" si="4"/>
-        <v>52371.727491690006</v>
-      </c>
-      <c r="K8">
-        <f t="shared" si="5"/>
-        <v>291.73682737921575</v>
+        <v>157.96292673562442</v>
       </c>
       <c r="L8">
+        <f t="shared" si="2"/>
+        <v>159.1374336029937</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B9" s="2">
+        <v>342248.6</v>
+      </c>
+      <c r="C9" s="2">
+        <f>B9*0.11/100</f>
+        <v>376.47345999999999</v>
+      </c>
+      <c r="D9" s="2">
         <f t="shared" si="0"/>
-        <v>294.21986095032389</v>
-      </c>
-      <c r="M8">
-        <f t="shared" si="6"/>
-        <v>52371.727491690006</v>
-      </c>
-      <c r="N8">
-        <f t="shared" si="1"/>
-        <v>0.30267266037130586</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
+        <v>5704.1433333333325</v>
+      </c>
+      <c r="E9" s="2">
+        <f t="shared" si="0"/>
+        <v>6.2745576666666665</v>
+      </c>
+      <c r="F9">
+        <v>1.9</v>
+      </c>
+      <c r="G9">
+        <f>F9*0.5/100</f>
+        <v>9.4999999999999998E-3</v>
+      </c>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
-      <c r="J9" s="5">
-        <f>SUM(J3:J8)</f>
-        <v>65308.483143000012</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="J9" s="5"/>
+      <c r="K9">
+        <f t="shared" si="4"/>
+        <v>780.8240178086387</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="2"/>
+        <v>675.45815221486782</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D10">
+        <v>2882.0033333333336</v>
+      </c>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="L10">
+        <f t="shared" si="2"/>
+        <v>341.27116260310561</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="F11"/>
+      <c r="G11"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+    </row>
+    <row r="12" spans="1:31" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="21"/>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" t="s">
+        <v>146</v>
+      </c>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="K13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14"/>
+      <c r="B14"/>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14"/>
+      <c r="F14"/>
+      <c r="G14"/>
+      <c r="H14"/>
+      <c r="I14"/>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="H15"/>
+      <c r="I15"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="L15" s="6"/>
+      <c r="T15" s="25"/>
+      <c r="U15" s="25"/>
+      <c r="V15" s="25"/>
+      <c r="W15" s="25"/>
+      <c r="X15" s="25"/>
+      <c r="Y15" s="25"/>
+      <c r="Z15" s="25"/>
+      <c r="AA15" s="25"/>
+      <c r="AB15" s="25"/>
+      <c r="AC15" s="25"/>
+      <c r="AD15" s="25"/>
+      <c r="AE15" s="25"/>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="I10" s="5"/>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="B16" s="7">
+        <v>0.99999857522978297</v>
+      </c>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="L16" s="7">
+        <v>0.99999857522978297</v>
+      </c>
+      <c r="T16" s="25"/>
+      <c r="U16" s="25"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8"/>
+      <c r="X16" s="25"/>
+      <c r="Y16" s="25"/>
+      <c r="Z16" s="25"/>
+      <c r="AA16" s="25"/>
+      <c r="AB16" s="25"/>
+      <c r="AC16" s="25"/>
+      <c r="AD16" s="25"/>
+      <c r="AE16" s="25"/>
+    </row>
+    <row r="17" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A17" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B17" s="7">
+        <v>0.99999715046159587</v>
+      </c>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17"/>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L17" s="7">
+        <v>0.99999715046159587</v>
+      </c>
+      <c r="T17" s="25"/>
+      <c r="U17" s="25"/>
+      <c r="V17" s="7"/>
+      <c r="W17" s="7"/>
+      <c r="X17" s="25"/>
+      <c r="Y17" s="25"/>
+      <c r="Z17" s="25"/>
+      <c r="AA17" s="25"/>
+      <c r="AB17" s="25"/>
+      <c r="AC17" s="25"/>
+      <c r="AD17" s="25"/>
+      <c r="AE17" s="25"/>
+    </row>
+    <row r="18" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="B18" s="7">
+        <v>0.99999643807699479</v>
+      </c>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18"/>
+      <c r="F18"/>
+      <c r="G18"/>
+      <c r="H18"/>
+      <c r="I18"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="L18" s="7">
+        <v>0.99999643807699479</v>
+      </c>
+      <c r="T18" s="25"/>
+      <c r="U18" s="25"/>
+      <c r="V18" s="7"/>
+      <c r="W18" s="7"/>
+      <c r="X18" s="25"/>
+      <c r="Y18" s="25"/>
+      <c r="Z18" s="25"/>
+      <c r="AA18" s="25"/>
+      <c r="AB18" s="25"/>
+      <c r="AC18" s="25"/>
+      <c r="AD18" s="25"/>
+      <c r="AE18" s="25"/>
+    </row>
+    <row r="19" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A19" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K12" t="s">
+      <c r="B19" s="7">
+        <v>0.11666575259658109</v>
+      </c>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19"/>
+      <c r="F19"/>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L19" s="7">
+        <v>0.98521674441589902</v>
+      </c>
+      <c r="T19" s="25"/>
+      <c r="U19" s="25"/>
+      <c r="V19" s="7"/>
+      <c r="W19" s="7"/>
+      <c r="X19" s="25"/>
+      <c r="Y19" s="25"/>
+      <c r="Z19" s="25"/>
+      <c r="AA19" s="25"/>
+      <c r="AB19" s="25"/>
+      <c r="AC19" s="25"/>
+      <c r="AD19" s="25"/>
+      <c r="AE19" s="25"/>
+    </row>
+    <row r="20" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="M12" t="s">
+      <c r="B20" s="9">
+        <v>6</v>
+      </c>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20"/>
+      <c r="F20"/>
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="L20" s="9">
+        <v>6</v>
+      </c>
+      <c r="T20" s="25"/>
+      <c r="U20" s="25"/>
+      <c r="V20" s="7"/>
+      <c r="W20" s="7"/>
+      <c r="X20" s="25"/>
+      <c r="Y20" s="25"/>
+      <c r="Z20" s="25"/>
+      <c r="AA20" s="25"/>
+      <c r="AB20" s="25"/>
+      <c r="AC20" s="25"/>
+      <c r="AD20" s="25"/>
+      <c r="AE20" s="25"/>
+    </row>
+    <row r="21" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A21"/>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21" s="24"/>
+      <c r="T21" s="25"/>
+      <c r="U21" s="25"/>
+      <c r="V21" s="7"/>
+      <c r="W21" s="7"/>
+      <c r="X21" s="25"/>
+      <c r="Y21" s="25"/>
+      <c r="Z21" s="25"/>
+      <c r="AA21" s="25"/>
+      <c r="AB21" s="25"/>
+      <c r="AC21" s="25"/>
+      <c r="AD21" s="25"/>
+      <c r="AE21" s="25"/>
+    </row>
+    <row r="22" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22" s="24"/>
+      <c r="K22" t="s">
+        <v>59</v>
+      </c>
+      <c r="T22" s="25"/>
+      <c r="U22" s="25"/>
+      <c r="V22" s="25"/>
+      <c r="W22" s="25"/>
+      <c r="X22" s="25"/>
+      <c r="Y22" s="25"/>
+      <c r="Z22" s="25"/>
+      <c r="AA22" s="25"/>
+      <c r="AB22" s="25"/>
+      <c r="AC22" s="25"/>
+      <c r="AD22" s="25"/>
+      <c r="AE22" s="25"/>
+    </row>
+    <row r="23" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="G23"/>
+      <c r="H23"/>
+      <c r="I23"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="M23" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="N23" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="O23" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="P23" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="T23" s="25"/>
+      <c r="U23" s="25"/>
+      <c r="V23" s="25"/>
+      <c r="W23" s="25"/>
+      <c r="X23" s="25"/>
+      <c r="Y23" s="25"/>
+      <c r="Z23" s="25"/>
+      <c r="AA23" s="25"/>
+      <c r="AB23" s="25"/>
+      <c r="AC23" s="25"/>
+      <c r="AD23" s="25"/>
+      <c r="AE23" s="25"/>
+    </row>
+    <row r="24" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" s="7">
+        <v>1</v>
+      </c>
+      <c r="C24" s="7">
+        <v>19106.054544408686</v>
+      </c>
+      <c r="D24" s="7">
+        <v>19106.054544408686</v>
+      </c>
+      <c r="E24" s="7">
+        <v>1403732.1258707412</v>
+      </c>
+      <c r="F24" s="7">
+        <v>3.0449538110703924E-12</v>
+      </c>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="L24" s="7">
+        <v>1</v>
+      </c>
+      <c r="M24" s="7">
+        <v>1362535.4424342527</v>
+      </c>
+      <c r="N24" s="7">
+        <v>1362535.4424342527</v>
+      </c>
+      <c r="O24" s="7">
+        <v>1403732.1258709223</v>
+      </c>
+      <c r="P24" s="7">
+        <v>3.0449538110696028E-12</v>
+      </c>
+      <c r="T24" s="25"/>
+      <c r="U24" s="25"/>
+      <c r="V24" s="13"/>
+      <c r="W24" s="13"/>
+      <c r="X24" s="13"/>
+      <c r="Y24" s="13"/>
+      <c r="Z24" s="13"/>
+      <c r="AA24" s="13"/>
+      <c r="AB24" s="25"/>
+      <c r="AC24" s="25"/>
+      <c r="AD24" s="25"/>
+      <c r="AE24" s="25"/>
+    </row>
+    <row r="25" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" s="7">
+        <v>4</v>
+      </c>
+      <c r="C25" s="7">
+        <v>5.4443591315706669E-2</v>
+      </c>
+      <c r="D25" s="7">
+        <v>1.3610897828926667E-2</v>
+      </c>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L25" s="7">
+        <v>4</v>
+      </c>
+      <c r="M25" s="7">
+        <v>3.8826081339098519</v>
+      </c>
+      <c r="N25" s="7">
+        <v>0.97065203347746298</v>
+      </c>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="T25" s="25"/>
+      <c r="U25" s="25"/>
+      <c r="V25" s="7"/>
+      <c r="W25" s="7"/>
+      <c r="X25" s="7"/>
+      <c r="Y25" s="7"/>
+      <c r="Z25" s="7"/>
+      <c r="AA25" s="7"/>
+      <c r="AB25" s="25"/>
+      <c r="AC25" s="25"/>
+      <c r="AD25" s="25"/>
+      <c r="AE25" s="25"/>
+    </row>
+    <row r="26" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" s="9">
+        <v>5</v>
+      </c>
+      <c r="C26" s="9">
+        <v>19106.108988</v>
+      </c>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="L26" s="9">
+        <v>5</v>
+      </c>
+      <c r="M26" s="9">
+        <v>1362539.3250423865</v>
+      </c>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
+      <c r="P26" s="9"/>
+      <c r="T26" s="25"/>
+      <c r="U26" s="25"/>
+      <c r="V26" s="7"/>
+      <c r="W26" s="7"/>
+      <c r="X26" s="7"/>
+      <c r="Y26" s="7"/>
+      <c r="Z26" s="7"/>
+      <c r="AA26" s="7"/>
+      <c r="AB26" s="25"/>
+      <c r="AC26" s="25"/>
+      <c r="AD26" s="25"/>
+      <c r="AE26" s="25"/>
+    </row>
+    <row r="27" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27"/>
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27"/>
+      <c r="J27" s="24"/>
+      <c r="T27" s="25"/>
+      <c r="U27" s="25"/>
+      <c r="V27" s="7"/>
+      <c r="W27" s="7"/>
+      <c r="X27" s="7"/>
+      <c r="Y27" s="7"/>
+      <c r="Z27" s="7"/>
+      <c r="AA27" s="7"/>
+      <c r="AB27" s="25"/>
+      <c r="AC27" s="25"/>
+      <c r="AD27" s="25"/>
+      <c r="AE27" s="25"/>
+    </row>
+    <row r="28" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A28" s="10"/>
+      <c r="B28" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C28" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="V12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B13" s="8"/>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="B14" s="9">
-        <v>0.99999857522978297</v>
-      </c>
-      <c r="K14" t="s">
-        <v>55</v>
-      </c>
-      <c r="V14" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="W14" s="10"/>
-    </row>
-    <row r="15" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="B15" s="9">
-        <v>0.99999715046159587</v>
-      </c>
-      <c r="V15" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="W15" s="11">
-        <v>0.99999829960800468</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="B16" s="9">
-        <v>0.99999643807699479</v>
-      </c>
-      <c r="K16" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="L16" s="10"/>
-      <c r="M16" s="12"/>
-      <c r="V16" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="W16" s="11">
-        <v>0.99999659921890061</v>
-      </c>
-    </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="B17" s="9">
-        <v>0.2156959844518157</v>
-      </c>
-      <c r="K17" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="L17" s="11">
-        <v>0.99999857522978297</v>
-      </c>
-      <c r="M17" s="11"/>
-      <c r="V17" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="W17" s="11">
-        <v>0.9999959190626807</v>
-      </c>
-    </row>
-    <row r="18" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="B18" s="13">
+      <c r="D28" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="J28" s="11"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="M28" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="N28" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="O28" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="P28" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q28" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="R28" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="S28" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="T28" s="25"/>
+      <c r="U28" s="25"/>
+      <c r="V28" s="25"/>
+      <c r="W28" s="25"/>
+      <c r="X28" s="25"/>
+      <c r="Y28" s="25"/>
+      <c r="Z28" s="25"/>
+      <c r="AA28" s="25"/>
+      <c r="AB28" s="25"/>
+      <c r="AC28" s="25"/>
+      <c r="AD28" s="25"/>
+      <c r="AE28" s="25"/>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B29" s="7">
+        <v>-4.6132328669372669E-3</v>
+      </c>
+      <c r="C29" s="7">
+        <v>5.6191006719858279E-2</v>
+      </c>
+      <c r="D29" s="7">
+        <v>-8.2099131804786105E-2</v>
+      </c>
+      <c r="E29" s="7">
+        <v>0.93851196251841018</v>
+      </c>
+      <c r="F29" s="7">
+        <v>-0.1606244784304241</v>
+      </c>
+      <c r="G29" s="7">
+        <v>0.15139801269654957</v>
+      </c>
+      <c r="H29" s="7">
+        <v>-0.1606244784304241</v>
+      </c>
+      <c r="I29" s="7">
+        <v>0.15139801269654957</v>
+      </c>
+      <c r="J29" s="12"/>
+      <c r="K29" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="L29" s="7">
+        <v>3.9807734204714507E-2</v>
+      </c>
+      <c r="M29" s="7">
+        <v>0.47450311588138688</v>
+      </c>
+      <c r="N29" s="7">
+        <v>8.3893514862956931E-2</v>
+      </c>
+      <c r="O29" s="7">
+        <v>0.93717195197245085</v>
+      </c>
+      <c r="P29" s="7">
+        <v>-1.2776241192852635</v>
+      </c>
+      <c r="Q29" s="7">
+        <v>1.3572395876946926</v>
+      </c>
+      <c r="R29" s="7">
+        <v>-1.2776241192852635</v>
+      </c>
+      <c r="S29" s="7">
+        <v>1.3572395876946926</v>
+      </c>
+      <c r="T29" s="25"/>
+      <c r="U29" s="25"/>
+      <c r="V29" s="13"/>
+      <c r="W29" s="13"/>
+      <c r="X29" s="13"/>
+      <c r="Y29" s="13"/>
+      <c r="Z29" s="13"/>
+      <c r="AA29" s="13"/>
+      <c r="AB29" s="13"/>
+      <c r="AC29" s="13"/>
+      <c r="AD29" s="13"/>
+      <c r="AE29" s="25"/>
+    </row>
+    <row r="30" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B30" s="9">
+        <v>0.11841616277426437</v>
+      </c>
+      <c r="C30" s="9">
+        <v>9.9946793173107741E-5</v>
+      </c>
+      <c r="D30" s="9">
+        <v>1184.792017980684</v>
+      </c>
+      <c r="E30" s="9">
+        <v>3.0449538110703924E-12</v>
+      </c>
+      <c r="F30" s="9">
+        <v>0.11813866598957867</v>
+      </c>
+      <c r="G30" s="9">
+        <v>0.11869365955895006</v>
+      </c>
+      <c r="H30" s="9">
+        <v>0.11813866598957867</v>
+      </c>
+      <c r="I30" s="9">
+        <v>0.11869365955895006</v>
+      </c>
+      <c r="J30" s="12"/>
+      <c r="K30" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="L30" s="9">
+        <v>8.4447690841653227</v>
+      </c>
+      <c r="M30" s="9">
+        <v>7.1276384006686089E-3</v>
+      </c>
+      <c r="N30" s="9">
+        <v>1184.7920179807606</v>
+      </c>
+      <c r="O30" s="9">
+        <v>3.0449538110696028E-12</v>
+      </c>
+      <c r="P30" s="9">
+        <v>8.4249795874161659</v>
+      </c>
+      <c r="Q30" s="9">
+        <v>8.4645585809144794</v>
+      </c>
+      <c r="R30" s="9">
+        <v>8.4249795874161659</v>
+      </c>
+      <c r="S30" s="9">
+        <v>8.4645585809144794</v>
+      </c>
+      <c r="T30" s="25"/>
+      <c r="U30" s="25"/>
+      <c r="V30" s="7"/>
+      <c r="W30" s="7"/>
+      <c r="X30" s="7"/>
+      <c r="Y30" s="7"/>
+      <c r="Z30" s="7"/>
+      <c r="AA30" s="7"/>
+      <c r="AB30" s="7"/>
+      <c r="AC30" s="7"/>
+      <c r="AD30" s="7"/>
+      <c r="AE30" s="25"/>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A31"/>
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31"/>
+      <c r="H31"/>
+      <c r="I31"/>
+      <c r="J31" s="24"/>
+      <c r="T31" s="13"/>
+      <c r="U31" s="25"/>
+      <c r="V31" s="7"/>
+      <c r="W31" s="7"/>
+      <c r="X31" s="7"/>
+      <c r="Y31" s="7"/>
+      <c r="Z31" s="7"/>
+      <c r="AA31" s="7"/>
+      <c r="AB31" s="7"/>
+      <c r="AC31" s="7"/>
+      <c r="AD31" s="7"/>
+      <c r="AE31" s="25"/>
+    </row>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A32"/>
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32"/>
+      <c r="H32"/>
+      <c r="I32"/>
+      <c r="J32" s="24"/>
+      <c r="T32" s="7"/>
+      <c r="U32" s="25"/>
+      <c r="V32" s="25"/>
+      <c r="W32" s="25"/>
+      <c r="X32" s="25"/>
+      <c r="Y32" s="25"/>
+      <c r="Z32" s="25"/>
+      <c r="AA32" s="25"/>
+      <c r="AB32" s="25"/>
+      <c r="AC32" s="25"/>
+      <c r="AD32" s="25"/>
+      <c r="AE32" s="25"/>
+    </row>
+    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A33"/>
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33"/>
+      <c r="J33" s="24"/>
+      <c r="T33" s="7"/>
+      <c r="U33" s="25"/>
+      <c r="V33" s="25"/>
+      <c r="W33" s="25"/>
+      <c r="X33" s="25"/>
+      <c r="Y33" s="25"/>
+      <c r="Z33" s="25"/>
+      <c r="AA33" s="25"/>
+      <c r="AB33" s="25"/>
+      <c r="AC33" s="25"/>
+      <c r="AD33" s="25"/>
+      <c r="AE33" s="25"/>
+    </row>
+    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34"/>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34"/>
+      <c r="H34"/>
+      <c r="I34"/>
+      <c r="J34" s="24"/>
+      <c r="K34" t="s">
+        <v>77</v>
+      </c>
+      <c r="T34" s="25"/>
+      <c r="U34" s="25"/>
+      <c r="V34" s="25"/>
+      <c r="W34" s="25"/>
+      <c r="X34" s="25"/>
+      <c r="Y34" s="25"/>
+      <c r="Z34" s="25"/>
+      <c r="AA34" s="25"/>
+      <c r="AB34" s="25"/>
+      <c r="AC34" s="25"/>
+      <c r="AD34" s="25"/>
+      <c r="AE34" s="25"/>
+    </row>
+    <row r="35" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35"/>
+      <c r="B35"/>
+      <c r="C35"/>
+      <c r="D35"/>
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="I35"/>
+      <c r="J35" s="24"/>
+      <c r="T35" s="25"/>
+      <c r="U35" s="25"/>
+      <c r="V35" s="25"/>
+      <c r="W35" s="25"/>
+      <c r="X35" s="25"/>
+      <c r="Y35" s="25"/>
+      <c r="Z35" s="25"/>
+      <c r="AA35" s="25"/>
+      <c r="AB35" s="25"/>
+      <c r="AC35" s="25"/>
+      <c r="AD35" s="25"/>
+      <c r="AE35" s="25"/>
+    </row>
+    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A36" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D36"/>
+      <c r="E36"/>
+      <c r="F36"/>
+      <c r="G36"/>
+      <c r="H36"/>
+      <c r="I36"/>
+      <c r="J36" s="24"/>
+      <c r="K36" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="L36" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="M36" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="T36" s="25"/>
+      <c r="U36" s="25"/>
+      <c r="V36" s="25"/>
+      <c r="W36" s="25"/>
+      <c r="X36" s="25"/>
+      <c r="Y36" s="25"/>
+      <c r="Z36" s="25"/>
+      <c r="AA36" s="25"/>
+      <c r="AB36" s="25"/>
+      <c r="AC36" s="25"/>
+      <c r="AD36" s="25"/>
+      <c r="AE36" s="25"/>
+    </row>
+    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A37" s="7">
+        <v>1</v>
+      </c>
+      <c r="B37" s="7">
+        <v>0.41681673309525025</v>
+      </c>
+      <c r="C37" s="7">
+        <v>-9.8616733095250264E-2</v>
+      </c>
+      <c r="D37"/>
+      <c r="E37"/>
+      <c r="F37"/>
+      <c r="G37"/>
+      <c r="H37"/>
+      <c r="I37"/>
+      <c r="J37" s="24"/>
+      <c r="K37" s="7">
+        <v>1</v>
+      </c>
+      <c r="L37" s="7">
+        <v>2.7269332567861202</v>
+      </c>
+      <c r="M37" s="7">
+        <v>0.83195563210276857</v>
+      </c>
+      <c r="T37" s="25"/>
+      <c r="U37" s="25"/>
+      <c r="V37" s="13"/>
+      <c r="W37" s="13"/>
+      <c r="X37" s="13"/>
+      <c r="Y37" s="25"/>
+      <c r="Z37" s="25"/>
+      <c r="AA37" s="25"/>
+      <c r="AB37" s="25"/>
+      <c r="AC37" s="25"/>
+      <c r="AD37" s="25"/>
+      <c r="AE37" s="25"/>
+    </row>
+    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A38" s="7">
+        <v>2</v>
+      </c>
+      <c r="B38" s="7">
+        <v>1.6756463301427775</v>
+      </c>
+      <c r="C38" s="7">
+        <v>-8.4646330142777559E-2</v>
+      </c>
+      <c r="D38"/>
+      <c r="E38"/>
+      <c r="F38"/>
+      <c r="G38"/>
+      <c r="H38"/>
+      <c r="I38"/>
+      <c r="J38" s="24"/>
+      <c r="K38" s="7">
+        <v>2</v>
+      </c>
+      <c r="L38" s="7">
+        <v>13.475435347111743</v>
+      </c>
+      <c r="M38" s="7">
+        <v>0.71400909733270268</v>
+      </c>
+      <c r="T38" s="25"/>
+      <c r="U38" s="25"/>
+      <c r="V38" s="7"/>
+      <c r="W38" s="7"/>
+      <c r="X38" s="7"/>
+      <c r="Y38" s="25"/>
+      <c r="Z38" s="25"/>
+      <c r="AA38" s="25"/>
+      <c r="AB38" s="25"/>
+      <c r="AC38" s="25"/>
+      <c r="AD38" s="25"/>
+      <c r="AE38" s="25"/>
+    </row>
+    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A39" s="7">
+        <v>3</v>
+      </c>
+      <c r="B39" s="7">
+        <v>3.2236087246307998</v>
+      </c>
+      <c r="C39" s="7">
+        <v>-4.1608724630799898E-2</v>
+      </c>
+      <c r="D39"/>
+      <c r="E39"/>
+      <c r="F39"/>
+      <c r="G39"/>
+      <c r="H39"/>
+      <c r="I39"/>
+      <c r="J39" s="24"/>
+      <c r="K39" s="7">
+        <v>3</v>
+      </c>
+      <c r="L39" s="7">
+        <v>26.911062960018771</v>
+      </c>
+      <c r="M39" s="7">
+        <v>0.35060370664789531</v>
+      </c>
+      <c r="T39" s="25"/>
+      <c r="U39" s="25"/>
+      <c r="V39" s="7"/>
+      <c r="W39" s="7"/>
+      <c r="X39" s="7"/>
+      <c r="Y39" s="25"/>
+      <c r="Z39" s="25"/>
+      <c r="AA39" s="25"/>
+      <c r="AB39" s="25"/>
+      <c r="AC39" s="25"/>
+      <c r="AD39" s="25"/>
+      <c r="AE39" s="25"/>
+    </row>
+    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A40" s="7">
+        <v>4</v>
+      </c>
+      <c r="B40" s="7">
+        <v>15.781905933869924</v>
+      </c>
+      <c r="C40" s="7">
+        <v>0.12809406613007646</v>
+      </c>
+      <c r="D40"/>
+      <c r="E40"/>
+      <c r="F40"/>
+      <c r="G40"/>
+      <c r="H40"/>
+      <c r="I40"/>
+      <c r="J40" s="24"/>
+      <c r="K40" s="7">
+        <v>4</v>
+      </c>
+      <c r="L40" s="7">
+        <v>134.39608386327501</v>
+      </c>
+      <c r="M40" s="7">
+        <v>-1.0821949743861126</v>
+      </c>
+      <c r="T40" s="25"/>
+      <c r="U40" s="25"/>
+      <c r="V40" s="7"/>
+      <c r="W40" s="7"/>
+      <c r="X40" s="7"/>
+      <c r="Y40" s="25"/>
+      <c r="Z40" s="25"/>
+      <c r="AA40" s="25"/>
+      <c r="AB40" s="25"/>
+      <c r="AC40" s="25"/>
+      <c r="AD40" s="25"/>
+      <c r="AE40" s="25"/>
+    </row>
+    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A41" s="7">
+        <v>5</v>
+      </c>
+      <c r="B41" s="7">
+        <v>31.685788675267496</v>
+      </c>
+      <c r="C41" s="7">
+        <v>0.13421132473250452</v>
+      </c>
+      <c r="D41"/>
+      <c r="E41"/>
+      <c r="F41"/>
+      <c r="G41"/>
+      <c r="H41"/>
+      <c r="I41"/>
+      <c r="J41" s="24"/>
+      <c r="K41" s="7">
+        <v>5</v>
+      </c>
+      <c r="L41" s="7">
+        <v>268.7523599923453</v>
+      </c>
+      <c r="M41" s="7">
+        <v>-1.1334711034564293</v>
+      </c>
+      <c r="T41" s="25"/>
+      <c r="U41" s="25"/>
+      <c r="V41" s="7"/>
+      <c r="W41" s="7"/>
+      <c r="X41" s="7"/>
+      <c r="Y41" s="25"/>
+      <c r="Z41" s="25"/>
+      <c r="AA41" s="25"/>
+      <c r="AB41" s="25"/>
+      <c r="AC41" s="25"/>
+      <c r="AD41" s="25"/>
+      <c r="AE41" s="25"/>
+    </row>
+    <row r="42" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="9">
         <v>6</v>
       </c>
-      <c r="K18" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="L18" s="11">
-        <v>0.99999715046159587</v>
-      </c>
-      <c r="M18" s="11"/>
-      <c r="V18" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="W18" s="11">
-        <v>0.21657792198407996</v>
-      </c>
-    </row>
-    <row r="19" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K19" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="L19" s="11">
-        <v>0.99999643807699479</v>
-      </c>
-      <c r="M19" s="11"/>
-      <c r="V19" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="W19" s="14">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>65</v>
-      </c>
-      <c r="K20" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="L20" s="11">
-        <v>0.98521674441591967</v>
-      </c>
-      <c r="M20" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="15"/>
-      <c r="B21" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="C21" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="K21" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="L21" s="14">
+      <c r="B42" s="9">
+        <v>159.1374336029937</v>
+      </c>
+      <c r="C42" s="9">
+        <v>-3.7433602993701243E-2</v>
+      </c>
+      <c r="D42"/>
+      <c r="E42"/>
+      <c r="F42"/>
+      <c r="G42"/>
+      <c r="H42"/>
+      <c r="I42"/>
+      <c r="J42" s="24"/>
+      <c r="K42" s="9">
         <v>6</v>
       </c>
-      <c r="M21" s="11"/>
-      <c r="V21" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="B22" s="9">
-        <v>1</v>
-      </c>
-      <c r="C22" s="9">
-        <v>65308.297043969178</v>
-      </c>
-      <c r="D22" s="9">
-        <v>65308.297043969178</v>
-      </c>
-      <c r="E22" s="9">
-        <v>1403732.125870778</v>
-      </c>
-      <c r="F22" s="9">
-        <v>3.0449538110702301E-12</v>
-      </c>
-      <c r="V22" s="16"/>
-      <c r="W22" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="X22" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y22" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="Z22" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA22" s="16" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="23" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="B23" s="9">
-        <v>4</v>
-      </c>
-      <c r="C23" s="9">
-        <v>0.1860990308345517</v>
-      </c>
-      <c r="D23" s="9">
-        <v>4.6524757708637926E-2</v>
-      </c>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="K23" t="s">
-        <v>65</v>
-      </c>
-      <c r="V23" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="W23" s="11">
-        <v>1</v>
-      </c>
-      <c r="X23" s="11">
-        <v>68963.328425895714</v>
-      </c>
-      <c r="Y23" s="11">
-        <v>68963.328425895714</v>
-      </c>
-      <c r="Z23" s="11">
-        <v>1470245.467085684</v>
-      </c>
-      <c r="AA23" s="11">
-        <v>7.241458966576287E-15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="B24" s="13">
-        <v>5</v>
-      </c>
-      <c r="C24" s="13">
-        <v>65308.483143000012</v>
-      </c>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="K24" s="16"/>
-      <c r="L24" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="M24" s="16"/>
-      <c r="N24" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="O24" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="P24" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q24" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="V24" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="W24" s="11">
-        <v>5</v>
-      </c>
-      <c r="X24" s="11">
-        <v>0.23452998145471113</v>
-      </c>
-      <c r="Y24" s="11">
-        <v>4.6905996290942227E-2</v>
-      </c>
-      <c r="Z24" s="11"/>
-      <c r="AA24" s="11"/>
-    </row>
-    <row r="25" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K25" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="L25" s="11">
-        <v>1</v>
-      </c>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11">
-        <v>1362535.4424342527</v>
-      </c>
-      <c r="O25" s="11">
-        <v>1362535.4424342527</v>
-      </c>
-      <c r="P25" s="11">
-        <v>1403732.1258708637</v>
-      </c>
-      <c r="Q25" s="11">
-        <v>3.0449538110698621E-12</v>
-      </c>
-      <c r="V25" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="W25" s="14">
-        <v>6</v>
-      </c>
-      <c r="X25" s="14">
-        <v>68963.562955877162</v>
-      </c>
-      <c r="Y25" s="14"/>
-      <c r="Z25" s="14"/>
-      <c r="AA25" s="14"/>
-    </row>
-    <row r="26" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="15"/>
-      <c r="B26" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="F26" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="G26" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="H26" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="I26" s="15" t="s">
+      <c r="L42" s="9">
+        <v>1343.6025690249076</v>
+      </c>
+      <c r="M42" s="9">
+        <v>0.31909764175907185</v>
+      </c>
+      <c r="T42" s="25"/>
+      <c r="U42" s="25"/>
+      <c r="V42" s="7"/>
+      <c r="W42" s="7"/>
+      <c r="X42" s="7"/>
+      <c r="Y42" s="25"/>
+      <c r="Z42" s="25"/>
+      <c r="AA42" s="25"/>
+      <c r="AB42" s="25"/>
+      <c r="AC42" s="25"/>
+      <c r="AD42" s="25"/>
+      <c r="AE42" s="25"/>
+    </row>
+    <row r="43" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="12"/>
+      <c r="B43" s="12"/>
+      <c r="C43" s="12"/>
+      <c r="J43" s="24"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="7"/>
+      <c r="O43" s="25"/>
+      <c r="P43" s="25"/>
+      <c r="Q43" s="25"/>
+      <c r="R43" s="25"/>
+      <c r="S43" s="25"/>
+      <c r="T43" s="25"/>
+      <c r="U43" s="25"/>
+      <c r="V43" s="7"/>
+      <c r="W43" s="7"/>
+      <c r="X43" s="7"/>
+      <c r="Y43" s="25"/>
+      <c r="Z43" s="25"/>
+      <c r="AA43" s="25"/>
+      <c r="AB43" s="25"/>
+      <c r="AC43" s="25"/>
+      <c r="AD43" s="25"/>
+      <c r="AE43" s="25"/>
+    </row>
+    <row r="44" spans="1:31" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="21"/>
+      <c r="B44" s="21"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="21"/>
+      <c r="H44" s="21"/>
+      <c r="I44" s="21"/>
+      <c r="J44" s="21"/>
+      <c r="K44" s="26"/>
+      <c r="L44" s="26"/>
+      <c r="M44" s="26"/>
+      <c r="N44" s="26"/>
+      <c r="V44" s="26"/>
+      <c r="W44" s="26"/>
+      <c r="X44" s="26"/>
+    </row>
+    <row r="45" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A45" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="J26" s="17"/>
-      <c r="K26" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="L26" s="11">
-        <v>4</v>
-      </c>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11">
-        <v>3.882608133910014</v>
-      </c>
-      <c r="O26" s="11">
-        <v>0.97065203347750351</v>
-      </c>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="11"/>
-    </row>
-    <row r="27" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="B27" s="9">
-        <v>-8.5291165795524648E-3</v>
-      </c>
-      <c r="C27" s="9">
-        <v>0.10388802405182966</v>
-      </c>
-      <c r="D27" s="9">
-        <v>-8.2099131804617781E-2</v>
-      </c>
-      <c r="E27" s="9">
-        <v>0.93851196251853586</v>
-      </c>
-      <c r="F27" s="9">
-        <v>-0.29696851244692557</v>
-      </c>
-      <c r="G27" s="9">
-        <v>0.27991027928782064</v>
-      </c>
-      <c r="H27" s="9">
-        <v>-0.29696851244692557</v>
-      </c>
-      <c r="I27" s="9">
-        <v>0.27991027928782064</v>
-      </c>
-      <c r="J27" s="9"/>
-      <c r="K27" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="L27" s="14">
-        <v>5</v>
-      </c>
-      <c r="M27" s="14"/>
-      <c r="N27" s="14">
-        <v>1362539.3250423865</v>
-      </c>
-      <c r="O27" s="14"/>
-      <c r="P27" s="14"/>
-      <c r="Q27" s="14"/>
-      <c r="V27" s="16"/>
-      <c r="W27" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="X27" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="Y27" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="Z27" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="AA27" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="AB27" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC27" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="AD27" s="16" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="28" spans="1:30" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="B28" s="13">
-        <v>0.21893220791986087</v>
-      </c>
-      <c r="C28" s="13">
-        <v>1.8478535016888282E-4</v>
-      </c>
-      <c r="D28" s="13">
-        <v>1184.7920179806995</v>
-      </c>
-      <c r="E28" s="13">
-        <v>3.0449538110702301E-12</v>
-      </c>
-      <c r="F28" s="13">
-        <v>0.21841916153887223</v>
-      </c>
-      <c r="G28" s="13">
-        <v>0.21944525430084952</v>
-      </c>
-      <c r="H28" s="13">
-        <v>0.21841916153887223</v>
-      </c>
-      <c r="I28" s="13">
-        <v>0.21944525430084952</v>
-      </c>
-      <c r="J28" s="18"/>
-      <c r="V28" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="W28" s="11">
-        <v>-5.448301612160833E-2</v>
-      </c>
-      <c r="X28" s="11">
-        <v>9.3999431059690358E-2</v>
-      </c>
-      <c r="Y28" s="11">
-        <v>-0.57961006260783854</v>
-      </c>
-      <c r="Z28" s="11">
-        <v>0.58731182151210115</v>
-      </c>
-      <c r="AA28" s="11">
-        <v>-0.29611624616379639</v>
-      </c>
-      <c r="AB28" s="11">
-        <v>0.18715021392057976</v>
-      </c>
-      <c r="AC28" s="11">
-        <v>-0.29611624616379639</v>
-      </c>
-      <c r="AD28" s="11">
-        <v>0.18715021392057976</v>
-      </c>
-    </row>
-    <row r="29" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K29" s="16"/>
-      <c r="L29" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="M29" s="16"/>
-      <c r="N29" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="O29" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="P29" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q29" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="R29" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="S29" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="T29" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="V29" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="W29" s="14">
-        <v>0.21897545779439398</v>
-      </c>
-      <c r="X29" s="14">
-        <v>1.8059283611157159E-4</v>
-      </c>
-      <c r="Y29" s="14">
-        <v>1212.5367899926514</v>
-      </c>
-      <c r="Z29" s="14">
-        <v>7.241458966576287E-15</v>
-      </c>
-      <c r="AA29" s="14">
-        <v>0.21851122913023951</v>
-      </c>
-      <c r="AB29" s="14">
-        <v>0.21943968645854844</v>
-      </c>
-      <c r="AC29" s="14">
-        <v>0.21851122913023951</v>
-      </c>
-      <c r="AD29" s="14">
-        <v>0.21943968645854844</v>
-      </c>
-    </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="K30" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="L30" s="11">
-        <v>3.980773420477135E-2</v>
-      </c>
-      <c r="M30" s="11"/>
-      <c r="N30" s="11">
-        <v>0.47450311588139682</v>
-      </c>
-      <c r="O30" s="11">
-        <v>8.3893514863074975E-2</v>
-      </c>
-      <c r="P30" s="11">
-        <v>0.93717195197236269</v>
-      </c>
-      <c r="Q30" s="11">
-        <v>-1.2776241192852342</v>
-      </c>
-      <c r="R30" s="11">
-        <v>1.3572395876947769</v>
-      </c>
-      <c r="S30" s="11">
-        <v>-1.2776241192852342</v>
-      </c>
-      <c r="T30" s="11">
-        <v>1.3572395876947769</v>
-      </c>
-    </row>
-    <row r="31" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K31" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="L31" s="14">
-        <v>4.5676109511837577</v>
-      </c>
-      <c r="M31" s="14"/>
-      <c r="N31" s="14">
-        <v>3.8552006443868751E-3</v>
-      </c>
-      <c r="O31" s="14">
-        <v>1184.7920179807356</v>
-      </c>
-      <c r="P31" s="14">
-        <v>3.0449538110698516E-12</v>
-      </c>
-      <c r="Q31" s="14">
-        <v>4.5569071982250948</v>
-      </c>
-      <c r="R31" s="14">
-        <v>4.5783147041424206</v>
-      </c>
-      <c r="S31" s="14">
-        <v>4.5569071982250948</v>
-      </c>
-      <c r="T31" s="14">
-        <v>4.5783147041424206</v>
-      </c>
-    </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="33" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="V33" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="34" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="B34" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C34" s="15" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A35" s="9">
-        <v>1</v>
-      </c>
-      <c r="B35" s="9">
-        <v>0.77062628560635238</v>
-      </c>
-      <c r="C35" s="9">
-        <v>-0.18232628560635233</v>
-      </c>
-      <c r="K35" t="s">
-        <v>84</v>
-      </c>
-      <c r="V35" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="W35" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="X35" s="16" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="36" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="9">
-        <v>2</v>
-      </c>
-      <c r="B36" s="9">
-        <v>3.0979972847988737</v>
-      </c>
-      <c r="C36" s="9">
-        <v>-0.15649728479887326</v>
-      </c>
-      <c r="V36" s="11">
-        <v>1</v>
-      </c>
-      <c r="W36" s="11">
-        <v>0.19831198459880872</v>
-      </c>
-      <c r="X36" s="11">
-        <v>-0.19831198459880872</v>
-      </c>
-    </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A37" s="9">
-        <v>3</v>
-      </c>
-      <c r="B37" s="9">
-        <v>5.9599277583290551</v>
-      </c>
-      <c r="C37" s="9">
-        <v>-7.6927758329054186E-2</v>
-      </c>
-      <c r="K37" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="L37" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="M37" s="16"/>
-      <c r="N37" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="O37" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="V37" s="11">
-        <v>2</v>
-      </c>
-      <c r="W37" s="11">
-        <v>0.72482630756221822</v>
-      </c>
-      <c r="X37" s="11">
-        <v>-0.13652630756221817</v>
-      </c>
-    </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A38" s="9">
-        <v>4</v>
-      </c>
-      <c r="B38" s="9">
-        <v>29.178174924247902</v>
-      </c>
-      <c r="C38" s="9">
-        <v>0.2368250757521011</v>
-      </c>
-      <c r="K38" s="11">
-        <v>1</v>
-      </c>
-      <c r="L38" s="11">
-        <v>2.7269332567861762</v>
-      </c>
-      <c r="M38" s="11"/>
-      <c r="N38" s="11">
-        <v>0.83195563210271262</v>
-      </c>
-      <c r="O38">
-        <f>N38^2</f>
-        <v>0.69215017378742405</v>
-      </c>
-      <c r="V38" s="11">
-        <v>3</v>
-      </c>
-      <c r="W38" s="11">
-        <v>3.0526570769487344</v>
-      </c>
-      <c r="X38" s="11">
-        <v>-0.111157076948734</v>
-      </c>
-    </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A39" s="9">
-        <v>5</v>
-      </c>
-      <c r="B39" s="9">
-        <v>58.581865108924809</v>
-      </c>
-      <c r="C39" s="9">
-        <v>0.24813489107519615</v>
-      </c>
-      <c r="K39" s="11">
-        <v>2</v>
-      </c>
-      <c r="L39" s="11">
-        <v>13.475435347111796</v>
-      </c>
-      <c r="M39" s="11"/>
-      <c r="N39" s="11">
-        <v>0.71400909733264939</v>
-      </c>
-      <c r="O39">
-        <f t="shared" ref="O39:O43" si="7">N39^2</f>
-        <v>0.50980899107378475</v>
-      </c>
-      <c r="V39" s="11">
-        <v>4</v>
-      </c>
-      <c r="W39" s="11">
-        <v>5.915152922449896</v>
-      </c>
-      <c r="X39" s="11">
-        <v>-3.2152922449895094E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="13">
-        <v>6</v>
-      </c>
-      <c r="B40" s="13">
-        <v>294.21920863809305</v>
-      </c>
-      <c r="C40" s="13">
-        <v>-6.9208638093016361E-2</v>
-      </c>
-      <c r="K40" s="11">
-        <v>3</v>
-      </c>
-      <c r="L40" s="11">
-        <v>26.911062960018821</v>
-      </c>
-      <c r="M40" s="11"/>
-      <c r="N40" s="11">
-        <v>0.35060370664784557</v>
-      </c>
-      <c r="O40">
-        <f t="shared" si="7"/>
-        <v>0.12292295911520855</v>
-      </c>
-      <c r="V40" s="11">
-        <v>5</v>
-      </c>
-      <c r="W40" s="11">
-        <v>29.137986833673811</v>
-      </c>
-      <c r="X40" s="11">
-        <v>0.27701316632619211</v>
-      </c>
-    </row>
-    <row r="41" spans="1:24" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="13">
-        <v>6</v>
-      </c>
-      <c r="B41" s="13">
-        <v>1343.6025690249071</v>
-      </c>
-      <c r="C41" s="13">
-        <v>0.3190976417595266</v>
-      </c>
-      <c r="K41" s="11">
-        <v>4</v>
-      </c>
-      <c r="L41" s="11">
-        <v>134.39608386327501</v>
-      </c>
-      <c r="M41" s="11"/>
-      <c r="N41" s="11">
-        <v>-1.0821949743861126</v>
-      </c>
-      <c r="O41">
-        <f t="shared" si="7"/>
-        <v>1.1711459625865588</v>
-      </c>
-      <c r="V41" s="11">
-        <v>6</v>
-      </c>
-      <c r="W41" s="11">
-        <v>58.547485692749888</v>
-      </c>
-      <c r="X41" s="11">
-        <v>0.28251430725011772</v>
-      </c>
-    </row>
-    <row r="42" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="K42" s="11">
-        <v>5</v>
-      </c>
-      <c r="L42" s="11">
-        <v>268.75235999234525</v>
-      </c>
-      <c r="M42" s="11"/>
-      <c r="N42" s="11">
-        <v>-1.1334711034563725</v>
-      </c>
-      <c r="O42">
-        <f t="shared" si="7"/>
-        <v>1.2847567423706066</v>
-      </c>
-      <c r="V42" s="14">
-        <v>7</v>
-      </c>
-      <c r="W42" s="14">
-        <v>294.23137918201667</v>
-      </c>
-      <c r="X42" s="14">
-        <v>-8.1379182016632967E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="K43" s="14">
-        <v>6</v>
-      </c>
-      <c r="L43" s="14">
-        <v>1343.6025690249071</v>
-      </c>
-      <c r="M43" s="14"/>
-      <c r="N43" s="14">
-        <v>0.3190976417595266</v>
-      </c>
-      <c r="O43">
-        <f t="shared" si="7"/>
-        <v>0.10182330497649117</v>
-      </c>
-    </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>55</v>
-      </c>
-      <c r="B44" t="s">
-        <v>90</v>
-      </c>
-      <c r="C44"/>
-      <c r="D44"/>
-      <c r="E44"/>
-      <c r="F44"/>
-      <c r="G44"/>
-      <c r="H44"/>
-      <c r="I44"/>
-    </row>
-    <row r="45" spans="1:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45"/>
-      <c r="B45"/>
-      <c r="C45"/>
-      <c r="D45"/>
-      <c r="E45"/>
-      <c r="F45"/>
-      <c r="G45"/>
-      <c r="H45"/>
-      <c r="I45"/>
-    </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A46" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="B46" s="10"/>
+      <c r="J45" s="24"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="7"/>
+      <c r="M45" s="7"/>
+      <c r="N45" s="7"/>
+      <c r="O45" s="25"/>
+      <c r="P45" s="25"/>
+      <c r="Q45" s="25"/>
+      <c r="R45" s="25"/>
+      <c r="S45" s="25"/>
+      <c r="T45" s="25"/>
+      <c r="U45" s="25"/>
+      <c r="V45" s="25"/>
+      <c r="W45" s="25"/>
+      <c r="X45" s="25"/>
+      <c r="Y45" s="25"/>
+      <c r="Z45" s="25"/>
+      <c r="AA45" s="25"/>
+      <c r="AB45" s="25"/>
+      <c r="AC45" s="25"/>
+      <c r="AD45" s="25"/>
+      <c r="AE45" s="25"/>
+    </row>
+    <row r="46" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>52</v>
+      </c>
+      <c r="B46"/>
       <c r="C46"/>
       <c r="D46"/>
       <c r="E46"/>
@@ -2417,14 +3060,32 @@
       <c r="G46"/>
       <c r="H46"/>
       <c r="I46"/>
-    </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A47" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="B47" s="11">
-        <v>0.99913678675732565</v>
-      </c>
+      <c r="J46" s="24"/>
+      <c r="K46" s="25"/>
+      <c r="L46" s="25"/>
+      <c r="M46" s="25"/>
+      <c r="N46" s="25"/>
+      <c r="O46" s="25"/>
+      <c r="P46" s="25"/>
+      <c r="Q46" s="25"/>
+      <c r="R46" s="25"/>
+      <c r="S46" s="25"/>
+      <c r="T46" s="25"/>
+      <c r="U46" s="25"/>
+      <c r="V46" s="25"/>
+      <c r="W46" s="25"/>
+      <c r="X46" s="25"/>
+      <c r="Y46" s="25"/>
+      <c r="Z46" s="25"/>
+      <c r="AA46" s="25"/>
+      <c r="AB46" s="25"/>
+      <c r="AC46" s="25"/>
+      <c r="AD46" s="25"/>
+      <c r="AE46" s="25"/>
+    </row>
+    <row r="47" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47"/>
+      <c r="B47"/>
       <c r="C47"/>
       <c r="D47"/>
       <c r="E47"/>
@@ -2432,14 +3093,34 @@
       <c r="G47"/>
       <c r="H47"/>
       <c r="I47"/>
-    </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A48" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="B48" s="11">
-        <v>0.99827431865175353</v>
-      </c>
+      <c r="J47" s="24"/>
+      <c r="K47" s="25"/>
+      <c r="L47" s="25"/>
+      <c r="M47" s="25"/>
+      <c r="N47" s="25"/>
+      <c r="O47" s="25"/>
+      <c r="P47" s="25"/>
+      <c r="Q47" s="25"/>
+      <c r="R47" s="25"/>
+      <c r="S47" s="25"/>
+      <c r="T47" s="25"/>
+      <c r="U47" s="25"/>
+      <c r="V47" s="25"/>
+      <c r="W47" s="25"/>
+      <c r="X47" s="25"/>
+      <c r="Y47" s="25"/>
+      <c r="Z47" s="25"/>
+      <c r="AA47" s="25"/>
+      <c r="AB47" s="25"/>
+      <c r="AC47" s="25"/>
+      <c r="AD47" s="25"/>
+      <c r="AE47" s="25"/>
+    </row>
+    <row r="48" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A48" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48" s="6"/>
       <c r="C48"/>
       <c r="D48"/>
       <c r="E48"/>
@@ -2447,13 +3128,35 @@
       <c r="G48"/>
       <c r="H48"/>
       <c r="I48"/>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="B49" s="11">
-        <v>0.99792918238210437</v>
+      <c r="J48" s="24"/>
+      <c r="K48" s="25"/>
+      <c r="L48" s="25"/>
+      <c r="M48" s="25"/>
+      <c r="N48" s="25"/>
+      <c r="O48" s="25"/>
+      <c r="P48" s="25"/>
+      <c r="Q48" s="25"/>
+      <c r="R48" s="25"/>
+      <c r="S48" s="25"/>
+      <c r="T48" s="25"/>
+      <c r="U48" s="25"/>
+      <c r="V48" s="25"/>
+      <c r="W48" s="25"/>
+      <c r="X48" s="25"/>
+      <c r="Y48" s="25"/>
+      <c r="Z48" s="25"/>
+      <c r="AA48" s="25"/>
+      <c r="AB48" s="25"/>
+      <c r="AC48" s="25"/>
+      <c r="AD48" s="25"/>
+      <c r="AE48" s="25"/>
+    </row>
+    <row r="49" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A49" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49" s="7">
+        <v>0.99924092193949743</v>
       </c>
       <c r="C49"/>
       <c r="D49"/>
@@ -2462,13 +3165,35 @@
       <c r="G49"/>
       <c r="H49"/>
       <c r="I49"/>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="B50" s="11">
-        <v>4.8787115983951139</v>
+      <c r="J49" s="24"/>
+      <c r="K49" s="25"/>
+      <c r="L49" s="25"/>
+      <c r="M49" s="25"/>
+      <c r="N49" s="25"/>
+      <c r="O49" s="25"/>
+      <c r="P49" s="25"/>
+      <c r="Q49" s="25"/>
+      <c r="R49" s="25"/>
+      <c r="S49" s="25"/>
+      <c r="T49" s="25"/>
+      <c r="U49" s="25"/>
+      <c r="V49" s="25"/>
+      <c r="W49" s="25"/>
+      <c r="X49" s="25"/>
+      <c r="Y49" s="25"/>
+      <c r="Z49" s="25"/>
+      <c r="AA49" s="25"/>
+      <c r="AB49" s="25"/>
+      <c r="AC49" s="25"/>
+      <c r="AD49" s="25"/>
+      <c r="AE49" s="25"/>
+    </row>
+    <row r="50" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A50" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50" s="7">
+        <v>0.99848242007849675</v>
       </c>
       <c r="C50"/>
       <c r="D50"/>
@@ -2477,13 +3202,35 @@
       <c r="G50"/>
       <c r="H50"/>
       <c r="I50"/>
-    </row>
-    <row r="51" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="B51" s="14">
-        <v>7</v>
+      <c r="J50" s="24"/>
+      <c r="K50" s="25"/>
+      <c r="L50" s="25"/>
+      <c r="M50" s="25"/>
+      <c r="N50" s="25"/>
+      <c r="O50" s="25"/>
+      <c r="P50" s="25"/>
+      <c r="Q50" s="25"/>
+      <c r="R50" s="25"/>
+      <c r="S50" s="25"/>
+      <c r="T50" s="25"/>
+      <c r="U50" s="25"/>
+      <c r="V50" s="25"/>
+      <c r="W50" s="25"/>
+      <c r="X50" s="25"/>
+      <c r="Y50" s="25"/>
+      <c r="Z50" s="25"/>
+      <c r="AA50" s="25"/>
+      <c r="AB50" s="25"/>
+      <c r="AC50" s="25"/>
+      <c r="AD50" s="25"/>
+      <c r="AE50" s="25"/>
+    </row>
+    <row r="51" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A51" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B51" s="7">
+        <v>0.99810302509812088</v>
       </c>
       <c r="C51"/>
       <c r="D51"/>
@@ -2492,10 +3239,36 @@
       <c r="G51"/>
       <c r="H51"/>
       <c r="I51"/>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A52"/>
-      <c r="B52"/>
+      <c r="J51" s="24"/>
+      <c r="K51" s="25"/>
+      <c r="L51" s="25"/>
+      <c r="M51" s="25"/>
+      <c r="N51" s="25"/>
+      <c r="O51" s="25"/>
+      <c r="P51" s="25"/>
+      <c r="Q51" s="25"/>
+      <c r="R51" s="25"/>
+      <c r="S51" s="25"/>
+      <c r="T51" s="25"/>
+      <c r="U51" s="25"/>
+      <c r="V51" s="25"/>
+      <c r="W51" s="25"/>
+      <c r="X51" s="25"/>
+      <c r="Y51" s="25"/>
+      <c r="Z51" s="25"/>
+      <c r="AA51" s="25"/>
+      <c r="AB51" s="25"/>
+      <c r="AC51" s="25"/>
+      <c r="AD51" s="25"/>
+      <c r="AE51" s="25"/>
+    </row>
+    <row r="52" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A52" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52" s="7">
+        <v>2.6923524740569098</v>
+      </c>
       <c r="C52"/>
       <c r="D52"/>
       <c r="E52"/>
@@ -2503,12 +3276,36 @@
       <c r="G52"/>
       <c r="H52"/>
       <c r="I52"/>
-    </row>
-    <row r="53" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>65</v>
-      </c>
-      <c r="B53"/>
+      <c r="J52" s="24"/>
+      <c r="K52" s="25"/>
+      <c r="L52" s="25"/>
+      <c r="M52" s="25"/>
+      <c r="N52" s="25"/>
+      <c r="O52" s="25"/>
+      <c r="P52" s="25"/>
+      <c r="Q52" s="25"/>
+      <c r="R52" s="25"/>
+      <c r="S52" s="25"/>
+      <c r="T52" s="25"/>
+      <c r="U52" s="25"/>
+      <c r="V52" s="25"/>
+      <c r="W52" s="25"/>
+      <c r="X52" s="25"/>
+      <c r="Y52" s="25"/>
+      <c r="Z52" s="25"/>
+      <c r="AA52" s="25"/>
+      <c r="AB52" s="25"/>
+      <c r="AC52" s="25"/>
+      <c r="AD52" s="25"/>
+      <c r="AE52" s="25"/>
+    </row>
+    <row r="53" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53" s="9">
+        <v>6</v>
+      </c>
       <c r="C53"/>
       <c r="D53"/>
       <c r="E53"/>
@@ -2516,209 +3313,450 @@
       <c r="G53"/>
       <c r="H53"/>
       <c r="I53"/>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="16"/>
-      <c r="B54" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="C54" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D54" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="E54" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="F54" s="16" t="s">
-        <v>71</v>
-      </c>
+      <c r="J53" s="24"/>
+      <c r="K53" s="25"/>
+      <c r="L53" s="25"/>
+      <c r="M53" s="25"/>
+      <c r="N53" s="25"/>
+      <c r="O53" s="25"/>
+      <c r="P53" s="25"/>
+      <c r="Q53" s="25"/>
+      <c r="R53" s="25"/>
+      <c r="S53" s="25"/>
+      <c r="T53" s="25"/>
+      <c r="U53" s="25"/>
+      <c r="V53" s="25"/>
+      <c r="W53" s="25"/>
+      <c r="X53" s="25"/>
+      <c r="Y53" s="25"/>
+      <c r="Z53" s="25"/>
+      <c r="AA53" s="25"/>
+      <c r="AB53" s="25"/>
+      <c r="AC53" s="25"/>
+      <c r="AD53" s="25"/>
+      <c r="AE53" s="25"/>
+    </row>
+    <row r="54" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A54"/>
+      <c r="B54"/>
+      <c r="C54"/>
+      <c r="D54"/>
+      <c r="E54"/>
+      <c r="F54"/>
       <c r="G54"/>
       <c r="H54"/>
       <c r="I54"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A55" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="B55" s="11">
-        <v>1</v>
-      </c>
-      <c r="C55" s="11">
-        <v>68844.553821575581</v>
-      </c>
-      <c r="D55" s="11">
-        <v>68844.553821575581</v>
-      </c>
-      <c r="E55" s="11">
-        <v>2892.4062940883214</v>
-      </c>
-      <c r="F55" s="11">
-        <v>4.2028918326297201E-8</v>
-      </c>
+      <c r="J54" s="24"/>
+      <c r="K54" s="25"/>
+      <c r="L54" s="25"/>
+      <c r="M54" s="25"/>
+      <c r="N54" s="25"/>
+      <c r="O54" s="25"/>
+      <c r="P54" s="25"/>
+      <c r="Q54" s="25"/>
+      <c r="R54" s="25"/>
+      <c r="S54" s="25"/>
+      <c r="T54" s="25"/>
+      <c r="U54" s="25"/>
+      <c r="V54" s="25"/>
+      <c r="W54" s="25"/>
+      <c r="X54" s="25"/>
+      <c r="Y54" s="25"/>
+      <c r="Z54" s="25"/>
+      <c r="AA54" s="25"/>
+      <c r="AB54" s="25"/>
+      <c r="AC54" s="25"/>
+      <c r="AD54" s="25"/>
+      <c r="AE54" s="25"/>
+    </row>
+    <row r="55" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>59</v>
+      </c>
+      <c r="B55"/>
+      <c r="C55"/>
+      <c r="D55"/>
+      <c r="E55"/>
+      <c r="F55"/>
       <c r="G55"/>
       <c r="H55"/>
       <c r="I55"/>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A56" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="B56" s="11">
-        <v>5</v>
-      </c>
-      <c r="C56" s="11">
-        <v>119.00913430157502</v>
-      </c>
-      <c r="D56" s="11">
-        <v>23.801826860315003</v>
-      </c>
-      <c r="E56" s="11"/>
-      <c r="F56" s="11"/>
+      <c r="J55" s="24"/>
+      <c r="K55" s="25"/>
+      <c r="L55" s="25"/>
+      <c r="M55" s="25"/>
+      <c r="N55" s="25"/>
+      <c r="O55" s="25"/>
+      <c r="P55" s="25"/>
+      <c r="Q55" s="25"/>
+      <c r="R55" s="25"/>
+      <c r="S55" s="25"/>
+      <c r="T55" s="25"/>
+      <c r="U55" s="25"/>
+      <c r="V55" s="25"/>
+      <c r="W55" s="25"/>
+      <c r="X55" s="25"/>
+      <c r="Y55" s="25"/>
+      <c r="Z55" s="25"/>
+      <c r="AA55" s="25"/>
+      <c r="AB55" s="25"/>
+      <c r="AC55" s="25"/>
+      <c r="AD55" s="25"/>
+      <c r="AE55" s="25"/>
+    </row>
+    <row r="56" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A56" s="10"/>
+      <c r="B56" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="E56" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="F56" s="10" t="s">
+        <v>64</v>
+      </c>
       <c r="G56"/>
       <c r="H56"/>
       <c r="I56"/>
-    </row>
-    <row r="57" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="B57" s="14">
-        <v>6</v>
-      </c>
-      <c r="C57" s="14">
-        <v>68963.562955877162</v>
-      </c>
-      <c r="D57" s="14"/>
-      <c r="E57" s="14"/>
-      <c r="F57" s="14"/>
+      <c r="J56" s="24"/>
+      <c r="K56" s="25"/>
+      <c r="L56" s="25"/>
+      <c r="M56" s="25"/>
+      <c r="N56" s="25"/>
+      <c r="O56" s="25"/>
+      <c r="P56" s="25"/>
+      <c r="Q56" s="25"/>
+      <c r="R56" s="25"/>
+      <c r="S56" s="25"/>
+      <c r="T56" s="25"/>
+      <c r="U56" s="25"/>
+      <c r="V56" s="25"/>
+      <c r="W56" s="25"/>
+      <c r="X56" s="25"/>
+      <c r="Y56" s="25"/>
+      <c r="Z56" s="25"/>
+      <c r="AA56" s="25"/>
+      <c r="AB56" s="25"/>
+      <c r="AC56" s="25"/>
+      <c r="AD56" s="25"/>
+      <c r="AE56" s="25"/>
+    </row>
+    <row r="57" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A57" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B57" s="7">
+        <v>1</v>
+      </c>
+      <c r="C57" s="7">
+        <v>19077.113940621759</v>
+      </c>
+      <c r="D57" s="7">
+        <v>19077.113940621759</v>
+      </c>
+      <c r="E57" s="7">
+        <v>2631.7755155575519</v>
+      </c>
+      <c r="F57" s="7">
+        <v>8.6408056270436361E-7</v>
+      </c>
       <c r="G57"/>
       <c r="H57"/>
       <c r="I57"/>
-    </row>
-    <row r="58" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58"/>
-      <c r="B58"/>
-      <c r="C58"/>
-      <c r="D58"/>
-      <c r="E58"/>
-      <c r="F58"/>
+      <c r="J57" s="24"/>
+      <c r="K57" s="25"/>
+      <c r="L57" s="25"/>
+      <c r="M57" s="25"/>
+      <c r="N57" s="25"/>
+      <c r="O57" s="25"/>
+      <c r="P57" s="25"/>
+      <c r="Q57" s="25"/>
+      <c r="R57" s="25"/>
+      <c r="S57" s="25"/>
+      <c r="T57" s="25"/>
+      <c r="U57" s="25"/>
+      <c r="V57" s="25"/>
+      <c r="W57" s="25"/>
+      <c r="X57" s="25"/>
+      <c r="Y57" s="25"/>
+      <c r="Z57" s="25"/>
+      <c r="AA57" s="25"/>
+      <c r="AB57" s="25"/>
+      <c r="AC57" s="25"/>
+      <c r="AD57" s="25"/>
+      <c r="AE57" s="25"/>
+    </row>
+    <row r="58" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A58" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B58" s="7">
+        <v>4</v>
+      </c>
+      <c r="C58" s="7">
+        <v>28.995047378241452</v>
+      </c>
+      <c r="D58" s="7">
+        <v>7.248761844560363</v>
+      </c>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
       <c r="G58"/>
       <c r="H58"/>
       <c r="I58"/>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A59" s="16"/>
-      <c r="B59" s="16" t="s">
+      <c r="J58" s="24"/>
+      <c r="K58" s="25"/>
+      <c r="L58" s="25"/>
+      <c r="M58" s="25"/>
+      <c r="N58" s="25"/>
+      <c r="O58" s="25"/>
+      <c r="P58" s="25"/>
+      <c r="Q58" s="25"/>
+      <c r="R58" s="25"/>
+      <c r="S58" s="25"/>
+      <c r="T58" s="25"/>
+      <c r="U58" s="25"/>
+      <c r="V58" s="25"/>
+      <c r="W58" s="25"/>
+      <c r="X58" s="25"/>
+      <c r="Y58" s="25"/>
+      <c r="Z58" s="25"/>
+      <c r="AA58" s="25"/>
+      <c r="AB58" s="25"/>
+      <c r="AC58" s="25"/>
+      <c r="AD58" s="25"/>
+      <c r="AE58" s="25"/>
+    </row>
+    <row r="59" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B59" s="9">
+        <v>5</v>
+      </c>
+      <c r="C59" s="9">
+        <v>19106.108988</v>
+      </c>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59"/>
+      <c r="H59"/>
+      <c r="I59"/>
+      <c r="J59" s="24"/>
+      <c r="K59" s="25"/>
+      <c r="L59" s="25"/>
+      <c r="M59" s="25"/>
+      <c r="N59" s="25"/>
+      <c r="O59" s="25"/>
+      <c r="P59" s="25"/>
+      <c r="Q59" s="25"/>
+      <c r="R59" s="25"/>
+      <c r="S59" s="25"/>
+      <c r="T59" s="25"/>
+      <c r="U59" s="25"/>
+      <c r="V59" s="25"/>
+      <c r="W59" s="25"/>
+      <c r="X59" s="25"/>
+      <c r="Y59" s="25"/>
+      <c r="Z59" s="25"/>
+      <c r="AA59" s="25"/>
+      <c r="AB59" s="25"/>
+      <c r="AC59" s="25"/>
+      <c r="AD59" s="25"/>
+      <c r="AE59" s="25"/>
+    </row>
+    <row r="60" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60"/>
+      <c r="B60"/>
+      <c r="C60"/>
+      <c r="D60"/>
+      <c r="E60"/>
+      <c r="F60"/>
+      <c r="G60"/>
+      <c r="H60"/>
+      <c r="I60"/>
+      <c r="J60" s="24"/>
+      <c r="K60" s="25"/>
+      <c r="L60" s="25"/>
+      <c r="M60" s="25"/>
+      <c r="N60" s="25"/>
+      <c r="O60" s="25"/>
+      <c r="P60" s="25"/>
+      <c r="Q60" s="25"/>
+      <c r="R60" s="25"/>
+      <c r="S60" s="25"/>
+      <c r="T60" s="25"/>
+      <c r="U60" s="25"/>
+      <c r="V60" s="25"/>
+      <c r="W60" s="25"/>
+      <c r="X60" s="25"/>
+      <c r="Y60" s="25"/>
+      <c r="Z60" s="25"/>
+      <c r="AA60" s="25"/>
+      <c r="AB60" s="25"/>
+      <c r="AC60" s="25"/>
+      <c r="AD60" s="25"/>
+      <c r="AE60" s="25"/>
+    </row>
+    <row r="61" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A61" s="10"/>
+      <c r="B61" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E61" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="F61" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="G61" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="H61" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="I61" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="J61" s="11"/>
+      <c r="K61" s="25"/>
+      <c r="L61" s="25"/>
+      <c r="M61" s="25"/>
+      <c r="N61" s="25"/>
+      <c r="O61" s="25"/>
+      <c r="P61" s="25"/>
+      <c r="Q61" s="25"/>
+      <c r="R61" s="25"/>
+      <c r="S61" s="25"/>
+      <c r="T61" s="25"/>
+      <c r="U61" s="25"/>
+      <c r="V61" s="25"/>
+      <c r="W61" s="25"/>
+      <c r="X61" s="25"/>
+      <c r="Y61" s="25"/>
+      <c r="Z61" s="25"/>
+      <c r="AA61" s="25"/>
+      <c r="AB61" s="25"/>
+      <c r="AC61" s="25"/>
+      <c r="AD61" s="25"/>
+      <c r="AE61" s="25"/>
+    </row>
+    <row r="62" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A62" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C59" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="D59" s="16" t="s">
+      <c r="B62" s="7">
+        <v>-3.166878676942801</v>
+      </c>
+      <c r="C62" s="7">
+        <v>1.3307749314427235</v>
+      </c>
+      <c r="D62" s="7">
+        <v>-2.3797252278486458</v>
+      </c>
+      <c r="E62" s="7">
+        <v>7.6011981534629777E-2</v>
+      </c>
+      <c r="F62" s="7">
+        <v>-6.8617022214668797</v>
+      </c>
+      <c r="G62" s="7">
+        <v>0.52794486758127768</v>
+      </c>
+      <c r="H62" s="7">
+        <v>-6.8617022214668797</v>
+      </c>
+      <c r="I62" s="7">
+        <v>0.52794486758127768</v>
+      </c>
+      <c r="J62" s="12"/>
+      <c r="K62" s="25"/>
+      <c r="L62" s="25"/>
+      <c r="M62" s="25"/>
+      <c r="N62" s="25"/>
+      <c r="O62" s="25"/>
+      <c r="P62" s="25"/>
+      <c r="Q62" s="25"/>
+      <c r="R62" s="25"/>
+      <c r="S62" s="25"/>
+      <c r="T62" s="25"/>
+      <c r="U62" s="25"/>
+      <c r="V62" s="25"/>
+      <c r="W62" s="25"/>
+      <c r="X62" s="25"/>
+      <c r="Y62" s="25"/>
+      <c r="Z62" s="25"/>
+      <c r="AA62" s="25"/>
+      <c r="AB62" s="25"/>
+      <c r="AC62" s="25"/>
+      <c r="AD62" s="25"/>
+      <c r="AE62" s="25"/>
+    </row>
+    <row r="63" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E59" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="F59" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="G59" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="H59" s="16" t="s">
-        <v>80</v>
-      </c>
-      <c r="I59" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="J59" s="17"/>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="B60" s="11">
-        <v>-4.8811598005730872</v>
-      </c>
-      <c r="C60" s="11">
-        <v>2.1634624433925831</v>
-      </c>
-      <c r="D60" s="11">
-        <v>-2.2561795863295924</v>
-      </c>
-      <c r="E60" s="11">
-        <v>7.3703712687858761E-2</v>
-      </c>
-      <c r="F60" s="11">
-        <v>-10.442517059639421</v>
-      </c>
-      <c r="G60" s="11">
-        <v>0.68019745849324664</v>
-      </c>
-      <c r="H60" s="11">
-        <v>-10.442517059639421</v>
-      </c>
-      <c r="I60" s="11">
-        <v>0.68019745849324664</v>
-      </c>
-      <c r="J60" s="9"/>
-    </row>
-    <row r="61" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="B61" s="14">
-        <v>759.58961712954601</v>
-      </c>
-      <c r="C61" s="14">
-        <v>14.12372883203613</v>
-      </c>
-      <c r="D61" s="14">
-        <v>53.781096066260332</v>
-      </c>
-      <c r="E61" s="14">
-        <v>4.2028918326297201E-8</v>
-      </c>
-      <c r="F61" s="14">
-        <v>723.28341634246101</v>
-      </c>
-      <c r="G61" s="14">
-        <v>795.89581791663102</v>
-      </c>
-      <c r="H61" s="14">
-        <v>723.28341634246101</v>
-      </c>
-      <c r="I61" s="14">
-        <v>795.89581791663102</v>
-      </c>
-      <c r="J61" s="18"/>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62"/>
-      <c r="B62"/>
-      <c r="C62"/>
-      <c r="D62"/>
-      <c r="E62"/>
-      <c r="F62"/>
-      <c r="G62"/>
-      <c r="H62"/>
-      <c r="I62"/>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63"/>
-      <c r="B63"/>
-      <c r="C63"/>
-      <c r="D63"/>
-      <c r="E63"/>
-      <c r="F63"/>
-      <c r="G63"/>
-      <c r="H63"/>
-      <c r="I63"/>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B63" s="9">
+        <v>412.62678762399031</v>
+      </c>
+      <c r="C63" s="9">
+        <v>8.0432764859340793</v>
+      </c>
+      <c r="D63" s="9">
+        <v>51.300833478195578</v>
+      </c>
+      <c r="E63" s="9">
+        <v>8.6408056270436361E-7</v>
+      </c>
+      <c r="F63" s="9">
+        <v>390.29507199486613</v>
+      </c>
+      <c r="G63" s="9">
+        <v>434.95850325311449</v>
+      </c>
+      <c r="H63" s="9">
+        <v>390.29507199486613</v>
+      </c>
+      <c r="I63" s="9">
+        <v>434.95850325311449</v>
+      </c>
+      <c r="J63" s="12"/>
+      <c r="K63" s="25"/>
+      <c r="L63" s="25"/>
+      <c r="M63" s="25"/>
+      <c r="N63" s="25"/>
+      <c r="O63" s="25"/>
+      <c r="P63" s="25"/>
+      <c r="Q63" s="25"/>
+      <c r="R63" s="25"/>
+      <c r="S63" s="25"/>
+      <c r="T63" s="25"/>
+      <c r="U63" s="25"/>
+      <c r="V63" s="25"/>
+      <c r="W63" s="25"/>
+      <c r="X63" s="25"/>
+      <c r="Y63" s="25"/>
+      <c r="Z63" s="25"/>
+      <c r="AA63" s="25"/>
+      <c r="AB63" s="25"/>
+      <c r="AC63" s="25"/>
+      <c r="AD63" s="25"/>
+      <c r="AE63" s="25"/>
+    </row>
+    <row r="64" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A64"/>
       <c r="B64"/>
       <c r="C64"/>
@@ -2728,11 +3766,31 @@
       <c r="G64"/>
       <c r="H64"/>
       <c r="I64"/>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>84</v>
-      </c>
+      <c r="J64" s="24"/>
+      <c r="K64" s="25"/>
+      <c r="L64" s="25"/>
+      <c r="M64" s="25"/>
+      <c r="N64" s="25"/>
+      <c r="O64" s="25"/>
+      <c r="P64" s="25"/>
+      <c r="Q64" s="25"/>
+      <c r="R64" s="25"/>
+      <c r="S64" s="25"/>
+      <c r="T64" s="25"/>
+      <c r="U64" s="25"/>
+      <c r="V64" s="25"/>
+      <c r="W64" s="25"/>
+      <c r="X64" s="25"/>
+      <c r="Y64" s="25"/>
+      <c r="Z64" s="25"/>
+      <c r="AA64" s="25"/>
+      <c r="AB64" s="25"/>
+      <c r="AC64" s="25"/>
+      <c r="AD64" s="25"/>
+      <c r="AE64" s="25"/>
+    </row>
+    <row r="65" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A65"/>
       <c r="B65"/>
       <c r="C65"/>
       <c r="D65"/>
@@ -2741,8 +3799,30 @@
       <c r="G65"/>
       <c r="H65"/>
       <c r="I65"/>
-    </row>
-    <row r="66" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J65" s="24"/>
+      <c r="K65" s="25"/>
+      <c r="L65" s="25"/>
+      <c r="M65" s="25"/>
+      <c r="N65" s="25"/>
+      <c r="O65" s="25"/>
+      <c r="P65" s="25"/>
+      <c r="Q65" s="25"/>
+      <c r="R65" s="25"/>
+      <c r="S65" s="25"/>
+      <c r="T65" s="25"/>
+      <c r="U65" s="25"/>
+      <c r="V65" s="25"/>
+      <c r="W65" s="25"/>
+      <c r="X65" s="25"/>
+      <c r="Y65" s="25"/>
+      <c r="Z65" s="25"/>
+      <c r="AA65" s="25"/>
+      <c r="AB65" s="25"/>
+      <c r="AC65" s="25"/>
+      <c r="AD65" s="25"/>
+      <c r="AE65" s="25"/>
+    </row>
+    <row r="66" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A66"/>
       <c r="B66"/>
       <c r="C66"/>
@@ -2752,50 +3832,106 @@
       <c r="G66"/>
       <c r="H66"/>
       <c r="I66"/>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="B67" s="16" t="s">
-        <v>86</v>
-      </c>
-      <c r="C67" s="16" t="s">
-        <v>87</v>
-      </c>
+      <c r="J66" s="24"/>
+      <c r="K66" s="25"/>
+      <c r="L66" s="25"/>
+      <c r="M66" s="25"/>
+      <c r="N66" s="25"/>
+      <c r="O66" s="25"/>
+      <c r="P66" s="25"/>
+      <c r="Q66" s="25"/>
+      <c r="R66" s="25"/>
+      <c r="S66" s="25"/>
+      <c r="T66" s="25"/>
+      <c r="U66" s="25"/>
+      <c r="V66" s="25"/>
+      <c r="W66" s="25"/>
+      <c r="X66" s="25"/>
+      <c r="Y66" s="25"/>
+      <c r="Z66" s="25"/>
+      <c r="AA66" s="25"/>
+      <c r="AB66" s="25"/>
+      <c r="AC66" s="25"/>
+      <c r="AD66" s="25"/>
+      <c r="AE66" s="25"/>
+    </row>
+    <row r="67" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>77</v>
+      </c>
+      <c r="B67"/>
+      <c r="C67"/>
       <c r="D67"/>
       <c r="E67"/>
       <c r="F67"/>
       <c r="G67"/>
       <c r="H67"/>
       <c r="I67"/>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="11">
-        <v>1</v>
-      </c>
-      <c r="B68" s="11">
-        <v>-4.0020051511175945</v>
-      </c>
-      <c r="C68" s="11">
-        <v>4.0020051511175945</v>
-      </c>
+      <c r="J67" s="24"/>
+      <c r="K67" s="25"/>
+      <c r="L67" s="25"/>
+      <c r="M67" s="25"/>
+      <c r="N67" s="25"/>
+      <c r="O67" s="25"/>
+      <c r="P67" s="25"/>
+      <c r="Q67" s="25"/>
+      <c r="R67" s="25"/>
+      <c r="S67" s="25"/>
+      <c r="T67" s="25"/>
+      <c r="U67" s="25"/>
+      <c r="V67" s="25"/>
+      <c r="W67" s="25"/>
+      <c r="X67" s="25"/>
+      <c r="Y67" s="25"/>
+      <c r="Z67" s="25"/>
+      <c r="AA67" s="25"/>
+      <c r="AB67" s="25"/>
+      <c r="AC67" s="25"/>
+      <c r="AD67" s="25"/>
+      <c r="AE67" s="25"/>
+    </row>
+    <row r="68" spans="1:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68"/>
+      <c r="B68"/>
+      <c r="C68"/>
       <c r="D68"/>
       <c r="E68"/>
       <c r="F68"/>
       <c r="G68"/>
       <c r="H68"/>
       <c r="I68"/>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="11">
-        <v>2</v>
-      </c>
-      <c r="B69" s="11">
-        <v>-2.249901649732176</v>
-      </c>
-      <c r="C69" s="11">
-        <v>2.8382016497321763</v>
+      <c r="J68" s="24"/>
+      <c r="K68" s="25"/>
+      <c r="L68" s="25"/>
+      <c r="M68" s="25"/>
+      <c r="N68" s="25"/>
+      <c r="O68" s="25"/>
+      <c r="P68" s="25"/>
+      <c r="Q68" s="25"/>
+      <c r="R68" s="25"/>
+      <c r="S68" s="25"/>
+      <c r="T68" s="25"/>
+      <c r="U68" s="25"/>
+      <c r="V68" s="25"/>
+      <c r="W68" s="25"/>
+      <c r="X68" s="25"/>
+      <c r="Y68" s="25"/>
+      <c r="Z68" s="25"/>
+      <c r="AA68" s="25"/>
+      <c r="AB68" s="25"/>
+      <c r="AC68" s="25"/>
+      <c r="AD68" s="25"/>
+      <c r="AE68" s="25"/>
+    </row>
+    <row r="69" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A69" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>80</v>
       </c>
       <c r="D69"/>
       <c r="E69"/>
@@ -2803,16 +3939,38 @@
       <c r="G69"/>
       <c r="H69"/>
       <c r="I69"/>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="11">
-        <v>3</v>
-      </c>
-      <c r="B70" s="11">
-        <v>1.1815378350424348</v>
-      </c>
-      <c r="C70" s="11">
-        <v>1.7599621649575656</v>
+      <c r="J69" s="24"/>
+      <c r="K69" s="25"/>
+      <c r="L69" s="25"/>
+      <c r="M69" s="25"/>
+      <c r="N69" s="25"/>
+      <c r="O69" s="25"/>
+      <c r="P69" s="25"/>
+      <c r="Q69" s="25"/>
+      <c r="R69" s="25"/>
+      <c r="S69" s="25"/>
+      <c r="T69" s="25"/>
+      <c r="U69" s="25"/>
+      <c r="V69" s="25"/>
+      <c r="W69" s="25"/>
+      <c r="X69" s="25"/>
+      <c r="Y69" s="25"/>
+      <c r="Z69" s="25"/>
+      <c r="AA69" s="25"/>
+      <c r="AB69" s="25"/>
+      <c r="AC69" s="25"/>
+      <c r="AD69" s="25"/>
+      <c r="AE69" s="25"/>
+    </row>
+    <row r="70" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A70" s="7">
+        <v>1</v>
+      </c>
+      <c r="B70" s="7">
+        <v>-1.7375179093564292</v>
+      </c>
+      <c r="C70" s="7">
+        <v>2.0557179093564293</v>
       </c>
       <c r="D70"/>
       <c r="E70"/>
@@ -2820,16 +3978,38 @@
       <c r="G70"/>
       <c r="H70"/>
       <c r="I70"/>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="11">
-        <v>4</v>
-      </c>
-      <c r="B71" s="11">
-        <v>4.6928343319972328</v>
-      </c>
-      <c r="C71" s="11">
-        <v>1.1901656680027681</v>
+      <c r="J70" s="24"/>
+      <c r="K70" s="25"/>
+      <c r="L70" s="25"/>
+      <c r="M70" s="25"/>
+      <c r="N70" s="25"/>
+      <c r="O70" s="25"/>
+      <c r="P70" s="25"/>
+      <c r="Q70" s="25"/>
+      <c r="R70" s="25"/>
+      <c r="S70" s="25"/>
+      <c r="T70" s="25"/>
+      <c r="U70" s="25"/>
+      <c r="V70" s="25"/>
+      <c r="W70" s="25"/>
+      <c r="X70" s="25"/>
+      <c r="Y70" s="25"/>
+      <c r="Z70" s="25"/>
+      <c r="AA70" s="25"/>
+      <c r="AB70" s="25"/>
+      <c r="AC70" s="25"/>
+      <c r="AD70" s="25"/>
+      <c r="AE70" s="25"/>
+    </row>
+    <row r="71" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A71" s="7">
+        <v>2</v>
+      </c>
+      <c r="B71" s="7">
+        <v>0.12652001269851265</v>
+      </c>
+      <c r="C71" s="7">
+        <v>1.4644799873014873</v>
       </c>
       <c r="D71"/>
       <c r="E71"/>
@@ -2837,16 +4017,38 @@
       <c r="G71"/>
       <c r="H71"/>
       <c r="I71"/>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="11">
-        <v>5</v>
-      </c>
-      <c r="B72" s="11">
-        <v>33.265360439300757</v>
-      </c>
-      <c r="C72" s="11">
-        <v>-3.8503604393007542</v>
+      <c r="J71" s="24"/>
+      <c r="K71" s="25"/>
+      <c r="L71" s="25"/>
+      <c r="M71" s="25"/>
+      <c r="N71" s="25"/>
+      <c r="O71" s="25"/>
+      <c r="P71" s="25"/>
+      <c r="Q71" s="25"/>
+      <c r="R71" s="25"/>
+      <c r="S71" s="25"/>
+      <c r="T71" s="25"/>
+      <c r="U71" s="25"/>
+      <c r="V71" s="25"/>
+      <c r="W71" s="25"/>
+      <c r="X71" s="25"/>
+      <c r="Y71" s="25"/>
+      <c r="Z71" s="25"/>
+      <c r="AA71" s="25"/>
+      <c r="AB71" s="25"/>
+      <c r="AC71" s="25"/>
+      <c r="AD71" s="25"/>
+      <c r="AE71" s="25"/>
+    </row>
+    <row r="72" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A72" s="7">
+        <v>3</v>
+      </c>
+      <c r="B72" s="7">
+        <v>2.0339381254012432</v>
+      </c>
+      <c r="C72" s="7">
+        <v>1.1480618745987567</v>
       </c>
       <c r="D72"/>
       <c r="E72"/>
@@ -2855,15 +4057,15 @@
       <c r="H72"/>
       <c r="I72"/>
     </row>
-    <row r="73" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="11">
-        <v>6</v>
-      </c>
-      <c r="B73" s="11">
-        <v>67.183146815293682</v>
-      </c>
-      <c r="C73" s="11">
-        <v>-8.3531468152936768</v>
+    <row r="73" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A73" s="7">
+        <v>4</v>
+      </c>
+      <c r="B73" s="7">
+        <v>17.555200391349953</v>
+      </c>
+      <c r="C73" s="7">
+        <v>-1.6452003913499524</v>
       </c>
       <c r="D73"/>
       <c r="E73"/>
@@ -2872,15 +4074,15 @@
       <c r="H73"/>
       <c r="I73"/>
     </row>
-    <row r="74" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="14">
-        <v>7</v>
-      </c>
-      <c r="B74" s="14">
-        <v>291.73682737921575</v>
-      </c>
-      <c r="C74" s="14">
-        <v>2.4131726207842803</v>
+    <row r="74" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A74" s="7">
+        <v>5</v>
+      </c>
+      <c r="B74" s="7">
+        <v>35.9801326442823</v>
+      </c>
+      <c r="C74" s="7">
+        <v>-4.1601326442822995</v>
       </c>
       <c r="D74"/>
       <c r="E74"/>
@@ -2889,9 +4091,34 @@
       <c r="H74"/>
       <c r="I74"/>
     </row>
+    <row r="75" spans="1:31" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="9">
+        <v>6</v>
+      </c>
+      <c r="B75" s="9">
+        <v>157.96292673562442</v>
+      </c>
+      <c r="C75" s="9">
+        <v>1.137073264375573</v>
+      </c>
+      <c r="D75"/>
+      <c r="E75"/>
+      <c r="F75"/>
+      <c r="G75"/>
+      <c r="H75"/>
+      <c r="I75"/>
+    </row>
+    <row r="76" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="E76"/>
+      <c r="F76"/>
+      <c r="G76"/>
+      <c r="H76"/>
+      <c r="I76"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2930,11 +4157,11 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="24">
+      <c r="A2" s="18">
         <v>42502.436805555553</v>
       </c>
       <c r="B2" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="C2">
         <v>103.3</v>
@@ -2950,11 +4177,11 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="24">
+      <c r="A3" s="18">
         <v>42502.436805555553</v>
       </c>
       <c r="B3" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C3">
         <v>79.5</v>
@@ -2970,11 +4197,11 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="24">
+      <c r="A4" s="18">
         <v>42502.436805497688</v>
       </c>
       <c r="B4" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="C4">
         <v>89.5</v>
@@ -2990,11 +4217,11 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="24">
+      <c r="A5" s="18">
         <v>42502.436805497688</v>
       </c>
       <c r="B5" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C5">
         <v>268.60000000000002</v>
@@ -3010,11 +4237,11 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="24">
+      <c r="A6" s="18">
         <v>42502.436805497688</v>
       </c>
       <c r="B6" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="C6">
         <v>282.10000000000002</v>
@@ -3030,11 +4257,11 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="24">
+      <c r="A7" s="18">
         <v>42502.436805497688</v>
       </c>
       <c r="B7" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C7">
         <v>284</v>
@@ -3050,11 +4277,11 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="24">
+      <c r="A8" s="18">
         <v>42502.436805497688</v>
       </c>
       <c r="B8" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="C8">
         <v>1139.0999999999999</v>
@@ -3070,11 +4297,11 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="24">
+      <c r="A9" s="18">
         <v>42502.436805497688</v>
       </c>
       <c r="B9" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C9">
         <v>1156.0999999999999</v>
@@ -3090,11 +4317,11 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="24">
+      <c r="A10" s="18">
         <v>42502.436805497688</v>
       </c>
       <c r="B10" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="C10">
         <v>1186.7</v>
@@ -3110,11 +4337,11 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="24">
+      <c r="A11" s="18">
         <v>42502.436805497688</v>
       </c>
       <c r="B11" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="C11">
         <v>2244.9</v>
@@ -3130,11 +4357,11 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="24">
+      <c r="A12" s="18">
         <v>42502.436805497688</v>
       </c>
       <c r="B12" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="C12">
         <v>2270.5</v>
@@ -3150,11 +4377,11 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="24">
+      <c r="A13" s="18">
         <v>42502.436805497688</v>
       </c>
       <c r="B13" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="C13">
         <v>2222.9</v>
@@ -3170,11 +4397,11 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="24">
+      <c r="A14" s="18">
         <v>42502.436805497688</v>
       </c>
       <c r="B14" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="C14">
         <v>5654.1</v>
@@ -3190,11 +4417,11 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="24">
+      <c r="A15" s="18">
         <v>42502.436805497688</v>
       </c>
       <c r="B15" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="C15">
         <v>5477.7</v>
@@ -3210,11 +4437,11 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="24">
+      <c r="A16" s="18">
         <v>42502.436805497688</v>
       </c>
       <c r="B16" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="C16">
         <v>5581.4</v>
@@ -3230,11 +4457,11 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="24">
+      <c r="A17" s="18">
         <v>42502.436805497688</v>
       </c>
       <c r="B17" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="C17">
         <v>10696.2</v>
@@ -3250,11 +4477,11 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="24">
+      <c r="A18" s="18">
         <v>42502.436805497688</v>
       </c>
       <c r="B18" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="C18">
         <v>10663</v>
@@ -3270,11 +4497,11 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="24">
+      <c r="A19" s="18">
         <v>42502.436805497688</v>
       </c>
       <c r="B19" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="C19">
         <v>10513.5</v>
@@ -3290,11 +4517,11 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="24">
+      <c r="A20" s="18">
         <v>42505.584722222222</v>
       </c>
       <c r="B20" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="C20">
         <v>96.4</v>
@@ -3310,11 +4537,11 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="24">
+      <c r="A21" s="18">
         <v>42505.584722222222</v>
       </c>
       <c r="B21" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C21">
         <v>82.2</v>
@@ -3330,11 +4557,11 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="24">
+      <c r="A22" s="18">
         <v>42505.584722164349</v>
       </c>
       <c r="B22" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="C22">
         <v>84.3</v>
@@ -3350,11 +4577,11 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="24">
+      <c r="A23" s="18">
         <v>42505.584722164349</v>
       </c>
       <c r="B23" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C23">
         <v>272.8</v>
@@ -3370,11 +4597,11 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="24">
+      <c r="A24" s="18">
         <v>42505.584722164349</v>
       </c>
       <c r="B24" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="C24">
         <v>282</v>
@@ -3390,11 +4617,11 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="24">
+      <c r="A25" s="18">
         <v>42505.584722164349</v>
       </c>
       <c r="B25" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C25">
         <v>302.5</v>
@@ -3410,11 +4637,11 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="24">
+      <c r="A26" s="18">
         <v>42505.584722164349</v>
       </c>
       <c r="B26" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="C26">
         <v>1142.0999999999999</v>
@@ -3430,11 +4657,11 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="24">
+      <c r="A27" s="18">
         <v>42505.584722164349</v>
       </c>
       <c r="B27" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C27">
         <v>1144.2</v>
@@ -3450,11 +4677,11 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="24">
+      <c r="A28" s="18">
         <v>42505.584722164349</v>
       </c>
       <c r="B28" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="C28">
         <v>1178.9000000000001</v>
@@ -3470,11 +4697,11 @@
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="24">
+      <c r="A29" s="18">
         <v>42505.584722164349</v>
       </c>
       <c r="B29" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="C29">
         <v>2196.1999999999998</v>
@@ -3490,11 +4717,11 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="24">
+      <c r="A30" s="18">
         <v>42505.584722164349</v>
       </c>
       <c r="B30" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="C30">
         <v>2205</v>
@@ -3510,11 +4737,11 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="24">
+      <c r="A31" s="18">
         <v>42505.584722164349</v>
       </c>
       <c r="B31" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="C31">
         <v>2180.4</v>
@@ -3530,11 +4757,11 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="24">
+      <c r="A32" s="18">
         <v>42505.584722164349</v>
       </c>
       <c r="B32" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="C32">
         <v>5547.1</v>
@@ -3550,11 +4777,11 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="24">
+      <c r="A33" s="18">
         <v>42505.584722164349</v>
       </c>
       <c r="B33" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="C33">
         <v>5360.7</v>
@@ -3570,11 +4797,11 @@
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="24">
+      <c r="A34" s="18">
         <v>42505.584722164349</v>
       </c>
       <c r="B34" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="C34">
         <v>5502.7</v>
@@ -3590,11 +4817,11 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="24">
+      <c r="A35" s="18">
         <v>42505.584722164349</v>
       </c>
       <c r="B35" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="C35">
         <v>10416.4</v>
@@ -3610,11 +4837,11 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="24">
+      <c r="A36" s="18">
         <v>42505.584722164349</v>
       </c>
       <c r="B36" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="C36">
         <v>10464.1</v>
@@ -3630,11 +4857,11 @@
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="24">
+      <c r="A37" s="18">
         <v>42505.584722164349</v>
       </c>
       <c r="B37" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="C37">
         <v>10405.5</v>
@@ -3650,11 +4877,11 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="24">
+      <c r="A38" s="18">
         <v>42506.541666666664</v>
       </c>
       <c r="B38" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="C38">
         <v>94.1</v>
@@ -3670,11 +4897,11 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="24">
+      <c r="A39" s="18">
         <v>42506.541666666664</v>
       </c>
       <c r="B39" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C39">
         <v>80.400000000000006</v>
@@ -3690,11 +4917,11 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="24">
+      <c r="A40" s="18">
         <v>42506.541666666664</v>
       </c>
       <c r="B40" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="C40">
         <v>84.7</v>
@@ -3710,11 +4937,11 @@
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="24">
+      <c r="A41" s="18">
         <v>42506.541666666664</v>
       </c>
       <c r="B41" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C41">
         <v>266.60000000000002</v>
@@ -3730,11 +4957,11 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="24">
+      <c r="A42" s="18">
         <v>42506.541666666664</v>
       </c>
       <c r="B42" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="C42">
         <v>276.39999999999998</v>
@@ -3750,11 +4977,11 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="24">
+      <c r="A43" s="18">
         <v>42506.541666666664</v>
       </c>
       <c r="B43" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="C43">
         <v>283.2</v>
@@ -3770,11 +4997,11 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="24">
+      <c r="A44" s="18">
         <v>42506.541666666664</v>
       </c>
       <c r="B44" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="C44">
         <v>1130</v>
@@ -3790,11 +5017,11 @@
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="24">
+      <c r="A45" s="18">
         <v>42506.541666666664</v>
       </c>
       <c r="B45" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="C45">
         <v>1116.3</v>
@@ -3810,11 +5037,11 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="24">
+      <c r="A46" s="18">
         <v>42506.541666666664</v>
       </c>
       <c r="B46" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="C46">
         <v>1151.9000000000001</v>
@@ -3830,11 +5057,11 @@
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="24">
+      <c r="A47" s="18">
         <v>42506.541666666664</v>
       </c>
       <c r="B47" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="C47">
         <v>2188.4</v>
@@ -3850,11 +5077,11 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="24">
+      <c r="A48" s="18">
         <v>42506.541666666664</v>
       </c>
       <c r="B48" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="C48">
         <v>2134.6999999999998</v>
@@ -3870,11 +5097,11 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="24">
+      <c r="A49" s="18">
         <v>42506.541666666664</v>
       </c>
       <c r="B49" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="C49">
         <v>2142.3000000000002</v>
@@ -3890,11 +5117,11 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="24">
+      <c r="A50" s="18">
         <v>42506.541666666664</v>
       </c>
       <c r="B50" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="C50">
         <v>5497</v>
@@ -3910,11 +5137,11 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="24">
+      <c r="A51" s="18">
         <v>42506.541666666664</v>
       </c>
       <c r="B51" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="C51">
         <v>5333.2</v>
@@ -3930,11 +5157,11 @@
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="24">
+      <c r="A52" s="18">
         <v>42506.541666666664</v>
       </c>
       <c r="B52" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="C52">
         <v>5445.9</v>
@@ -3950,11 +5177,11 @@
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="24">
+      <c r="A53" s="18">
         <v>42506.541666666664</v>
       </c>
       <c r="B53" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="C53">
         <v>10396.4</v>
@@ -3970,11 +5197,11 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="24">
+      <c r="A54" s="18">
         <v>42506.541666666664</v>
       </c>
       <c r="B54" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="C54">
         <v>10552.3</v>
@@ -3990,11 +5217,11 @@
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="24">
+      <c r="A55" s="18">
         <v>42506.541666666664</v>
       </c>
       <c r="B55" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="C55">
         <v>10413.4</v>
@@ -4018,8 +5245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4038,7 +5265,7 @@
         <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C1" t="s">
         <v>23</v>
@@ -4047,21 +5274,21 @@
         <v>21</v>
       </c>
       <c r="E1" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="F1" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="G1" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>123</v>
+        <v>116</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>114</v>
       </c>
       <c r="C2">
         <v>1.63222222222222</v>
@@ -4070,23 +5297,23 @@
         <v>0.10435340740740701</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F2" s="1">
-        <f>'Calibration Data'!$B$28*'Count-&gt;Actual Activity'!C2+'Calibration Data'!$B$27</f>
-        <v>0.34881689834741997</v>
-      </c>
-      <c r="G2" s="23">
-        <f>'Calibration Data'!$L$20/'Calibration Data'!$L$31*SQRT(1/'Calibration Data'!$L$21+1+('Count-&gt;Actual Activity'!F2-AVERAGE('Calibration Data'!$F$3:$F$8))^2/('Calibration Data'!$L$31^2*'Calibration Data'!$J$9))</f>
-        <v>0.23297862754643522</v>
+        <f>(C2-'Calibration Data'!$L$29)/'Calibration Data'!$L$30</f>
+        <v>0.18856815054936449</v>
+      </c>
+      <c r="G2" s="17">
+        <f>'Calibration Data'!$L$19/ABS('Calibration Data'!$L$30)*SQRT(1/'Calibration Data'!$L$20+1+(F2-AVERAGE('Calibration Data'!$L$3:$L$9))^2/('Calibration Data'!$L$30^2*SUM('Calibration Data'!$J$3:$J$8)))</f>
+        <v>0.12664707357059601</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>123</v>
+        <v>117</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>114</v>
       </c>
       <c r="C3">
         <v>1.345</v>
@@ -4095,23 +5322,23 @@
         <v>9.4687999999999994E-2</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F3" s="1">
-        <f>'Calibration Data'!$B$28*'Count-&gt;Actual Activity'!C3+'Calibration Data'!$B$27</f>
-        <v>0.28593470307266039</v>
-      </c>
-      <c r="G3" s="23">
-        <f>'Calibration Data'!$L$20/'Calibration Data'!$L$31*SQRT(1/'Calibration Data'!$L$21+1+('Count-&gt;Actual Activity'!F3-AVERAGE('Calibration Data'!$F$3:$F$8))^2/('Calibration Data'!$L$31^2*'Calibration Data'!$J$9))</f>
-        <v>0.23297862548107512</v>
+        <f>(C3-'Calibration Data'!$L$29)/'Calibration Data'!$L$30</f>
+        <v>0.15455630021223843</v>
+      </c>
+      <c r="G3" s="17">
+        <f>'Calibration Data'!$L$19/ABS('Calibration Data'!$L$30)*SQRT(1/'Calibration Data'!$L$20+1+(F3-AVERAGE('Calibration Data'!$L$3:$L$9))^2/('Calibration Data'!$L$30^2*SUM('Calibration Data'!$J$3:$J$8)))</f>
+        <v>0.12664741319418718</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>127</v>
-      </c>
-      <c r="B4" s="21" t="s">
-        <v>123</v>
+        <v>118</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>114</v>
       </c>
       <c r="C4">
         <v>1.43611111111111</v>
@@ -4120,23 +5347,23 @@
         <v>9.7894907407407403E-2</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F4" s="1">
-        <f>'Calibration Data'!$B$28*'Count-&gt;Actual Activity'!C4+'Calibration Data'!$B$27</f>
-        <v>0.30588185979424748</v>
-      </c>
-      <c r="G4" s="23">
-        <f>'Calibration Data'!$L$20/'Calibration Data'!$L$31*SQRT(1/'Calibration Data'!$L$21+1+('Count-&gt;Actual Activity'!F4-AVERAGE('Calibration Data'!$F$3:$F$8))^2/('Calibration Data'!$L$31^2*'Calibration Data'!$J$9))</f>
-        <v>0.2329786260734775</v>
+        <f>(C4-'Calibration Data'!$L$29)/'Calibration Data'!$L$30</f>
+        <v>0.16534535911995343</v>
+      </c>
+      <c r="G4" s="17">
+        <f>'Calibration Data'!$L$19/ABS('Calibration Data'!$L$30)*SQRT(1/'Calibration Data'!$L$20+1+(F4-AVERAGE('Calibration Data'!$L$3:$L$9))^2/('Calibration Data'!$L$30^2*SUM('Calibration Data'!$J$3:$J$8)))</f>
+        <v>0.12664730545080891</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>128</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>123</v>
+        <v>119</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>114</v>
       </c>
       <c r="C5">
         <v>4.4888888888888898</v>
@@ -4145,23 +5372,23 @@
         <v>0.17297185185185199</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F5" s="1">
-        <f>'Calibration Data'!$B$28*'Count-&gt;Actual Activity'!C5+'Calibration Data'!$B$27</f>
-        <v>0.97423323897182323</v>
-      </c>
-      <c r="G5" s="23">
-        <f>'Calibration Data'!$L$20/'Calibration Data'!$L$31*SQRT(1/'Calibration Data'!$L$21+1+('Count-&gt;Actual Activity'!F5-AVERAGE('Calibration Data'!$F$3:$F$8))^2/('Calibration Data'!$L$31^2*'Calibration Data'!$J$9))</f>
-        <v>0.23297867963368274</v>
+        <f>(C5-'Calibration Data'!$L$29)/'Calibration Data'!$L$30</f>
+        <v>0.52684461947296934</v>
+      </c>
+      <c r="G5" s="17">
+        <f>'Calibration Data'!$L$19/ABS('Calibration Data'!$L$30)*SQRT(1/'Calibration Data'!$L$20+1+(F5-AVERAGE('Calibration Data'!$L$3:$L$9))^2/('Calibration Data'!$L$30^2*SUM('Calibration Data'!$J$3:$J$8)))</f>
+        <v>0.12664370064546238</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>129</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>123</v>
+        <v>120</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>114</v>
       </c>
       <c r="C6">
         <v>4.6694444444444398</v>
@@ -4170,23 +5397,23 @@
         <v>0.176505</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F6" s="1">
-        <f>'Calibration Data'!$B$28*'Count-&gt;Actual Activity'!C6+'Calibration Data'!$B$27</f>
-        <v>1.0137626654017968</v>
-      </c>
-      <c r="G6" s="23">
-        <f>'Calibration Data'!$L$20/'Calibration Data'!$L$31*SQRT(1/'Calibration Data'!$L$21+1+('Count-&gt;Actual Activity'!F6-AVERAGE('Calibration Data'!$F$3:$F$8))^2/('Calibration Data'!$L$31^2*'Calibration Data'!$J$9))</f>
-        <v>0.23297868485204121</v>
+        <f>(C6-'Calibration Data'!$L$29)/'Calibration Data'!$L$30</f>
+        <v>0.54822537645472125</v>
+      </c>
+      <c r="G6" s="17">
+        <f>'Calibration Data'!$L$19/ABS('Calibration Data'!$L$30)*SQRT(1/'Calibration Data'!$L$20+1+(F6-AVERAGE('Calibration Data'!$L$3:$L$9))^2/('Calibration Data'!$L$30^2*SUM('Calibration Data'!$J$3:$J$8)))</f>
+        <v>0.12664348776005996</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>130</v>
-      </c>
-      <c r="B7" s="21" t="s">
-        <v>123</v>
+        <v>121</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>114</v>
       </c>
       <c r="C7">
         <v>4.8316666666666697</v>
@@ -4195,23 +5422,23 @@
         <v>0.179576944444444</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F7" s="1">
-        <f>'Calibration Data'!$B$28*'Count-&gt;Actual Activity'!C7+'Calibration Data'!$B$27</f>
-        <v>1.0492783346865759</v>
-      </c>
-      <c r="G7" s="23">
-        <f>'Calibration Data'!$L$20/'Calibration Data'!$L$31*SQRT(1/'Calibration Data'!$L$21+1+('Count-&gt;Actual Activity'!F7-AVERAGE('Calibration Data'!$F$3:$F$8))^2/('Calibration Data'!$L$31^2*'Calibration Data'!$J$9))</f>
-        <v>0.23297868973584956</v>
+        <f>(C7-'Calibration Data'!$L$29)/'Calibration Data'!$L$30</f>
+        <v>0.56743516426601981</v>
+      </c>
+      <c r="G7" s="17">
+        <f>'Calibration Data'!$L$19/ABS('Calibration Data'!$L$30)*SQRT(1/'Calibration Data'!$L$20+1+(F7-AVERAGE('Calibration Data'!$L$3:$L$9))^2/('Calibration Data'!$L$30^2*SUM('Calibration Data'!$J$3:$J$8)))</f>
+        <v>0.12664329652116071</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>131</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>123</v>
+        <v>122</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>114</v>
       </c>
       <c r="C8">
         <v>18.9511111111111</v>
@@ -4220,23 +5447,23 @@
         <v>0.35501748148148099</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F8" s="1">
-        <f>'Calibration Data'!$B$28*'Count-&gt;Actual Activity'!C8+'Calibration Data'!$B$27</f>
-        <v>4.1404794815106083</v>
-      </c>
-      <c r="G8" s="23">
-        <f>'Calibration Data'!$L$20/'Calibration Data'!$L$31*SQRT(1/'Calibration Data'!$L$21+1+('Count-&gt;Actual Activity'!F8-AVERAGE('Calibration Data'!$F$3:$F$8))^2/('Calibration Data'!$L$31^2*'Calibration Data'!$J$9))</f>
-        <v>0.23297982309197329</v>
+        <f>(C8-'Calibration Data'!$L$29)/'Calibration Data'!$L$30</f>
+        <v>2.2394103602390651</v>
+      </c>
+      <c r="G8" s="17">
+        <f>'Calibration Data'!$L$19/ABS('Calibration Data'!$L$30)*SQRT(1/'Calibration Data'!$L$20+1+(F8-AVERAGE('Calibration Data'!$L$3:$L$9))^2/('Calibration Data'!$L$30^2*SUM('Calibration Data'!$J$3:$J$8)))</f>
+        <v>0.12662676195979705</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>132</v>
-      </c>
-      <c r="B9" s="21" t="s">
         <v>123</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>114</v>
       </c>
       <c r="C9">
         <v>18.981111111111101</v>
@@ -4245,23 +5472,23 @@
         <v>0.355579481481481</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F9" s="1">
-        <f>'Calibration Data'!$B$28*'Count-&gt;Actual Activity'!C9+'Calibration Data'!$B$27</f>
-        <v>4.1470474477482044</v>
-      </c>
-      <c r="G9" s="23">
-        <f>'Calibration Data'!$L$20/'Calibration Data'!$L$31*SQRT(1/'Calibration Data'!$L$21+1+('Count-&gt;Actual Activity'!F9-AVERAGE('Calibration Data'!$F$3:$F$8))^2/('Calibration Data'!$L$31^2*'Calibration Data'!$J$9))</f>
-        <v>0.23297982699101361</v>
+        <f>(C9-'Calibration Data'!$L$29)/'Calibration Data'!$L$30</f>
+        <v>2.2429628552452643</v>
+      </c>
+      <c r="G9" s="17">
+        <f>'Calibration Data'!$L$19/ABS('Calibration Data'!$L$30)*SQRT(1/'Calibration Data'!$L$20+1+(F9-AVERAGE('Calibration Data'!$L$3:$L$9))^2/('Calibration Data'!$L$30^2*SUM('Calibration Data'!$J$3:$J$8)))</f>
+        <v>0.12662672706081313</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>133</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>123</v>
+        <v>124</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>114</v>
       </c>
       <c r="C10">
         <v>19.5416666666667</v>
@@ -4270,23 +5497,23 @@
         <v>0.36086944444444502</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F10" s="1">
-        <f>'Calibration Data'!$B$28*'Count-&gt;Actual Activity'!C10+'Calibration Data'!$B$27</f>
-        <v>4.2697711131877361</v>
-      </c>
-      <c r="G10" s="23">
-        <f>'Calibration Data'!$L$20/'Calibration Data'!$L$31*SQRT(1/'Calibration Data'!$L$21+1+('Count-&gt;Actual Activity'!F10-AVERAGE('Calibration Data'!$F$3:$F$8))^2/('Calibration Data'!$L$31^2*'Calibration Data'!$J$9))</f>
-        <v>0.23297990100804566</v>
+        <f>(C10-'Calibration Data'!$L$29)/'Calibration Data'!$L$30</f>
+        <v>2.3093418823055409</v>
+      </c>
+      <c r="G10" s="17">
+        <f>'Calibration Data'!$L$19/ABS('Calibration Data'!$L$30)*SQRT(1/'Calibration Data'!$L$20+1+(F10-AVERAGE('Calibration Data'!$L$3:$L$9))^2/('Calibration Data'!$L$30^2*SUM('Calibration Data'!$J$3:$J$8)))</f>
+        <v>0.1266260751481677</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>134</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>123</v>
+        <v>125</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>114</v>
       </c>
       <c r="C11">
         <v>36.830555555555598</v>
@@ -4295,23 +5522,23 @@
         <v>0.49475712962962998</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F11" s="1">
-        <f>'Calibration Data'!$B$28*'Count-&gt;Actual Activity'!C11+'Calibration Data'!$B$27</f>
-        <v>8.0548657301133328</v>
-      </c>
-      <c r="G11" s="23">
-        <f>'Calibration Data'!$L$20/'Calibration Data'!$L$31*SQRT(1/'Calibration Data'!$L$21+1+('Count-&gt;Actual Activity'!F11-AVERAGE('Calibration Data'!$F$3:$F$8))^2/('Calibration Data'!$L$31^2*'Calibration Data'!$J$9))</f>
-        <v>0.23298326777502382</v>
+        <f>(C11-'Calibration Data'!$L$29)/'Calibration Data'!$L$30</f>
+        <v>4.356631596989045</v>
+      </c>
+      <c r="G11" s="17">
+        <f>'Calibration Data'!$L$19/ABS('Calibration Data'!$L$30)*SQRT(1/'Calibration Data'!$L$20+1+(F11-AVERAGE('Calibration Data'!$L$3:$L$9))^2/('Calibration Data'!$L$30^2*SUM('Calibration Data'!$J$3:$J$8)))</f>
+        <v>0.12660613765246881</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>135</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>123</v>
+        <v>126</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>114</v>
       </c>
       <c r="C12">
         <v>36.723333333333301</v>
@@ -4320,23 +5547,23 @@
         <v>0.49576500000000001</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F12" s="1">
-        <f>'Calibration Data'!$B$28*'Count-&gt;Actual Activity'!C12+'Calibration Data'!$B$27</f>
-        <v>8.0313913322641319</v>
-      </c>
-      <c r="G12" s="23">
-        <f>'Calibration Data'!$L$20/'Calibration Data'!$L$31*SQRT(1/'Calibration Data'!$L$21+1+('Count-&gt;Actual Activity'!F12-AVERAGE('Calibration Data'!$F$3:$F$8))^2/('Calibration Data'!$L$31^2*'Calibration Data'!$J$9))</f>
-        <v>0.23298324042444502</v>
+        <f>(C12-'Calibration Data'!$L$29)/'Calibration Data'!$L$30</f>
+        <v>4.3439347166891027</v>
+      </c>
+      <c r="G12" s="17">
+        <f>'Calibration Data'!$L$19/ABS('Calibration Data'!$L$30)*SQRT(1/'Calibration Data'!$L$20+1+(F12-AVERAGE('Calibration Data'!$L$3:$L$9))^2/('Calibration Data'!$L$30^2*SUM('Calibration Data'!$J$3:$J$8)))</f>
+        <v>0.1266062602913649</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>136</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>123</v>
+        <v>127</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>114</v>
       </c>
       <c r="C13">
         <v>36.364444444444501</v>
@@ -4345,23 +5572,23 @@
         <v>0.49213214814814799</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F13" s="1">
-        <f>'Calibration Data'!$B$28*'Count-&gt;Actual Activity'!C13+'Calibration Data'!$B$27</f>
-        <v>7.9528189954218007</v>
-      </c>
-      <c r="G13" s="23">
-        <f>'Calibration Data'!$L$20/'Calibration Data'!$L$31*SQRT(1/'Calibration Data'!$L$21+1+('Count-&gt;Actual Activity'!F13-AVERAGE('Calibration Data'!$F$3:$F$8))^2/('Calibration Data'!$L$31^2*'Calibration Data'!$J$9))</f>
-        <v>0.23298314946548415</v>
+        <f>(C13-'Calibration Data'!$L$29)/'Calibration Data'!$L$30</f>
+        <v>4.3014363505038453</v>
+      </c>
+      <c r="G13" s="17">
+        <f>'Calibration Data'!$L$19/ABS('Calibration Data'!$L$30)*SQRT(1/'Calibration Data'!$L$20+1+(F13-AVERAGE('Calibration Data'!$L$3:$L$9))^2/('Calibration Data'!$L$30^2*SUM('Calibration Data'!$J$3:$J$8)))</f>
+        <v>0.12660667087385308</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>137</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>123</v>
+        <v>128</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>114</v>
       </c>
       <c r="C14">
         <v>92.767777777777795</v>
@@ -4370,23 +5597,23 @@
         <v>0.78543385185185199</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F14" s="1">
-        <f>'Calibration Data'!$B$28*'Count-&gt;Actual Activity'!C14+'Calibration Data'!$B$27</f>
-        <v>20.301325296128343</v>
-      </c>
-      <c r="G14" s="23">
-        <f>'Calibration Data'!$L$20/'Calibration Data'!$L$31*SQRT(1/'Calibration Data'!$L$21+1+('Count-&gt;Actual Activity'!F14-AVERAGE('Calibration Data'!$F$3:$F$8))^2/('Calibration Data'!$L$31^2*'Calibration Data'!$J$9))</f>
-        <v>0.2330085462679812</v>
+        <f>(C14-'Calibration Data'!$L$29)/'Calibration Data'!$L$30</f>
+        <v>10.98052168382509</v>
+      </c>
+      <c r="G14" s="17">
+        <f>'Calibration Data'!$L$19/ABS('Calibration Data'!$L$30)*SQRT(1/'Calibration Data'!$L$20+1+(F14-AVERAGE('Calibration Data'!$L$3:$L$9))^2/('Calibration Data'!$L$30^2*SUM('Calibration Data'!$J$3:$J$8)))</f>
+        <v>0.12654387655589103</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>138</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>123</v>
+        <v>129</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>114</v>
       </c>
       <c r="C15">
         <v>89.842222222222205</v>
@@ -4395,23 +5622,23 @@
         <v>0.77264311111111095</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F15" s="1">
-        <f>'Calibration Data'!$B$28*'Count-&gt;Actual Activity'!C15+'Calibration Data'!$B$27</f>
-        <v>19.660826958958346</v>
-      </c>
-      <c r="G15" s="23">
-        <f>'Calibration Data'!$L$20/'Calibration Data'!$L$31*SQRT(1/'Calibration Data'!$L$21+1+('Count-&gt;Actual Activity'!F15-AVERAGE('Calibration Data'!$F$3:$F$8))^2/('Calibration Data'!$L$31^2*'Calibration Data'!$J$9))</f>
-        <v>0.23300667957776927</v>
+        <f>(C15-'Calibration Data'!$L$29)/'Calibration Data'!$L$30</f>
+        <v>10.634087633776137</v>
+      </c>
+      <c r="G15" s="17">
+        <f>'Calibration Data'!$L$19/ABS('Calibration Data'!$L$30)*SQRT(1/'Calibration Data'!$L$20+1+(F15-AVERAGE('Calibration Data'!$L$3:$L$9))^2/('Calibration Data'!$L$30^2*SUM('Calibration Data'!$J$3:$J$8)))</f>
+        <v>0.12654704777903705</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>139</v>
-      </c>
-      <c r="B16" s="21" t="s">
-        <v>123</v>
+        <v>130</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>114</v>
       </c>
       <c r="C16">
         <v>91.8333333333333</v>
@@ -4420,23 +5647,23 @@
         <v>0.78364444444444403</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F16" s="1">
-        <f>'Calibration Data'!$B$28*'Count-&gt;Actual Activity'!C16+'Calibration Data'!$B$27</f>
-        <v>20.096745310727663</v>
-      </c>
-      <c r="G16" s="23">
-        <f>'Calibration Data'!$L$20/'Calibration Data'!$L$31*SQRT(1/'Calibration Data'!$L$21+1+('Count-&gt;Actual Activity'!F16-AVERAGE('Calibration Data'!$F$3:$F$8))^2/('Calibration Data'!$L$31^2*'Calibration Data'!$J$9))</f>
-        <v>0.23300794350032458</v>
+        <f>(C16-'Calibration Data'!$L$29)/'Calibration Data'!$L$30</f>
+        <v>10.869868043076446</v>
+      </c>
+      <c r="G16" s="17">
+        <f>'Calibration Data'!$L$19/ABS('Calibration Data'!$L$30)*SQRT(1/'Calibration Data'!$L$20+1+(F16-AVERAGE('Calibration Data'!$L$3:$L$9))^2/('Calibration Data'!$L$30^2*SUM('Calibration Data'!$J$3:$J$8)))</f>
+        <v>0.12654488844728209</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>140</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>123</v>
+        <v>131</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>114</v>
       </c>
       <c r="C17">
         <v>175.05</v>
@@ -4445,23 +5672,23 @@
         <v>1.079475</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F17" s="1">
-        <f>'Calibration Data'!$B$28*'Count-&gt;Actual Activity'!C17+'Calibration Data'!$B$27</f>
-        <v>38.315553879792098</v>
-      </c>
-      <c r="G17" s="23">
-        <f>'Calibration Data'!$L$20/'Calibration Data'!$L$31*SQRT(1/'Calibration Data'!$L$21+1+('Count-&gt;Actual Activity'!F17-AVERAGE('Calibration Data'!$F$3:$F$8))^2/('Calibration Data'!$L$31^2*'Calibration Data'!$J$9))</f>
-        <v>0.23308565754124691</v>
+        <f>(C17-'Calibration Data'!$L$29)/'Calibration Data'!$L$30</f>
+        <v>20.72409446860479</v>
+      </c>
+      <c r="G17" s="17">
+        <f>'Calibration Data'!$L$19/ABS('Calibration Data'!$L$30)*SQRT(1/'Calibration Data'!$L$20+1+(F17-AVERAGE('Calibration Data'!$L$3:$L$9))^2/('Calibration Data'!$L$30^2*SUM('Calibration Data'!$J$3:$J$8)))</f>
+        <v>0.12645853537671536</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>141</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>123</v>
+        <v>132</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>114</v>
       </c>
       <c r="C18">
         <v>175.99666666666701</v>
@@ -4470,23 +5697,23 @@
         <v>1.08531277777778</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F18" s="1">
-        <f>'Calibration Data'!$B$28*'Count-&gt;Actual Activity'!C18+'Calibration Data'!$B$27</f>
-        <v>38.522809703289639</v>
-      </c>
-      <c r="G18" s="23">
-        <f>'Calibration Data'!$L$20/'Calibration Data'!$L$31*SQRT(1/'Calibration Data'!$L$21+1+('Count-&gt;Actual Activity'!F18-AVERAGE('Calibration Data'!$F$3:$F$8))^2/('Calibration Data'!$L$31^2*'Calibration Data'!$J$9))</f>
-        <v>0.23308682118519389</v>
+        <f>(C18-'Calibration Data'!$L$29)/'Calibration Data'!$L$30</f>
+        <v>20.83619542213377</v>
+      </c>
+      <c r="G18" s="17">
+        <f>'Calibration Data'!$L$19/ABS('Calibration Data'!$L$30)*SQRT(1/'Calibration Data'!$L$20+1+(F18-AVERAGE('Calibration Data'!$L$3:$L$9))^2/('Calibration Data'!$L$30^2*SUM('Calibration Data'!$J$3:$J$8)))</f>
+        <v>0.12645759681888</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>142</v>
-      </c>
-      <c r="B19" s="21" t="s">
-        <v>123</v>
+        <v>133</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>114</v>
       </c>
       <c r="C19">
         <v>174.06888888888901</v>
@@ -4495,159 +5722,159 @@
         <v>1.07922711111111</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F19" s="1">
-        <f>'Calibration Data'!$B$28*'Count-&gt;Actual Activity'!C19+'Calibration Data'!$B$27</f>
-        <v>38.100757058021856</v>
-      </c>
-      <c r="G19" s="23">
-        <f>'Calibration Data'!$L$20/'Calibration Data'!$L$31*SQRT(1/'Calibration Data'!$L$21+1+('Count-&gt;Actual Activity'!F19-AVERAGE('Calibration Data'!$F$3:$F$8))^2/('Calibration Data'!$L$31^2*'Calibration Data'!$J$9))</f>
-        <v>0.23308445819232751</v>
+        <f>(C19-'Calibration Data'!$L$29)/'Calibration Data'!$L$30</f>
+        <v>20.607914724513186</v>
+      </c>
+      <c r="G19" s="17">
+        <f>'Calibration Data'!$L$19/ABS('Calibration Data'!$L$30)*SQRT(1/'Calibration Data'!$L$20+1+(F19-AVERAGE('Calibration Data'!$L$3:$L$9))^2/('Calibration Data'!$L$30^2*SUM('Calibration Data'!$J$3:$J$8)))</f>
+        <v>0.1264595091241153</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="B22" s="16" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="B20" s="22" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="21" t="s">
+      <c r="B29" s="16" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="B21" s="22" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="21" t="s">
+      <c r="B30" s="16" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="B22" s="22" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="21" t="s">
+      <c r="B31" s="16" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="B23" s="22" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="21" t="s">
+      <c r="B32" s="16" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="B24" s="22" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="21" t="s">
+      <c r="B33" s="16" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="B25" s="22" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="21" t="s">
+      <c r="B34" s="16" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="B26" s="22" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="21" t="s">
+      <c r="B35" s="16" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="B27" s="22" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="21" t="s">
+      <c r="B36" s="16" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="B28" s="22" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="B29" s="22" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="B30" s="22" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="B31" s="22" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="B32" s="22" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="B33" s="22" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="21" t="s">
+      <c r="B37" s="16" t="s">
         <v>115</v>
-      </c>
-      <c r="B34" s="22" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="B35" s="22" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="21" t="s">
-        <v>117</v>
-      </c>
-      <c r="B36" s="22" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="B37" s="22" t="s">
-        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -4714,34 +5941,34 @@
         <v>26</v>
       </c>
       <c r="G1" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="H1" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="I1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K1" t="s">
+        <v>88</v>
+      </c>
+      <c r="L1" t="s">
+        <v>89</v>
+      </c>
+      <c r="M1" t="s">
+        <v>84</v>
+      </c>
+      <c r="N1" t="s">
+        <v>85</v>
+      </c>
+      <c r="O1" t="s">
+        <v>90</v>
+      </c>
+      <c r="P1" t="s">
         <v>91</v>
-      </c>
-      <c r="J1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K1" t="s">
-        <v>97</v>
-      </c>
-      <c r="L1" t="s">
-        <v>98</v>
-      </c>
-      <c r="M1" t="s">
-        <v>93</v>
-      </c>
-      <c r="N1" t="s">
-        <v>94</v>
-      </c>
-      <c r="O1" t="s">
-        <v>99</v>
-      </c>
-      <c r="P1" t="s">
-        <v>100</v>
       </c>
       <c r="Q1" t="s">
         <v>29</v>
@@ -4762,12 +5989,12 @@
         <v>32</v>
       </c>
       <c r="W1" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -4792,11 +6019,11 @@
       </c>
       <c r="I2" s="1">
         <f>'Count-&gt;Actual Activity'!F2</f>
-        <v>0.34881689834741997</v>
+        <v>0.18856815054936449</v>
       </c>
       <c r="J2" s="1">
         <f>'Count-&gt;Actual Activity'!G2</f>
-        <v>0.23297862754643522</v>
+        <v>0.12664707357059601</v>
       </c>
       <c r="K2" s="1">
         <v>10</v>
@@ -4810,11 +6037,11 @@
       <c r="P2" s="1"/>
       <c r="Q2">
         <f>I2/K2</f>
-        <v>3.4881689834741998E-2</v>
+        <v>1.885681505493645E-2</v>
       </c>
       <c r="R2">
         <f>SQRT((L2/K2)^2+(J2/I2)^2)*Q2</f>
-        <v>2.3297967204529858E-2</v>
+        <v>1.2664763509748442E-2</v>
       </c>
       <c r="S2">
         <f>B2*Parameters!$B$6</f>
@@ -4826,7 +6053,7 @@
       </c>
       <c r="U2">
         <f t="shared" ref="U2:U19" si="0">(S2-Q2*G2)/E2</f>
-        <v>-8.1120208918004644E-2</v>
+        <v>-4.3853058267294069E-2</v>
       </c>
       <c r="W2" t="e">
         <f t="shared" ref="W2:W19" si="1">(S2-Q2*G2)/S2</f>
@@ -4835,7 +6062,7 @@
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -4860,11 +6087,11 @@
       </c>
       <c r="I3" s="1">
         <f>'Count-&gt;Actual Activity'!F3</f>
-        <v>0.28593470307266039</v>
+        <v>0.15455630021223843</v>
       </c>
       <c r="J3" s="1">
         <f>'Count-&gt;Actual Activity'!G3</f>
-        <v>0.23297862548107512</v>
+        <v>0.12664741319418718</v>
       </c>
       <c r="K3" s="1">
         <v>10</v>
@@ -4878,11 +6105,11 @@
       <c r="P3" s="1"/>
       <c r="Q3">
         <f t="shared" ref="Q3:Q19" si="2">I3/K3</f>
-        <v>2.8593470307266038E-2</v>
+        <v>1.5455630021223844E-2</v>
       </c>
       <c r="R3">
         <f t="shared" ref="R3:R19" si="3">SQRT((L3/K3)^2+(J3/I3)^2)*Q3</f>
-        <v>2.3297932733542848E-2</v>
+        <v>1.2664779042438489E-2</v>
       </c>
       <c r="S3">
         <f>B3*Parameters!$B$6</f>
@@ -4894,7 +6121,7 @@
       </c>
       <c r="U3">
         <f t="shared" si="0"/>
-        <v>-6.807969120777628E-2</v>
+        <v>-3.6799119098152006E-2</v>
       </c>
       <c r="W3" t="e">
         <f t="shared" si="1"/>
@@ -4903,7 +6130,7 @@
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -4928,11 +6155,11 @@
       </c>
       <c r="I4" s="1">
         <f>'Count-&gt;Actual Activity'!F4</f>
-        <v>0.30588185979424748</v>
+        <v>0.16534535911995343</v>
       </c>
       <c r="J4" s="1">
         <f>'Count-&gt;Actual Activity'!G4</f>
-        <v>0.2329786260734775</v>
+        <v>0.12664730545080891</v>
       </c>
       <c r="K4" s="1">
         <v>10</v>
@@ -4946,11 +6173,11 @@
       <c r="P4" s="1"/>
       <c r="Q4">
         <f t="shared" si="2"/>
-        <v>3.0588185979424747E-2</v>
+        <v>1.6534535911995343E-2</v>
       </c>
       <c r="R4">
         <f t="shared" si="3"/>
-        <v>2.3297942926776574E-2</v>
+        <v>1.2664773718587166E-2</v>
       </c>
       <c r="S4">
         <f>B4*Parameters!$B$6</f>
@@ -4962,7 +6189,7 @@
       </c>
       <c r="U4">
         <f t="shared" si="0"/>
-        <v>-8.0495226261644071E-2</v>
+        <v>-4.3511936610514057E-2</v>
       </c>
       <c r="W4" t="e">
         <f t="shared" si="1"/>
@@ -4971,12 +6198,12 @@
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>128</v>
-      </c>
-      <c r="B5" s="23">
+        <v>119</v>
+      </c>
+      <c r="B5" s="17">
         <v>6.9499999999999996E-3</v>
       </c>
-      <c r="C5" s="23">
+      <c r="C5" s="17">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="D5" s="1">
@@ -4996,11 +6223,11 @@
       </c>
       <c r="I5" s="1">
         <f>'Count-&gt;Actual Activity'!F5</f>
-        <v>0.97423323897182323</v>
+        <v>0.52684461947296934</v>
       </c>
       <c r="J5" s="1">
         <f>'Count-&gt;Actual Activity'!G5</f>
-        <v>0.23297867963368274</v>
+        <v>0.12664370064546238</v>
       </c>
       <c r="K5" s="1">
         <v>10</v>
@@ -5014,37 +6241,37 @@
       <c r="P5" s="1"/>
       <c r="Q5">
         <f t="shared" si="2"/>
-        <v>9.7423323897182321E-2</v>
+        <v>5.2684461947296937E-2</v>
       </c>
       <c r="R5">
         <f t="shared" si="3"/>
-        <v>2.3298682727886107E-2</v>
+        <v>1.2664808397362259E-2</v>
       </c>
       <c r="S5">
         <f>B5*Parameters!$B$6</f>
-        <v>9.9964568335816697</v>
+        <v>4.6944468354083231</v>
       </c>
       <c r="T5">
         <f>SQRT((C5/B5)^2+(Parameters!$C$6/Parameters!$B$6)^2)*'Bottle Results'!S5</f>
-        <v>5.2010678432096141E-2</v>
+        <v>6.8217960029032382E-3</v>
       </c>
       <c r="U5">
         <f t="shared" si="0"/>
-        <v>7.0590123295399326E-3</v>
+        <v>-1.5944426647815851E-2</v>
       </c>
       <c r="W5">
         <f t="shared" si="1"/>
-        <v>2.5421451629715718E-2</v>
+        <v>-0.12227199059789631</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>129</v>
-      </c>
-      <c r="B6" s="23">
+        <v>120</v>
+      </c>
+      <c r="B6" s="17">
         <v>6.9499999999999996E-3</v>
       </c>
-      <c r="C6" s="23">
+      <c r="C6" s="17">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="D6" s="1">
@@ -5064,11 +6291,11 @@
       </c>
       <c r="I6" s="1">
         <f>'Count-&gt;Actual Activity'!F6</f>
-        <v>1.0137626654017968</v>
+        <v>0.54822537645472125</v>
       </c>
       <c r="J6" s="1">
         <f>'Count-&gt;Actual Activity'!G6</f>
-        <v>0.23297868485204121</v>
+        <v>0.12664348776005996</v>
       </c>
       <c r="K6" s="1">
         <v>10</v>
@@ -5082,37 +6309,37 @@
       <c r="P6" s="1"/>
       <c r="Q6">
         <f t="shared" si="2"/>
-        <v>0.10137626654017969</v>
+        <v>5.4822537645472125E-2</v>
       </c>
       <c r="R6">
         <f t="shared" si="3"/>
-        <v>2.3298750707785552E-2</v>
+        <v>1.2664823408277752E-2</v>
       </c>
       <c r="S6">
         <f>B6*Parameters!$B$6</f>
-        <v>9.9964568335816697</v>
+        <v>4.6944468354083231</v>
       </c>
       <c r="T6">
         <f>SQRT((C6/B6)^2+(Parameters!$C$6/Parameters!$B$6)^2)*'Bottle Results'!S6</f>
-        <v>5.2010678432096141E-2</v>
+        <v>6.8217960029032382E-3</v>
       </c>
       <c r="U6">
         <f t="shared" si="0"/>
-        <v>-3.3611862008642406E-3</v>
+        <v>-1.875730783664022E-2</v>
       </c>
       <c r="W6">
         <f t="shared" si="1"/>
-        <v>-1.4121985698178404E-2</v>
+        <v>-0.16781677517290824</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>130</v>
-      </c>
-      <c r="B7" s="23">
+        <v>121</v>
+      </c>
+      <c r="B7" s="17">
         <v>6.9499999999999996E-3</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7" s="17">
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="D7" s="1">
@@ -5132,11 +6359,11 @@
       </c>
       <c r="I7" s="1">
         <f>'Count-&gt;Actual Activity'!F7</f>
-        <v>1.0492783346865759</v>
+        <v>0.56743516426601981</v>
       </c>
       <c r="J7" s="1">
         <f>'Count-&gt;Actual Activity'!G7</f>
-        <v>0.23297868973584956</v>
+        <v>0.12664329652116071</v>
       </c>
       <c r="K7" s="1">
         <v>10</v>
@@ -5150,37 +6377,37 @@
       <c r="P7" s="1"/>
       <c r="Q7">
         <f t="shared" si="2"/>
-        <v>0.1049278334686576</v>
+        <v>5.6743516426601984E-2</v>
       </c>
       <c r="R7">
         <f t="shared" si="3"/>
-        <v>2.3298814092379858E-2</v>
+        <v>1.2664838129407425E-2</v>
       </c>
       <c r="S7">
         <f>B7*Parameters!$B$6</f>
-        <v>9.9964568335816697</v>
+        <v>4.6944468354083231</v>
       </c>
       <c r="T7">
         <f>SQRT((C7/B7)^2+(Parameters!$C$6/Parameters!$B$6)^2)*'Bottle Results'!S7</f>
-        <v>5.2010678432096141E-2</v>
+        <v>6.8217960029032382E-3</v>
       </c>
       <c r="U7">
         <f t="shared" si="0"/>
-        <v>-1.4180757522402589E-2</v>
+        <v>-2.799728020719644E-2</v>
       </c>
       <c r="W7">
         <f t="shared" si="1"/>
-        <v>-4.9650243235858586E-2</v>
+        <v>-0.20873701239107617</v>
       </c>
     </row>
     <row r="8" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>131</v>
-      </c>
-      <c r="B8" s="23">
+        <v>122</v>
+      </c>
+      <c r="B8" s="17">
         <v>3.4799999999999998E-2</v>
       </c>
-      <c r="C8" s="23">
+      <c r="C8" s="17">
         <v>1E-4</v>
       </c>
       <c r="D8" s="1">
@@ -5200,11 +6427,11 @@
       </c>
       <c r="I8" s="1">
         <f>'Count-&gt;Actual Activity'!F8</f>
-        <v>4.1404794815106083</v>
+        <v>2.2394103602390651</v>
       </c>
       <c r="J8" s="1">
         <f>'Count-&gt;Actual Activity'!G8</f>
-        <v>0.23297982309197329</v>
+        <v>0.12662676195979705</v>
       </c>
       <c r="K8" s="1">
         <v>10</v>
@@ -5218,37 +6445,37 @@
       <c r="P8" s="1"/>
       <c r="Q8">
         <f t="shared" si="2"/>
-        <v>0.41404794815106083</v>
+        <v>0.22394103602390653</v>
       </c>
       <c r="R8">
         <f t="shared" si="3"/>
-        <v>2.331269444944415E-2</v>
+        <v>1.2670594571475048E-2</v>
       </c>
       <c r="S8">
         <f>B8*Parameters!$B$6</f>
-        <v>50.054201123545624</v>
+        <v>23.506007175857501</v>
       </c>
       <c r="T8">
         <f>SQRT((C8/B8)^2+(Parameters!$C$6/Parameters!$B$6)^2)*'Bottle Results'!S8</f>
-        <v>0.28865857043477139</v>
+        <v>6.7715098344118985E-2</v>
       </c>
       <c r="U8">
         <f t="shared" si="0"/>
-        <v>0.24026128634554272</v>
+        <v>3.0886210374079088E-2</v>
       </c>
       <c r="W8">
         <f t="shared" si="1"/>
-        <v>0.1728008062118653</v>
+        <v>4.7302953885288469E-2</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>132</v>
-      </c>
-      <c r="B9" s="23">
+        <v>123</v>
+      </c>
+      <c r="B9" s="17">
         <v>3.4799999999999998E-2</v>
       </c>
-      <c r="C9" s="23">
+      <c r="C9" s="17">
         <v>1E-4</v>
       </c>
       <c r="D9" s="1">
@@ -5268,11 +6495,11 @@
       </c>
       <c r="I9" s="1">
         <f>'Count-&gt;Actual Activity'!F9</f>
-        <v>4.1470474477482044</v>
+        <v>2.2429628552452643</v>
       </c>
       <c r="J9" s="1">
         <f>'Count-&gt;Actual Activity'!G9</f>
-        <v>0.23297982699101361</v>
+        <v>0.12662672706081313</v>
       </c>
       <c r="K9" s="1">
         <v>10</v>
@@ -5286,37 +6513,37 @@
       <c r="P9" s="1"/>
       <c r="Q9">
         <f t="shared" si="2"/>
-        <v>0.41470474477482044</v>
+        <v>0.22429628552452643</v>
       </c>
       <c r="R9">
         <f t="shared" si="3"/>
-        <v>2.33127415365285E-2</v>
+        <v>1.2670616218485076E-2</v>
       </c>
       <c r="S9">
         <f>B9*Parameters!$B$6</f>
-        <v>50.054201123545624</v>
+        <v>23.506007175857501</v>
       </c>
       <c r="T9">
         <f>SQRT((C9/B9)^2+(Parameters!$C$6/Parameters!$B$6)^2)*'Bottle Results'!S9</f>
-        <v>0.28865857043477139</v>
+        <v>6.7715098344118985E-2</v>
       </c>
       <c r="U9">
         <f t="shared" si="0"/>
-        <v>0.24524933274467375</v>
+        <v>3.0753674954424475E-2</v>
       </c>
       <c r="W9">
         <f t="shared" si="1"/>
-        <v>0.17148863538700601</v>
+        <v>4.5791640211459705E-2</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>133</v>
-      </c>
-      <c r="B10" s="23">
+        <v>124</v>
+      </c>
+      <c r="B10" s="17">
         <v>3.4799999999999998E-2</v>
       </c>
-      <c r="C10" s="23">
+      <c r="C10" s="17">
         <v>1E-4</v>
       </c>
       <c r="D10" s="1">
@@ -5336,11 +6563,11 @@
       </c>
       <c r="I10" s="1">
         <f>'Count-&gt;Actual Activity'!F10</f>
-        <v>4.2697711131877361</v>
+        <v>2.3093418823055409</v>
       </c>
       <c r="J10" s="1">
         <f>'Count-&gt;Actual Activity'!G10</f>
-        <v>0.23297990100804566</v>
+        <v>0.1266260751481677</v>
       </c>
       <c r="K10" s="1">
         <v>10</v>
@@ -5354,37 +6581,37 @@
       <c r="P10" s="1"/>
       <c r="Q10">
         <f t="shared" si="2"/>
-        <v>0.42697711131877358</v>
+        <v>0.23093418823055409</v>
       </c>
       <c r="R10">
         <f t="shared" si="3"/>
-        <v>2.3313635078029939E-2</v>
+        <v>1.2671028035304356E-2</v>
       </c>
       <c r="S10">
         <f>B10*Parameters!$B$6</f>
-        <v>50.054201123545624</v>
+        <v>23.506007175857501</v>
       </c>
       <c r="T10">
         <f>SQRT((C10/B10)^2+(Parameters!$C$6/Parameters!$B$6)^2)*'Bottle Results'!S10</f>
-        <v>0.28865857043477139</v>
+        <v>6.7715098344118985E-2</v>
       </c>
       <c r="U10">
         <f t="shared" si="0"/>
-        <v>0.19882405382887214</v>
+        <v>1.1151036562218724E-2</v>
       </c>
       <c r="W10">
         <f t="shared" si="1"/>
-        <v>0.14697048052991016</v>
+        <v>1.755246434306602E-2</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>134</v>
-      </c>
-      <c r="B11" s="23">
+        <v>125</v>
+      </c>
+      <c r="B11" s="17">
         <v>6.9500000000000006E-2</v>
       </c>
-      <c r="C11" s="23">
+      <c r="C11" s="17">
         <v>1E-4</v>
       </c>
       <c r="D11" s="1">
@@ -5404,11 +6631,11 @@
       </c>
       <c r="I11" s="1">
         <f>'Count-&gt;Actual Activity'!F11</f>
-        <v>8.0548657301133328</v>
+        <v>4.356631596989045</v>
       </c>
       <c r="J11" s="1">
         <f>'Count-&gt;Actual Activity'!G11</f>
-        <v>0.23298326777502382</v>
+        <v>0.12660613765246881</v>
       </c>
       <c r="K11" s="1">
         <v>10</v>
@@ -5422,37 +6649,37 @@
       <c r="P11" s="1"/>
       <c r="Q11">
         <f t="shared" si="2"/>
-        <v>0.80548657301133331</v>
+        <v>0.43566315969890451</v>
       </c>
       <c r="R11">
         <f t="shared" si="3"/>
-        <v>2.3353956091174164E-2</v>
+        <v>1.2690561471725124E-2</v>
       </c>
       <c r="S11">
         <f>B11*Parameters!$B$6</f>
-        <v>99.964568335816708</v>
+        <v>46.944468354083234</v>
       </c>
       <c r="T11">
         <f>SQRT((C11/B11)^2+(Parameters!$C$6/Parameters!$B$6)^2)*'Bottle Results'!S11</f>
-        <v>0.52010678432096147</v>
+        <v>6.8217960029032368E-2</v>
       </c>
       <c r="U11">
         <f t="shared" si="0"/>
-        <v>0.46228359606388991</v>
+        <v>8.0432199623637637E-2</v>
       </c>
       <c r="W11">
         <f t="shared" si="1"/>
-        <v>0.19422792853422216</v>
+        <v>7.1960605852701046E-2</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>135</v>
-      </c>
-      <c r="B12" s="23">
+        <v>126</v>
+      </c>
+      <c r="B12" s="17">
         <v>6.9500000000000006E-2</v>
       </c>
-      <c r="C12" s="23">
+      <c r="C12" s="17">
         <v>1E-4</v>
       </c>
       <c r="D12" s="1">
@@ -5472,11 +6699,11 @@
       </c>
       <c r="I12" s="1">
         <f>'Count-&gt;Actual Activity'!F12</f>
-        <v>8.0313913322641319</v>
+        <v>4.3439347166891027</v>
       </c>
       <c r="J12" s="1">
         <f>'Count-&gt;Actual Activity'!G12</f>
-        <v>0.23298324042444502</v>
+        <v>0.1266062602913649</v>
       </c>
       <c r="K12" s="1">
         <v>10</v>
@@ -5490,37 +6717,37 @@
       <c r="P12" s="1"/>
       <c r="Q12">
         <f t="shared" si="2"/>
-        <v>0.80313913322641317</v>
+        <v>0.43439347166891029</v>
       </c>
       <c r="R12">
         <f t="shared" si="3"/>
-        <v>2.3353629976002148E-2</v>
+        <v>1.2690399607678347E-2</v>
       </c>
       <c r="S12">
         <f>B12*Parameters!$B$6</f>
-        <v>99.964568335816708</v>
+        <v>46.944468354083234</v>
       </c>
       <c r="T12">
         <f>SQRT((C12/B12)^2+(Parameters!$C$6/Parameters!$B$6)^2)*'Bottle Results'!S12</f>
-        <v>0.52010678432096147</v>
+        <v>6.8217960029032368E-2</v>
       </c>
       <c r="U12">
         <f t="shared" si="0"/>
-        <v>0.40938864610782072</v>
+        <v>7.3023358066504215E-2</v>
       </c>
       <c r="W12">
         <f t="shared" si="1"/>
-        <v>0.19657620035092657</v>
+        <v>7.4665265367465303E-2</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>136</v>
-      </c>
-      <c r="B13" s="23">
+        <v>127</v>
+      </c>
+      <c r="B13" s="17">
         <v>6.9500000000000006E-2</v>
       </c>
-      <c r="C13" s="23">
+      <c r="C13" s="17">
         <v>1E-4</v>
       </c>
       <c r="D13" s="1">
@@ -5540,11 +6767,11 @@
       </c>
       <c r="I13" s="1">
         <f>'Count-&gt;Actual Activity'!F13</f>
-        <v>7.9528189954218007</v>
+        <v>4.3014363505038453</v>
       </c>
       <c r="J13" s="1">
         <f>'Count-&gt;Actual Activity'!G13</f>
-        <v>0.23298314946548415</v>
+        <v>0.12660667087385308</v>
       </c>
       <c r="K13" s="1">
         <v>10</v>
@@ -5558,37 +6785,37 @@
       <c r="P13" s="1"/>
       <c r="Q13">
         <f t="shared" si="2"/>
-        <v>0.79528189954218009</v>
+        <v>0.43014363505038455</v>
       </c>
       <c r="R13">
         <f t="shared" si="3"/>
-        <v>2.3352545311968006E-2</v>
+        <v>1.2689861515583966E-2</v>
       </c>
       <c r="S13">
         <f>B13*Parameters!$B$6</f>
-        <v>99.964568335816708</v>
+        <v>46.944468354083234</v>
       </c>
       <c r="T13">
         <f>SQRT((C13/B13)^2+(Parameters!$C$6/Parameters!$B$6)^2)*'Bottle Results'!S13</f>
-        <v>0.52010678432096147</v>
+        <v>6.8217960029032368E-2</v>
       </c>
       <c r="U13">
         <f t="shared" si="0"/>
-        <v>0.5838965251885343</v>
+        <v>0.11228870997270804</v>
       </c>
       <c r="W13">
         <f t="shared" si="1"/>
-        <v>0.20443621897056166</v>
+        <v>8.3718167162988869E-2</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>137</v>
-      </c>
-      <c r="B14" s="23">
+        <v>128</v>
+      </c>
+      <c r="B14" s="17">
         <v>0.17399999999999999</v>
       </c>
-      <c r="C14" s="23">
+      <c r="C14" s="17">
         <v>1E-3</v>
       </c>
       <c r="D14" s="1">
@@ -5608,11 +6835,11 @@
       </c>
       <c r="I14" s="1">
         <f>'Count-&gt;Actual Activity'!F14</f>
-        <v>20.301325296128343</v>
+        <v>10.98052168382509</v>
       </c>
       <c r="J14" s="1">
         <f>'Count-&gt;Actual Activity'!G14</f>
-        <v>0.2330085462679812</v>
+        <v>0.12654387655589103</v>
       </c>
       <c r="K14" s="1">
         <v>10</v>
@@ -5626,37 +6853,37 @@
       <c r="P14" s="1"/>
       <c r="Q14">
         <f t="shared" si="2"/>
-        <v>2.0301325296128345</v>
+        <v>1.0980521683825091</v>
       </c>
       <c r="R14">
         <f t="shared" si="3"/>
-        <v>2.365196775514351E-2</v>
+        <v>1.2843535385394629E-2</v>
       </c>
       <c r="S14">
         <f>B14*Parameters!$B$6</f>
-        <v>250.27100561772812</v>
+        <v>117.53003587928751</v>
       </c>
       <c r="T14">
         <f>SQRT((C14/B14)^2+(Parameters!$C$6/Parameters!$B$6)^2)*'Bottle Results'!S14</f>
-        <v>1.9064912298713623</v>
+        <v>0.67588312473327705</v>
       </c>
       <c r="U14">
         <f t="shared" si="0"/>
-        <v>1.3899339016601373</v>
+        <v>0.22720056003048814</v>
       </c>
       <c r="W14">
         <f t="shared" si="1"/>
-        <v>0.18882631865325886</v>
+        <v>6.5726339511804344E-2</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>138</v>
-      </c>
-      <c r="B15" s="23">
+        <v>129</v>
+      </c>
+      <c r="B15" s="17">
         <v>0.17399999999999999</v>
       </c>
-      <c r="C15" s="23">
+      <c r="C15" s="17">
         <v>1E-3</v>
       </c>
       <c r="D15" s="1">
@@ -5676,11 +6903,11 @@
       </c>
       <c r="I15" s="1">
         <f>'Count-&gt;Actual Activity'!F15</f>
-        <v>19.660826958958346</v>
+        <v>10.634087633776137</v>
       </c>
       <c r="J15" s="1">
         <f>'Count-&gt;Actual Activity'!G15</f>
-        <v>0.23300667957776927</v>
+        <v>0.12654704777903705</v>
       </c>
       <c r="K15" s="1">
         <v>10</v>
@@ -5694,37 +6921,37 @@
       <c r="P15" s="1"/>
       <c r="Q15">
         <f t="shared" si="2"/>
-        <v>1.9660826958958346</v>
+        <v>1.0634087633776137</v>
       </c>
       <c r="R15">
         <f t="shared" si="3"/>
-        <v>2.3630130172027756E-2</v>
+        <v>1.2832182425761103E-2</v>
       </c>
       <c r="S15">
         <f>B15*Parameters!$B$6</f>
-        <v>250.27100561772812</v>
+        <v>117.53003587928751</v>
       </c>
       <c r="T15">
         <f>SQRT((C15/B15)^2+(Parameters!$C$6/Parameters!$B$6)^2)*'Bottle Results'!S15</f>
-        <v>1.9064912298713623</v>
+        <v>0.67588312473327705</v>
       </c>
       <c r="U15">
         <f t="shared" si="0"/>
-        <v>1.2776841911463013</v>
+        <v>0.26640856051252709</v>
       </c>
       <c r="W15">
         <f t="shared" si="1"/>
-        <v>0.21441850962996015</v>
+        <v>9.5202553609515406E-2</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>139</v>
-      </c>
-      <c r="B16" s="23">
+        <v>130</v>
+      </c>
+      <c r="B16" s="17">
         <v>0.17399999999999999</v>
       </c>
-      <c r="C16" s="23">
+      <c r="C16" s="17">
         <v>1E-3</v>
       </c>
       <c r="D16" s="1">
@@ -5744,11 +6971,11 @@
       </c>
       <c r="I16" s="1">
         <f>'Count-&gt;Actual Activity'!F16</f>
-        <v>20.096745310727663</v>
+        <v>10.869868043076446</v>
       </c>
       <c r="J16" s="1">
         <f>'Count-&gt;Actual Activity'!G16</f>
-        <v>0.23300794350032458</v>
+        <v>0.12654488844728209</v>
       </c>
       <c r="K16" s="1">
         <v>10</v>
@@ -5762,37 +6989,37 @@
       <c r="P16" s="1"/>
       <c r="Q16">
         <f t="shared" si="2"/>
-        <v>2.0096745310727662</v>
+        <v>1.0869868043076445</v>
       </c>
       <c r="R16">
         <f t="shared" si="3"/>
-        <v>2.3644918782391167E-2</v>
+        <v>1.2839869515392533E-2</v>
       </c>
       <c r="S16">
         <f>B16*Parameters!$B$6</f>
-        <v>250.27100561772812</v>
+        <v>117.53003587928751</v>
       </c>
       <c r="T16">
         <f>SQRT((C16/B16)^2+(Parameters!$C$6/Parameters!$B$6)^2)*'Bottle Results'!S16</f>
-        <v>1.9064912298713623</v>
+        <v>0.67588312473327705</v>
       </c>
       <c r="U16">
         <f t="shared" si="0"/>
-        <v>1.4940470457712578</v>
+        <v>0.26761683177342593</v>
       </c>
       <c r="W16">
         <f t="shared" si="1"/>
-        <v>0.19700065690293875</v>
+        <v>7.5141263953952542E-2</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>140</v>
-      </c>
-      <c r="B17" s="23">
+        <v>131</v>
+      </c>
+      <c r="B17" s="17">
         <v>0.34799999999999998</v>
       </c>
-      <c r="C17" s="23">
+      <c r="C17" s="17">
         <v>1E-3</v>
       </c>
       <c r="D17" s="1">
@@ -5812,11 +7039,11 @@
       </c>
       <c r="I17" s="1">
         <f>'Count-&gt;Actual Activity'!F17</f>
-        <v>38.315553879792098</v>
+        <v>20.72409446860479</v>
       </c>
       <c r="J17" s="1">
         <f>'Count-&gt;Actual Activity'!G17</f>
-        <v>0.23308565754124691</v>
+        <v>0.12645853537671536</v>
       </c>
       <c r="K17" s="1">
         <v>10</v>
@@ -5826,37 +7053,37 @@
       </c>
       <c r="Q17">
         <f t="shared" si="2"/>
-        <v>3.8315553879792099</v>
+        <v>2.0724094468604788</v>
       </c>
       <c r="R17">
         <f t="shared" si="3"/>
-        <v>2.4535943109629275E-2</v>
+        <v>1.3307784765241205E-2</v>
       </c>
       <c r="S17">
         <f>B17*Parameters!$B$6</f>
-        <v>500.54201123545624</v>
+        <v>235.06007175857502</v>
       </c>
       <c r="T17">
         <f>SQRT((C17/B17)^2+(Parameters!$C$6/Parameters!$B$6)^2)*'Bottle Results'!S17</f>
-        <v>2.8865857043477137</v>
+        <v>0.67715098344118985</v>
       </c>
       <c r="U17">
         <f t="shared" si="0"/>
-        <v>3.0099095496803909</v>
+        <v>0.71331095057761928</v>
       </c>
       <c r="W17">
         <f t="shared" si="1"/>
-        <v>0.23451872131131937</v>
+        <v>0.11834901123105059</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>141</v>
-      </c>
-      <c r="B18" s="23">
+        <v>132</v>
+      </c>
+      <c r="B18" s="17">
         <v>0.34799999999999998</v>
       </c>
-      <c r="C18" s="23">
+      <c r="C18" s="17">
         <v>1E-3</v>
       </c>
       <c r="D18" s="1">
@@ -5876,11 +7103,11 @@
       </c>
       <c r="I18" s="1">
         <f>'Count-&gt;Actual Activity'!F18</f>
-        <v>38.522809703289639</v>
+        <v>20.83619542213377</v>
       </c>
       <c r="J18" s="1">
         <f>'Count-&gt;Actual Activity'!G18</f>
-        <v>0.23308682118519389</v>
+        <v>0.12645759681888</v>
       </c>
       <c r="K18" s="1">
         <v>10</v>
@@ -5890,37 +7117,37 @@
       </c>
       <c r="Q18">
         <f t="shared" si="2"/>
-        <v>3.8522809703289638</v>
+        <v>2.083619542213377</v>
       </c>
       <c r="R18">
         <f t="shared" si="3"/>
-        <v>2.4549031280268883E-2</v>
+        <v>1.33146956224631E-2</v>
       </c>
       <c r="S18">
         <f>B18*Parameters!$B$6</f>
-        <v>500.54201123545624</v>
+        <v>235.06007175857502</v>
       </c>
       <c r="T18">
         <f>SQRT((C18/B18)^2+(Parameters!$C$6/Parameters!$B$6)^2)*'Bottle Results'!S18</f>
-        <v>2.8865857043477137</v>
+        <v>0.67715098344118985</v>
       </c>
       <c r="U18">
         <f t="shared" si="0"/>
-        <v>2.3533451878073448</v>
+        <v>0.54485954157627192</v>
       </c>
       <c r="W18">
         <f t="shared" si="1"/>
-        <v>0.23037809337509518</v>
+        <v>0.11357997697141166</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>142</v>
-      </c>
-      <c r="B19" s="23">
+        <v>133</v>
+      </c>
+      <c r="B19" s="17">
         <v>0.34799999999999998</v>
       </c>
-      <c r="C19" s="23">
+      <c r="C19" s="17">
         <v>1E-3</v>
       </c>
       <c r="D19" s="1">
@@ -5940,11 +7167,11 @@
       </c>
       <c r="I19" s="1">
         <f>'Count-&gt;Actual Activity'!F19</f>
-        <v>38.100757058021856</v>
+        <v>20.607914724513186</v>
       </c>
       <c r="J19" s="1">
         <f>'Count-&gt;Actual Activity'!G19</f>
-        <v>0.23308445819232751</v>
+        <v>0.1264595091241153</v>
       </c>
       <c r="K19" s="1">
         <v>10</v>
@@ -5954,27 +7181,27 @@
       </c>
       <c r="Q19">
         <f t="shared" si="2"/>
-        <v>3.8100757058021855</v>
+        <v>2.0607914724513186</v>
       </c>
       <c r="R19">
         <f t="shared" si="3"/>
-        <v>2.4522445922947503E-2</v>
+        <v>1.3300658647256318E-2</v>
       </c>
       <c r="S19">
         <f>B19*Parameters!$B$6</f>
-        <v>500.54201123545624</v>
+        <v>235.06007175857502</v>
       </c>
       <c r="T19">
         <f>SQRT((C19/B19)^2+(Parameters!$C$6/Parameters!$B$6)^2)*'Bottle Results'!S19</f>
-        <v>2.8865857043477137</v>
+        <v>0.67715098344118985</v>
       </c>
       <c r="U19">
         <f t="shared" si="0"/>
-        <v>3.622255777431445</v>
+        <v>0.87820983374070216</v>
       </c>
       <c r="W19">
         <f t="shared" si="1"/>
-        <v>0.23881000589780341</v>
+        <v>0.12329156669027497</v>
       </c>
     </row>
   </sheetData>
@@ -5986,7 +7213,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -6000,28 +7227,28 @@
         <v>29</v>
       </c>
       <c r="C1" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="D1" t="s">
         <v>31</v>
       </c>
       <c r="E1" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="F1" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="G1" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="H1" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="I1" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="J1" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -6030,19 +7257,19 @@
       </c>
       <c r="B2">
         <f>AVERAGE('Bottle Results'!Q2:Q4)</f>
-        <v>3.135444870714426E-2</v>
+        <v>1.6948993662718546E-2</v>
       </c>
       <c r="C2">
         <f>_xlfn.STDEV.S('Bottle Results'!Q2:Q4)</f>
-        <v>3.2133775272058544E-3</v>
+        <v>1.738058206372433E-3</v>
       </c>
       <c r="D2">
         <f>AVERAGE('Bottle Results'!U2:U4)</f>
-        <v>-7.6565042129141669E-2</v>
+        <v>-4.1388037991986711E-2</v>
       </c>
       <c r="E2">
         <f>_xlfn.STDEV.S('Bottle Results'!U2:U4)</f>
-        <v>7.3551706998699331E-3</v>
+        <v>3.9777787088808667E-3</v>
       </c>
       <c r="F2">
         <f>AVERAGE('Bottle Results'!S2:S4)</f>
@@ -6067,31 +7294,31 @@
       </c>
       <c r="B3">
         <f>AVERAGE('Bottle Results'!Q5:Q7)</f>
-        <v>0.10124247463533986</v>
+        <v>5.4750172006457015E-2</v>
       </c>
       <c r="C3">
         <f>_xlfn.STDEV.S('Bottle Results'!Q5:Q7)</f>
-        <v>3.7540433112101287E-3</v>
+        <v>2.0304946209665615E-3</v>
       </c>
       <c r="D3">
         <f>AVERAGE('Bottle Results'!U5:U7)</f>
-        <v>-3.4943104645756319E-3</v>
+        <v>-2.089967156388417E-2</v>
       </c>
       <c r="E3">
         <f>_xlfn.STDEV.S('Bottle Results'!U5:U7)</f>
-        <v>1.0620510693609002E-2</v>
+        <v>6.3055619484568013E-3</v>
       </c>
       <c r="F3">
         <f>AVERAGE('Bottle Results'!S5:S7)</f>
-        <v>9.9964568335816697</v>
+        <v>4.6944468354083231</v>
       </c>
       <c r="G3">
         <f>AVERAGE('Bottle Results'!W5:W7)</f>
-        <v>-1.2783592434773757E-2</v>
+        <v>-0.16627525938729357</v>
       </c>
       <c r="H3">
         <f>_xlfn.STDEV.S('Bottle Results'!W5:W7)</f>
-        <v>3.7553739026801571E-2</v>
+        <v>4.3253117825328348E-2</v>
       </c>
       <c r="I3">
         <f>AVERAGE('Bottle Results'!D5:D7)</f>
@@ -6108,31 +7335,31 @@
       </c>
       <c r="B4">
         <f>AVERAGE('Bottle Results'!Q8:Q10)</f>
-        <v>0.41857660141488501</v>
+        <v>0.22639050325966237</v>
       </c>
       <c r="C4">
         <f>_xlfn.STDEV.S('Bottle Results'!Q8:Q10)</f>
-        <v>7.2824632120762371E-3</v>
+        <v>3.9389535904797443E-3</v>
       </c>
       <c r="D4">
         <f>AVERAGE('Bottle Results'!U8:U10)</f>
-        <v>0.22811155763969623</v>
+        <v>2.4263640630240762E-2</v>
       </c>
       <c r="E4">
         <f>_xlfn.STDEV.S('Bottle Results'!U8:U10)</f>
-        <v>2.5486046404292424E-2</v>
+        <v>1.1356041585556878E-2</v>
       </c>
       <c r="F4">
         <f>AVERAGE('Bottle Results'!S8:S10)</f>
-        <v>50.054201123545624</v>
+        <v>23.506007175857501</v>
       </c>
       <c r="G4">
         <f>AVERAGE('Bottle Results'!W8:W10)</f>
-        <v>0.16375330737626048</v>
+        <v>3.6882352813271395E-2</v>
       </c>
       <c r="H4">
         <f>_xlfn.STDEV.S('Bottle Results'!W8:W10)</f>
-        <v>1.4549154813401913E-2</v>
+        <v>1.6757221084001666E-2</v>
       </c>
       <c r="I4">
         <f>AVERAGE('Bottle Results'!D8:D10)</f>
@@ -6149,31 +7376,31 @@
       </c>
       <c r="B5">
         <f>AVERAGE('Bottle Results'!Q11:Q13)</f>
-        <v>0.80130253525997552</v>
+        <v>0.43340008880606645</v>
       </c>
       <c r="C5">
         <f>_xlfn.STDEV.S('Bottle Results'!Q11:Q13)</f>
-        <v>5.3444980326268288E-3</v>
+        <v>2.8907430222260689E-3</v>
       </c>
       <c r="D5">
         <f>AVERAGE('Bottle Results'!U11:U13)</f>
-        <v>0.4851895891200817</v>
+        <v>8.8581422554283293E-2</v>
       </c>
       <c r="E5">
         <f>_xlfn.STDEV.S('Bottle Results'!U11:U13)</f>
-        <v>8.9480519409142076E-2</v>
+        <v>2.0862630247874554E-2</v>
       </c>
       <c r="F5">
         <f>AVERAGE('Bottle Results'!S11:S13)</f>
-        <v>99.964568335816708</v>
+        <v>46.944468354083234</v>
       </c>
       <c r="G5">
         <f>AVERAGE('Bottle Results'!W11:W13)</f>
-        <v>0.19841344928523677</v>
+        <v>7.6781346127718406E-2</v>
       </c>
       <c r="H5">
         <f>_xlfn.STDEV.S('Bottle Results'!W11:W13)</f>
-        <v>5.3463923484096433E-3</v>
+        <v>6.1577926507174058E-3</v>
       </c>
       <c r="I5">
         <f>AVERAGE('Bottle Results'!D11:D13)</f>
@@ -6190,31 +7417,31 @@
       </c>
       <c r="B6">
         <f>AVERAGE('Bottle Results'!Q14:Q16)</f>
-        <v>2.001963252193812</v>
+        <v>1.0828159120225891</v>
       </c>
       <c r="C6">
         <f>_xlfn.STDEV.S('Bottle Results'!Q14:Q16)</f>
-        <v>3.2713806966716524E-2</v>
+        <v>1.7694310792552886E-2</v>
       </c>
       <c r="D6">
         <f>AVERAGE('Bottle Results'!U14:U16)</f>
-        <v>1.3872217128592321</v>
+        <v>0.25374198410548038</v>
       </c>
       <c r="E6">
         <f>_xlfn.STDEV.S('Bottle Results'!U14:U16)</f>
-        <v>0.10820692302913817</v>
+        <v>2.2993485464505206E-2</v>
       </c>
       <c r="F6">
         <f>AVERAGE('Bottle Results'!S14:S16)</f>
-        <v>250.27100561772809</v>
+        <v>117.5300358792875</v>
       </c>
       <c r="G6">
         <f>AVERAGE('Bottle Results'!W14:W16)</f>
-        <v>0.20008182839538591</v>
+        <v>7.8690052358424092E-2</v>
       </c>
       <c r="H6">
         <f>_xlfn.STDEV.S('Bottle Results'!W14:W16)</f>
-        <v>1.307135314615092E-2</v>
+        <v>1.5055139445993543E-2</v>
       </c>
       <c r="I6">
         <f>AVERAGE('Bottle Results'!D14:D16)</f>
@@ -6231,31 +7458,31 @@
       </c>
       <c r="B7">
         <f>AVERAGE('Bottle Results'!Q17:Q19)</f>
-        <v>3.8313040213701197</v>
+        <v>2.0722734871750581</v>
       </c>
       <c r="C7">
         <f>_xlfn.STDEV.S('Bottle Results'!Q17:Q19)</f>
-        <v>2.1103755052666741E-2</v>
+        <v>1.1414642177589111E-2</v>
       </c>
       <c r="D7">
         <f>AVERAGE('Bottle Results'!U17:U19)</f>
-        <v>2.9951701716397268</v>
+        <v>0.71212677529819779</v>
       </c>
       <c r="E7">
         <f>_xlfn.STDEV.S('Bottle Results'!U17:U19)</f>
-        <v>0.63458368877856852</v>
+        <v>0.16667830100180092</v>
       </c>
       <c r="F7">
         <f>AVERAGE('Bottle Results'!S17:S19)</f>
-        <v>500.54201123545619</v>
+        <v>235.06007175857499</v>
       </c>
       <c r="G7">
         <f>AVERAGE('Bottle Results'!W17:W19)</f>
-        <v>0.23456894019473931</v>
+        <v>0.1184068516309124</v>
       </c>
       <c r="H7">
         <f>_xlfn.STDEV.S('Bottle Results'!W17:W19)</f>
-        <v>4.2161805760474614E-3</v>
+        <v>4.8560532174570549E-3</v>
       </c>
       <c r="I7">
         <f>AVERAGE('Bottle Results'!D17:D19)</f>

--- a/Sorption Experiments/RaPYR_pH5/RaPYR_pH5_NoScript.xlsx
+++ b/Sorption Experiments/RaPYR_pH5/RaPYR_pH5_NoScript.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="12285" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="12285" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="147">
   <si>
     <t>Parameters</t>
   </si>
@@ -688,7 +688,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -739,7 +738,7 @@
             <c:numRef>
               <c:f>'[1]Calibration Data'!$I$3:$I$8</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.31819999999999998</c:v>
@@ -839,11 +838,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="555523640"/>
-        <c:axId val="555524032"/>
+        <c:axId val="501773088"/>
+        <c:axId val="501774656"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="555523640"/>
+        <c:axId val="501773088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -865,19 +864,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="555524032"/>
+        <c:crossAx val="501774656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="555524032"/>
+        <c:axId val="501774656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -899,21 +897,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="555523640"/>
+        <c:crossAx val="501773088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -4124,10 +4120,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F55"/>
+  <dimension ref="A1:F91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N37" sqref="N37"/>
+    <sheetView topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="A74" sqref="A74:A91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5236,6 +5232,726 @@
         <v>383.13</v>
       </c>
     </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="18">
+        <v>42530.357638888891</v>
+      </c>
+      <c r="B56" t="s">
+        <v>116</v>
+      </c>
+      <c r="C56">
+        <v>97</v>
+      </c>
+      <c r="D56">
+        <v>6.42</v>
+      </c>
+      <c r="E56">
+        <v>0.09</v>
+      </c>
+      <c r="F56">
+        <v>202.12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="18">
+        <v>42530.357638888891</v>
+      </c>
+      <c r="B57" t="s">
+        <v>117</v>
+      </c>
+      <c r="C57">
+        <v>79</v>
+      </c>
+      <c r="D57">
+        <v>7.12</v>
+      </c>
+      <c r="E57">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F57">
+        <v>212.74</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="18">
+        <v>42530.357638888891</v>
+      </c>
+      <c r="B58" t="s">
+        <v>118</v>
+      </c>
+      <c r="C58">
+        <v>92</v>
+      </c>
+      <c r="D58">
+        <v>6.59</v>
+      </c>
+      <c r="E58">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F58">
+        <v>223.37</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="18">
+        <v>42530.357638888891</v>
+      </c>
+      <c r="B59" t="s">
+        <v>119</v>
+      </c>
+      <c r="C59">
+        <v>286</v>
+      </c>
+      <c r="D59">
+        <v>3.74</v>
+      </c>
+      <c r="E59">
+        <v>0.02</v>
+      </c>
+      <c r="F59">
+        <v>233.99</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="18">
+        <v>42530.357638888891</v>
+      </c>
+      <c r="B60" t="s">
+        <v>120</v>
+      </c>
+      <c r="C60">
+        <v>274.7</v>
+      </c>
+      <c r="D60">
+        <v>3.82</v>
+      </c>
+      <c r="E60">
+        <v>0.03</v>
+      </c>
+      <c r="F60">
+        <v>244.63</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="18">
+        <v>42530.357638888891</v>
+      </c>
+      <c r="B61" t="s">
+        <v>121</v>
+      </c>
+      <c r="C61">
+        <v>291.2</v>
+      </c>
+      <c r="D61">
+        <v>3.71</v>
+      </c>
+      <c r="E61">
+        <v>0.03</v>
+      </c>
+      <c r="F61">
+        <v>255.26</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="18">
+        <v>42530.357638888891</v>
+      </c>
+      <c r="B62" t="s">
+        <v>122</v>
+      </c>
+      <c r="C62">
+        <v>1119.5</v>
+      </c>
+      <c r="D62">
+        <v>1.89</v>
+      </c>
+      <c r="E62">
+        <v>0.01</v>
+      </c>
+      <c r="F62">
+        <v>265.99</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="18">
+        <v>42530.357638888891</v>
+      </c>
+      <c r="B63" t="s">
+        <v>123</v>
+      </c>
+      <c r="C63">
+        <v>1131.0999999999999</v>
+      </c>
+      <c r="D63">
+        <v>1.88</v>
+      </c>
+      <c r="E63">
+        <v>0</v>
+      </c>
+      <c r="F63">
+        <v>276.60000000000002</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="18">
+        <v>42530.357638888891</v>
+      </c>
+      <c r="B64" t="s">
+        <v>124</v>
+      </c>
+      <c r="C64">
+        <v>1142</v>
+      </c>
+      <c r="D64">
+        <v>1.87</v>
+      </c>
+      <c r="E64">
+        <v>0.01</v>
+      </c>
+      <c r="F64">
+        <v>287.24</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="18">
+        <v>42530.357638888891</v>
+      </c>
+      <c r="B65" t="s">
+        <v>125</v>
+      </c>
+      <c r="C65">
+        <v>2238.9</v>
+      </c>
+      <c r="D65">
+        <v>1.34</v>
+      </c>
+      <c r="E65">
+        <v>0.01</v>
+      </c>
+      <c r="F65">
+        <v>297.88</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="18">
+        <v>42530.357638888891</v>
+      </c>
+      <c r="B66" t="s">
+        <v>126</v>
+      </c>
+      <c r="C66">
+        <v>2260.3000000000002</v>
+      </c>
+      <c r="D66">
+        <v>1.33</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>308.51</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="18">
+        <v>42530.357638888891</v>
+      </c>
+      <c r="B67" t="s">
+        <v>127</v>
+      </c>
+      <c r="C67">
+        <v>2164.4</v>
+      </c>
+      <c r="D67">
+        <v>1.36</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>319.14</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="18">
+        <v>42530.357638888891</v>
+      </c>
+      <c r="B68" t="s">
+        <v>128</v>
+      </c>
+      <c r="C68">
+        <v>5542.1</v>
+      </c>
+      <c r="D68">
+        <v>0.85</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>329.79</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="18">
+        <v>42530.357638888891</v>
+      </c>
+      <c r="B69" t="s">
+        <v>129</v>
+      </c>
+      <c r="C69">
+        <v>5436.8</v>
+      </c>
+      <c r="D69">
+        <v>0.86</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>340.44</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="18">
+        <v>42530.357638888891</v>
+      </c>
+      <c r="B70" t="s">
+        <v>130</v>
+      </c>
+      <c r="C70">
+        <v>5620.7</v>
+      </c>
+      <c r="D70">
+        <v>0.84</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>351.09</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="18">
+        <v>42530.357638888891</v>
+      </c>
+      <c r="B71" t="s">
+        <v>131</v>
+      </c>
+      <c r="C71">
+        <v>10709</v>
+      </c>
+      <c r="D71">
+        <v>0.61</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>361.76</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="18">
+        <v>42530.357638888891</v>
+      </c>
+      <c r="B72" t="s">
+        <v>132</v>
+      </c>
+      <c r="C72">
+        <v>10492.9</v>
+      </c>
+      <c r="D72">
+        <v>0.62</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>372.43</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="18">
+        <v>42530.357638888891</v>
+      </c>
+      <c r="B73" t="s">
+        <v>133</v>
+      </c>
+      <c r="C73">
+        <v>10446.9</v>
+      </c>
+      <c r="D73">
+        <v>0.62</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>383.1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="18">
+        <v>42531.56527777778</v>
+      </c>
+      <c r="B74" t="s">
+        <v>116</v>
+      </c>
+      <c r="C74">
+        <v>97.9</v>
+      </c>
+      <c r="D74">
+        <v>6.39</v>
+      </c>
+      <c r="E74">
+        <v>0.06</v>
+      </c>
+      <c r="F74">
+        <v>202.02</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="18">
+        <v>42531.56527777778</v>
+      </c>
+      <c r="B75" t="s">
+        <v>117</v>
+      </c>
+      <c r="C75">
+        <v>76</v>
+      </c>
+      <c r="D75">
+        <v>7.25</v>
+      </c>
+      <c r="E75">
+        <v>0.08</v>
+      </c>
+      <c r="F75">
+        <v>212.63</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="18">
+        <v>42531.56527777778</v>
+      </c>
+      <c r="B76" t="s">
+        <v>118</v>
+      </c>
+      <c r="C76">
+        <v>85.9</v>
+      </c>
+      <c r="D76">
+        <v>6.82</v>
+      </c>
+      <c r="E76">
+        <v>0.05</v>
+      </c>
+      <c r="F76">
+        <v>223.27</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="18">
+        <v>42531.56527777778</v>
+      </c>
+      <c r="B77" t="s">
+        <v>119</v>
+      </c>
+      <c r="C77">
+        <v>269</v>
+      </c>
+      <c r="D77">
+        <v>3.86</v>
+      </c>
+      <c r="E77">
+        <v>0.02</v>
+      </c>
+      <c r="F77">
+        <v>233.89</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="18">
+        <v>42531.56527777778</v>
+      </c>
+      <c r="B78" t="s">
+        <v>120</v>
+      </c>
+      <c r="C78">
+        <v>282</v>
+      </c>
+      <c r="D78">
+        <v>3.77</v>
+      </c>
+      <c r="E78">
+        <v>0.02</v>
+      </c>
+      <c r="F78">
+        <v>244.52</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="18">
+        <v>42531.56527777778</v>
+      </c>
+      <c r="B79" t="s">
+        <v>121</v>
+      </c>
+      <c r="C79">
+        <v>289</v>
+      </c>
+      <c r="D79">
+        <v>3.72</v>
+      </c>
+      <c r="E79">
+        <v>0.02</v>
+      </c>
+      <c r="F79">
+        <v>255.14</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="18">
+        <v>42531.56527777778</v>
+      </c>
+      <c r="B80" t="s">
+        <v>122</v>
+      </c>
+      <c r="C80">
+        <v>1127.4000000000001</v>
+      </c>
+      <c r="D80">
+        <v>1.88</v>
+      </c>
+      <c r="E80">
+        <v>0.01</v>
+      </c>
+      <c r="F80">
+        <v>265.87</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="18">
+        <v>42531.56527777778</v>
+      </c>
+      <c r="B81" t="s">
+        <v>123</v>
+      </c>
+      <c r="C81">
+        <v>1148.0999999999999</v>
+      </c>
+      <c r="D81">
+        <v>1.87</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>276.51</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="18">
+        <v>42531.56527777778</v>
+      </c>
+      <c r="B82" t="s">
+        <v>124</v>
+      </c>
+      <c r="C82">
+        <v>1114.3</v>
+      </c>
+      <c r="D82">
+        <v>1.89</v>
+      </c>
+      <c r="E82">
+        <v>0.01</v>
+      </c>
+      <c r="F82">
+        <v>287.12</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="18">
+        <v>42531.56527777778</v>
+      </c>
+      <c r="B83" t="s">
+        <v>125</v>
+      </c>
+      <c r="C83">
+        <v>2277.9</v>
+      </c>
+      <c r="D83">
+        <v>1.33</v>
+      </c>
+      <c r="E83">
+        <v>0.01</v>
+      </c>
+      <c r="F83">
+        <v>297.77</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="18">
+        <v>42531.56527777778</v>
+      </c>
+      <c r="B84" t="s">
+        <v>126</v>
+      </c>
+      <c r="C84">
+        <v>2269.6</v>
+      </c>
+      <c r="D84">
+        <v>1.33</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>308.39999999999998</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="18">
+        <v>42531.56527777778</v>
+      </c>
+      <c r="B85" t="s">
+        <v>127</v>
+      </c>
+      <c r="C85">
+        <v>2166</v>
+      </c>
+      <c r="D85">
+        <v>1.36</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>319.02999999999997</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="18">
+        <v>42531.56527777778</v>
+      </c>
+      <c r="B86" t="s">
+        <v>128</v>
+      </c>
+      <c r="C86">
+        <v>5450.8</v>
+      </c>
+      <c r="D86">
+        <v>0.86</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <v>329.67</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="18">
+        <v>42531.56527777778</v>
+      </c>
+      <c r="B87" t="s">
+        <v>129</v>
+      </c>
+      <c r="C87">
+        <v>5388</v>
+      </c>
+      <c r="D87">
+        <v>0.86</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>340.32</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="18">
+        <v>42531.56527777778</v>
+      </c>
+      <c r="B88" t="s">
+        <v>130</v>
+      </c>
+      <c r="C88">
+        <v>5607.5</v>
+      </c>
+      <c r="D88">
+        <v>0.84</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>350.98</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="18">
+        <v>42531.56527777778</v>
+      </c>
+      <c r="B89" t="s">
+        <v>131</v>
+      </c>
+      <c r="C89">
+        <v>10660.5</v>
+      </c>
+      <c r="D89">
+        <v>0.61</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>361.64</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="18">
+        <v>42531.56527777778</v>
+      </c>
+      <c r="B90" t="s">
+        <v>132</v>
+      </c>
+      <c r="C90">
+        <v>10488.4</v>
+      </c>
+      <c r="D90">
+        <v>0.62</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>372.31</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="18">
+        <v>42531.56527777778</v>
+      </c>
+      <c r="B91" t="s">
+        <v>133</v>
+      </c>
+      <c r="C91">
+        <v>10349.299999999999</v>
+      </c>
+      <c r="D91">
+        <v>0.62</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>382.98</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5245,8 +5961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:G19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5291,21 +6007,21 @@
         <v>114</v>
       </c>
       <c r="C2">
-        <v>1.63222222222222</v>
+        <v>1.629</v>
       </c>
       <c r="D2">
-        <v>0.10435340740740701</v>
+        <v>0.10422342</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>51</v>
       </c>
       <c r="F2" s="1">
         <f>(C2-'Calibration Data'!$L$29)/'Calibration Data'!$L$30</f>
-        <v>0.18856815054936449</v>
+        <v>0.18818658627092116</v>
       </c>
       <c r="G2" s="17">
         <f>'Calibration Data'!$L$19/ABS('Calibration Data'!$L$30)*SQRT(1/'Calibration Data'!$L$20+1+(F2-AVERAGE('Calibration Data'!$L$3:$L$9))^2/('Calibration Data'!$L$30^2*SUM('Calibration Data'!$J$3:$J$8)))</f>
-        <v>0.12664707357059601</v>
+        <v>0.12664707738018557</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -5316,21 +6032,21 @@
         <v>114</v>
       </c>
       <c r="C3">
-        <v>1.345</v>
+        <v>1.3236666666666701</v>
       </c>
       <c r="D3">
-        <v>9.4687999999999994E-2</v>
+        <v>9.395386E-2</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>51</v>
       </c>
       <c r="F3" s="1">
         <f>(C3-'Calibration Data'!$L$29)/'Calibration Data'!$L$30</f>
-        <v>0.15455630021223843</v>
+        <v>0.1520300815411641</v>
       </c>
       <c r="G3" s="17">
         <f>'Calibration Data'!$L$19/ABS('Calibration Data'!$L$30)*SQRT(1/'Calibration Data'!$L$20+1+(F3-AVERAGE('Calibration Data'!$L$3:$L$9))^2/('Calibration Data'!$L$30^2*SUM('Calibration Data'!$J$3:$J$8)))</f>
-        <v>0.12664741319418718</v>
+        <v>0.12664743842321835</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -5341,21 +6057,21 @@
         <v>114</v>
       </c>
       <c r="C4">
-        <v>1.43611111111111</v>
+        <v>1.4546666666666701</v>
       </c>
       <c r="D4">
-        <v>9.7894907407407403E-2</v>
+        <v>9.8510026666666695E-2</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>51</v>
       </c>
       <c r="F4" s="1">
         <f>(C4-'Calibration Data'!$L$29)/'Calibration Data'!$L$30</f>
-        <v>0.16534535911995343</v>
+        <v>0.16754264306823252</v>
       </c>
       <c r="G4" s="17">
         <f>'Calibration Data'!$L$19/ABS('Calibration Data'!$L$30)*SQRT(1/'Calibration Data'!$L$20+1+(F4-AVERAGE('Calibration Data'!$L$3:$L$9))^2/('Calibration Data'!$L$30^2*SUM('Calibration Data'!$J$3:$J$8)))</f>
-        <v>0.12664730545080891</v>
+        <v>0.12664728350906426</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -5366,21 +6082,21 @@
         <v>114</v>
       </c>
       <c r="C5">
-        <v>4.4888888888888898</v>
+        <v>4.5433333333333303</v>
       </c>
       <c r="D5">
-        <v>0.17297185185185199</v>
+        <v>0.174100533333333</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>51</v>
       </c>
       <c r="F5" s="1">
         <f>(C5-'Calibration Data'!$L$29)/'Calibration Data'!$L$30</f>
-        <v>0.52684461947296934</v>
+        <v>0.53329174003977431</v>
       </c>
       <c r="G5" s="17">
         <f>'Calibration Data'!$L$19/ABS('Calibration Data'!$L$30)*SQRT(1/'Calibration Data'!$L$20+1+(F5-AVERAGE('Calibration Data'!$L$3:$L$9))^2/('Calibration Data'!$L$30^2*SUM('Calibration Data'!$J$3:$J$8)))</f>
-        <v>0.12664370064546238</v>
+        <v>0.12664363644856619</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -5391,21 +6107,21 @@
         <v>114</v>
       </c>
       <c r="C6">
-        <v>4.6694444444444398</v>
+        <v>4.6573333333333302</v>
       </c>
       <c r="D6">
-        <v>0.176505</v>
+        <v>0.17632664000000001</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>51</v>
       </c>
       <c r="F6" s="1">
         <f>(C6-'Calibration Data'!$L$29)/'Calibration Data'!$L$30</f>
-        <v>0.54822537645472125</v>
+        <v>0.54679122106333</v>
       </c>
       <c r="G6" s="17">
         <f>'Calibration Data'!$L$19/ABS('Calibration Data'!$L$30)*SQRT(1/'Calibration Data'!$L$20+1+(F6-AVERAGE('Calibration Data'!$L$3:$L$9))^2/('Calibration Data'!$L$30^2*SUM('Calibration Data'!$J$3:$J$8)))</f>
-        <v>0.12664348776005996</v>
+        <v>0.12664350203864069</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -5416,21 +6132,21 @@
         <v>114</v>
       </c>
       <c r="C7">
-        <v>4.8316666666666697</v>
+        <v>4.8330000000000002</v>
       </c>
       <c r="D7">
-        <v>0.179576944444444</v>
+        <v>0.17959428</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>51</v>
       </c>
       <c r="F7" s="1">
         <f>(C7-'Calibration Data'!$L$29)/'Calibration Data'!$L$30</f>
-        <v>0.56743516426601981</v>
+        <v>0.56759305293296158</v>
       </c>
       <c r="G7" s="17">
         <f>'Calibration Data'!$L$19/ABS('Calibration Data'!$L$30)*SQRT(1/'Calibration Data'!$L$20+1+(F7-AVERAGE('Calibration Data'!$L$3:$L$9))^2/('Calibration Data'!$L$30^2*SUM('Calibration Data'!$J$3:$J$8)))</f>
-        <v>0.12664329652116071</v>
+        <v>0.12664329494945353</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5441,21 +6157,21 @@
         <v>114</v>
       </c>
       <c r="C8">
-        <v>18.9511111111111</v>
+        <v>18.860333333333301</v>
       </c>
       <c r="D8">
-        <v>0.35501748148148099</v>
+        <v>0.35419706000000001</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>51</v>
       </c>
       <c r="F8" s="1">
         <f>(C8-'Calibration Data'!$L$29)/'Calibration Data'!$L$30</f>
-        <v>2.2394103602390651</v>
+        <v>2.228660773498083</v>
       </c>
       <c r="G8" s="17">
         <f>'Calibration Data'!$L$19/ABS('Calibration Data'!$L$30)*SQRT(1/'Calibration Data'!$L$20+1+(F8-AVERAGE('Calibration Data'!$L$3:$L$9))^2/('Calibration Data'!$L$30^2*SUM('Calibration Data'!$J$3:$J$8)))</f>
-        <v>0.12662676195979705</v>
+        <v>0.12662686756754299</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -5466,21 +6182,21 @@
         <v>114</v>
       </c>
       <c r="C9">
-        <v>18.981111111111101</v>
+        <v>18.986000000000001</v>
       </c>
       <c r="D9">
-        <v>0.355579481481481</v>
+        <v>0.35579764000000003</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>51</v>
       </c>
       <c r="F9" s="1">
         <f>(C9-'Calibration Data'!$L$29)/'Calibration Data'!$L$30</f>
-        <v>2.2429628552452643</v>
+        <v>2.2435417803573867</v>
       </c>
       <c r="G9" s="17">
         <f>'Calibration Data'!$L$19/ABS('Calibration Data'!$L$30)*SQRT(1/'Calibration Data'!$L$20+1+(F9-AVERAGE('Calibration Data'!$L$3:$L$9))^2/('Calibration Data'!$L$30^2*SUM('Calibration Data'!$J$3:$J$8)))</f>
-        <v>0.12662672706081313</v>
+        <v>0.12662672137366474</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -5491,21 +6207,21 @@
         <v>114</v>
       </c>
       <c r="C10">
-        <v>19.5416666666667</v>
+        <v>19.245999999999999</v>
       </c>
       <c r="D10">
-        <v>0.36086944444444502</v>
+        <v>0.3579756</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>51</v>
       </c>
       <c r="F10" s="1">
         <f>(C10-'Calibration Data'!$L$29)/'Calibration Data'!$L$30</f>
-        <v>2.3093418823055409</v>
+        <v>2.2743300704111102</v>
       </c>
       <c r="G10" s="17">
         <f>'Calibration Data'!$L$19/ABS('Calibration Data'!$L$30)*SQRT(1/'Calibration Data'!$L$20+1+(F10-AVERAGE('Calibration Data'!$L$3:$L$9))^2/('Calibration Data'!$L$30^2*SUM('Calibration Data'!$J$3:$J$8)))</f>
-        <v>0.1266260751481677</v>
+        <v>0.12662641895849799</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -5516,21 +6232,21 @@
         <v>114</v>
       </c>
       <c r="C11">
-        <v>36.830555555555598</v>
+        <v>37.154333333333298</v>
       </c>
       <c r="D11">
-        <v>0.49475712962962998</v>
+        <v>0.497868066666667</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>51</v>
       </c>
       <c r="F11" s="1">
         <f>(C11-'Calibration Data'!$L$29)/'Calibration Data'!$L$30</f>
-        <v>4.356631596989045</v>
+        <v>4.39497222827816</v>
       </c>
       <c r="G11" s="17">
         <f>'Calibration Data'!$L$19/ABS('Calibration Data'!$L$30)*SQRT(1/'Calibration Data'!$L$20+1+(F11-AVERAGE('Calibration Data'!$L$3:$L$9))^2/('Calibration Data'!$L$30^2*SUM('Calibration Data'!$J$3:$J$8)))</f>
-        <v>0.12660613765246881</v>
+        <v>0.12660576739760557</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -5541,21 +6257,21 @@
         <v>114</v>
       </c>
       <c r="C12">
-        <v>36.723333333333301</v>
+        <v>37.133666666666699</v>
       </c>
       <c r="D12">
-        <v>0.49576500000000001</v>
+        <v>0.49833380666666699</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>51</v>
       </c>
       <c r="F12" s="1">
         <f>(C12-'Calibration Data'!$L$29)/'Calibration Data'!$L$30</f>
-        <v>4.3439347166891027</v>
+        <v>4.3925249539405637</v>
       </c>
       <c r="G12" s="17">
         <f>'Calibration Data'!$L$19/ABS('Calibration Data'!$L$30)*SQRT(1/'Calibration Data'!$L$20+1+(F12-AVERAGE('Calibration Data'!$L$3:$L$9))^2/('Calibration Data'!$L$30^2*SUM('Calibration Data'!$J$3:$J$8)))</f>
-        <v>0.1266062602913649</v>
+        <v>0.12660579102746167</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -5566,21 +6282,21 @@
         <v>114</v>
       </c>
       <c r="C13">
-        <v>36.364444444444501</v>
+        <v>36.253333333333302</v>
       </c>
       <c r="D13">
-        <v>0.49213214814814799</v>
+        <v>0.49159520000000001</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>51</v>
       </c>
       <c r="F13" s="1">
         <f>(C13-'Calibration Data'!$L$29)/'Calibration Data'!$L$30</f>
-        <v>4.3014363505038453</v>
+        <v>4.2882789615919874</v>
       </c>
       <c r="G13" s="17">
         <f>'Calibration Data'!$L$19/ABS('Calibration Data'!$L$30)*SQRT(1/'Calibration Data'!$L$20+1+(F13-AVERAGE('Calibration Data'!$L$3:$L$9))^2/('Calibration Data'!$L$30^2*SUM('Calibration Data'!$J$3:$J$8)))</f>
-        <v>0.12660667087385308</v>
+        <v>0.12660679801779359</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -5591,21 +6307,21 @@
         <v>114</v>
       </c>
       <c r="C14">
-        <v>92.767777777777795</v>
+        <v>92.3036666666667</v>
       </c>
       <c r="D14">
-        <v>0.78543385185185199</v>
+        <v>0.784581166666667</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>51</v>
       </c>
       <c r="F14" s="1">
         <f>(C14-'Calibration Data'!$L$29)/'Calibration Data'!$L$30</f>
-        <v>10.98052168382509</v>
+        <v>10.925563270340305</v>
       </c>
       <c r="G14" s="17">
         <f>'Calibration Data'!$L$19/ABS('Calibration Data'!$L$30)*SQRT(1/'Calibration Data'!$L$20+1+(F14-AVERAGE('Calibration Data'!$L$3:$L$9))^2/('Calibration Data'!$L$30^2*SUM('Calibration Data'!$J$3:$J$8)))</f>
-        <v>0.12654387655589103</v>
+        <v>0.12654437901282267</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -5616,21 +6332,21 @@
         <v>114</v>
       </c>
       <c r="C15">
-        <v>89.842222222222205</v>
+        <v>89.988</v>
       </c>
       <c r="D15">
-        <v>0.77264311111111095</v>
+        <v>0.77389680000000005</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>51</v>
       </c>
       <c r="F15" s="1">
         <f>(C15-'Calibration Data'!$L$29)/'Calibration Data'!$L$30</f>
-        <v>10.634087633776137</v>
+        <v>10.651350128028483</v>
       </c>
       <c r="G15" s="17">
         <f>'Calibration Data'!$L$19/ABS('Calibration Data'!$L$30)*SQRT(1/'Calibration Data'!$L$20+1+(F15-AVERAGE('Calibration Data'!$L$3:$L$9))^2/('Calibration Data'!$L$30^2*SUM('Calibration Data'!$J$3:$J$8)))</f>
-        <v>0.12654704777903705</v>
+        <v>0.12654688953747062</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -5641,21 +6357,21 @@
         <v>114</v>
       </c>
       <c r="C16">
-        <v>91.8333333333333</v>
+        <v>92.527333333333303</v>
       </c>
       <c r="D16">
-        <v>0.78364444444444403</v>
+        <v>0.784631786666667</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>51</v>
       </c>
       <c r="F16" s="1">
         <f>(C16-'Calibration Data'!$L$29)/'Calibration Data'!$L$30</f>
-        <v>10.869868043076446</v>
+        <v>10.952049094219847</v>
       </c>
       <c r="G16" s="17">
         <f>'Calibration Data'!$L$19/ABS('Calibration Data'!$L$30)*SQRT(1/'Calibration Data'!$L$20+1+(F16-AVERAGE('Calibration Data'!$L$3:$L$9))^2/('Calibration Data'!$L$30^2*SUM('Calibration Data'!$J$3:$J$8)))</f>
-        <v>0.12654488844728209</v>
+        <v>0.12654413683683696</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -5666,21 +6382,21 @@
         <v>114</v>
       </c>
       <c r="C17">
-        <v>175.05</v>
+        <v>176.261666666667</v>
       </c>
       <c r="D17">
-        <v>1.079475</v>
+        <v>1.08224663333333</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>51</v>
       </c>
       <c r="F17" s="1">
         <f>(C17-'Calibration Data'!$L$29)/'Calibration Data'!$L$30</f>
-        <v>20.72409446860479</v>
+        <v>20.867575794688527</v>
       </c>
       <c r="G17" s="17">
         <f>'Calibration Data'!$L$19/ABS('Calibration Data'!$L$30)*SQRT(1/'Calibration Data'!$L$20+1+(F17-AVERAGE('Calibration Data'!$L$3:$L$9))^2/('Calibration Data'!$L$30^2*SUM('Calibration Data'!$J$3:$J$8)))</f>
-        <v>0.12645853537671536</v>
+        <v>0.12645733426536981</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -5691,21 +6407,21 @@
         <v>114</v>
       </c>
       <c r="C18">
-        <v>175.99666666666701</v>
+        <v>175.535666666667</v>
       </c>
       <c r="D18">
-        <v>1.08531277777778</v>
+        <v>1.0848104199999999</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>51</v>
       </c>
       <c r="F18" s="1">
         <f>(C18-'Calibration Data'!$L$29)/'Calibration Data'!$L$30</f>
-        <v>20.83619542213377</v>
+        <v>20.781605415538515</v>
       </c>
       <c r="G18" s="17">
         <f>'Calibration Data'!$L$19/ABS('Calibration Data'!$L$30)*SQRT(1/'Calibration Data'!$L$20+1+(F18-AVERAGE('Calibration Data'!$L$3:$L$9))^2/('Calibration Data'!$L$30^2*SUM('Calibration Data'!$J$3:$J$8)))</f>
-        <v>0.12645759681888</v>
+        <v>0.12645805374697608</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -5716,21 +6432,21 @@
         <v>114</v>
       </c>
       <c r="C19">
-        <v>174.06888888888901</v>
+        <v>173.762</v>
       </c>
       <c r="D19">
-        <v>1.07922711111111</v>
+        <v>1.0773244</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>51</v>
       </c>
       <c r="F19" s="1">
         <f>(C19-'Calibration Data'!$L$29)/'Calibration Data'!$L$30</f>
-        <v>20.607914724513186</v>
+        <v>20.571574016338648</v>
       </c>
       <c r="G19" s="17">
         <f>'Calibration Data'!$L$19/ABS('Calibration Data'!$L$30)*SQRT(1/'Calibration Data'!$L$20+1+(F19-AVERAGE('Calibration Data'!$L$3:$L$9))^2/('Calibration Data'!$L$30^2*SUM('Calibration Data'!$J$3:$J$8)))</f>
-        <v>0.1264595091241153</v>
+        <v>0.12645981392703273</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -6019,11 +6735,11 @@
       </c>
       <c r="I2" s="1">
         <f>'Count-&gt;Actual Activity'!F2</f>
-        <v>0.18856815054936449</v>
+        <v>0.18818658627092116</v>
       </c>
       <c r="J2" s="1">
         <f>'Count-&gt;Actual Activity'!G2</f>
-        <v>0.12664707357059601</v>
+        <v>0.12664707738018557</v>
       </c>
       <c r="K2" s="1">
         <v>10</v>
@@ -6037,11 +6753,11 @@
       <c r="P2" s="1"/>
       <c r="Q2">
         <f>I2/K2</f>
-        <v>1.885681505493645E-2</v>
+        <v>1.8818658627092116E-2</v>
       </c>
       <c r="R2">
         <f>SQRT((L2/K2)^2+(J2/I2)^2)*Q2</f>
-        <v>1.2664763509748442E-2</v>
+        <v>1.2664763663688211E-2</v>
       </c>
       <c r="S2">
         <f>B2*Parameters!$B$6</f>
@@ -6053,7 +6769,7 @@
       </c>
       <c r="U2">
         <f t="shared" ref="U2:U19" si="0">(S2-Q2*G2)/E2</f>
-        <v>-4.3853058267294069E-2</v>
+        <v>-4.3764322388586317E-2</v>
       </c>
       <c r="W2" t="e">
         <f t="shared" ref="W2:W19" si="1">(S2-Q2*G2)/S2</f>
@@ -6087,11 +6803,11 @@
       </c>
       <c r="I3" s="1">
         <f>'Count-&gt;Actual Activity'!F3</f>
-        <v>0.15455630021223843</v>
+        <v>0.1520300815411641</v>
       </c>
       <c r="J3" s="1">
         <f>'Count-&gt;Actual Activity'!G3</f>
-        <v>0.12664741319418718</v>
+        <v>0.12664743842321835</v>
       </c>
       <c r="K3" s="1">
         <v>10</v>
@@ -6105,11 +6821,11 @@
       <c r="P3" s="1"/>
       <c r="Q3">
         <f t="shared" ref="Q3:Q19" si="2">I3/K3</f>
-        <v>1.5455630021223844E-2</v>
+        <v>1.5203008154116409E-2</v>
       </c>
       <c r="R3">
         <f t="shared" ref="R3:R19" si="3">SQRT((L3/K3)^2+(J3/I3)^2)*Q3</f>
-        <v>1.2664779042438489E-2</v>
+        <v>1.2664780342250574E-2</v>
       </c>
       <c r="S3">
         <f>B3*Parameters!$B$6</f>
@@ -6121,7 +6837,7 @@
       </c>
       <c r="U3">
         <f t="shared" si="0"/>
-        <v>-3.6799119098152006E-2</v>
+        <v>-3.6197638462181922E-2</v>
       </c>
       <c r="W3" t="e">
         <f t="shared" si="1"/>
@@ -6155,11 +6871,11 @@
       </c>
       <c r="I4" s="1">
         <f>'Count-&gt;Actual Activity'!F4</f>
-        <v>0.16534535911995343</v>
+        <v>0.16754264306823252</v>
       </c>
       <c r="J4" s="1">
         <f>'Count-&gt;Actual Activity'!G4</f>
-        <v>0.12664730545080891</v>
+        <v>0.12664728350906426</v>
       </c>
       <c r="K4" s="1">
         <v>10</v>
@@ -6173,11 +6889,11 @@
       <c r="P4" s="1"/>
       <c r="Q4">
         <f t="shared" si="2"/>
-        <v>1.6534535911995343E-2</v>
+        <v>1.6754264306823252E-2</v>
       </c>
       <c r="R4">
         <f t="shared" si="3"/>
-        <v>1.2664773718587166E-2</v>
+        <v>1.2664772679513157E-2</v>
       </c>
       <c r="S4">
         <f>B4*Parameters!$B$6</f>
@@ -6189,7 +6905,7 @@
       </c>
       <c r="U4">
         <f t="shared" si="0"/>
-        <v>-4.3511936610514057E-2</v>
+        <v>-4.4090169228482246E-2</v>
       </c>
       <c r="W4" t="e">
         <f t="shared" si="1"/>
@@ -6223,11 +6939,11 @@
       </c>
       <c r="I5" s="1">
         <f>'Count-&gt;Actual Activity'!F5</f>
-        <v>0.52684461947296934</v>
+        <v>0.53329174003977431</v>
       </c>
       <c r="J5" s="1">
         <f>'Count-&gt;Actual Activity'!G5</f>
-        <v>0.12664370064546238</v>
+        <v>0.12664363644856619</v>
       </c>
       <c r="K5" s="1">
         <v>10</v>
@@ -6241,11 +6957,11 @@
       <c r="P5" s="1"/>
       <c r="Q5">
         <f t="shared" si="2"/>
-        <v>5.2684461947296937E-2</v>
+        <v>5.332917400397743E-2</v>
       </c>
       <c r="R5">
         <f t="shared" si="3"/>
-        <v>1.2664808397362259E-2</v>
+        <v>1.2664812771311141E-2</v>
       </c>
       <c r="S5">
         <f>B5*Parameters!$B$6</f>
@@ -6257,11 +6973,11 @@
       </c>
       <c r="U5">
         <f t="shared" si="0"/>
-        <v>-1.5944426647815851E-2</v>
+        <v>-1.7735293471928322E-2</v>
       </c>
       <c r="W5">
         <f t="shared" si="1"/>
-        <v>-0.12227199059789631</v>
+        <v>-0.13600549486974547</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
@@ -6291,11 +7007,11 @@
       </c>
       <c r="I6" s="1">
         <f>'Count-&gt;Actual Activity'!F6</f>
-        <v>0.54822537645472125</v>
+        <v>0.54679122106333</v>
       </c>
       <c r="J6" s="1">
         <f>'Count-&gt;Actual Activity'!G6</f>
-        <v>0.12664348776005996</v>
+        <v>0.12664350203864069</v>
       </c>
       <c r="K6" s="1">
         <v>10</v>
@@ -6309,11 +7025,11 @@
       <c r="P6" s="1"/>
       <c r="Q6">
         <f t="shared" si="2"/>
-        <v>5.4822537645472125E-2</v>
+        <v>5.4679122106333002E-2</v>
       </c>
       <c r="R6">
         <f t="shared" si="3"/>
-        <v>1.2664823408277752E-2</v>
+        <v>1.266482235610469E-2</v>
       </c>
       <c r="S6">
         <f>B6*Parameters!$B$6</f>
@@ -6325,11 +7041,11 @@
       </c>
       <c r="U6">
         <f t="shared" si="0"/>
-        <v>-1.875730783664022E-2</v>
+        <v>-1.8415842267261361E-2</v>
       </c>
       <c r="W6">
         <f t="shared" si="1"/>
-        <v>-0.16781677517290824</v>
+        <v>-0.16476177116141547</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
@@ -6359,11 +7075,11 @@
       </c>
       <c r="I7" s="1">
         <f>'Count-&gt;Actual Activity'!F7</f>
-        <v>0.56743516426601981</v>
+        <v>0.56759305293296158</v>
       </c>
       <c r="J7" s="1">
         <f>'Count-&gt;Actual Activity'!G7</f>
-        <v>0.12664329652116071</v>
+        <v>0.12664329494945353</v>
       </c>
       <c r="K7" s="1">
         <v>10</v>
@@ -6377,11 +7093,11 @@
       <c r="P7" s="1"/>
       <c r="Q7">
         <f t="shared" si="2"/>
-        <v>5.6743516426601984E-2</v>
+        <v>5.6759305293296161E-2</v>
       </c>
       <c r="R7">
         <f t="shared" si="3"/>
-        <v>1.2664838129407425E-2</v>
+        <v>1.2664838255244018E-2</v>
       </c>
       <c r="S7">
         <f>B7*Parameters!$B$6</f>
@@ -6393,11 +7109,11 @@
       </c>
       <c r="U7">
         <f t="shared" si="0"/>
-        <v>-2.799728020719644E-2</v>
+        <v>-2.8042391254894078E-2</v>
       </c>
       <c r="W7">
         <f t="shared" si="1"/>
-        <v>-0.20873701239107617</v>
+        <v>-0.20907334310793688</v>
       </c>
     </row>
     <row r="8" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6427,11 +7143,11 @@
       </c>
       <c r="I8" s="1">
         <f>'Count-&gt;Actual Activity'!F8</f>
-        <v>2.2394103602390651</v>
+        <v>2.228660773498083</v>
       </c>
       <c r="J8" s="1">
         <f>'Count-&gt;Actual Activity'!G8</f>
-        <v>0.12662676195979705</v>
+        <v>0.12662686756754299</v>
       </c>
       <c r="K8" s="1">
         <v>10</v>
@@ -6445,11 +7161,11 @@
       <c r="P8" s="1"/>
       <c r="Q8">
         <f t="shared" si="2"/>
-        <v>0.22394103602390653</v>
+        <v>0.22286607734980829</v>
       </c>
       <c r="R8">
         <f t="shared" si="3"/>
-        <v>1.2670594571475048E-2</v>
+        <v>1.2670529312282651E-2</v>
       </c>
       <c r="S8">
         <f>B8*Parameters!$B$6</f>
@@ -6461,11 +7177,11 @@
       </c>
       <c r="U8">
         <f t="shared" si="0"/>
-        <v>3.0886210374079088E-2</v>
+        <v>3.3872206691018647E-2</v>
       </c>
       <c r="W8">
         <f t="shared" si="1"/>
-        <v>4.7302953885288469E-2</v>
+        <v>5.1876077113134272E-2</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
@@ -6495,11 +7211,11 @@
       </c>
       <c r="I9" s="1">
         <f>'Count-&gt;Actual Activity'!F9</f>
-        <v>2.2429628552452643</v>
+        <v>2.2435417803573867</v>
       </c>
       <c r="J9" s="1">
         <f>'Count-&gt;Actual Activity'!G9</f>
-        <v>0.12662672706081313</v>
+        <v>0.12662672137366474</v>
       </c>
       <c r="K9" s="1">
         <v>10</v>
@@ -6513,11 +7229,11 @@
       <c r="P9" s="1"/>
       <c r="Q9">
         <f t="shared" si="2"/>
-        <v>0.22429628552452643</v>
+        <v>0.22435417803573868</v>
       </c>
       <c r="R9">
         <f t="shared" si="3"/>
-        <v>1.2670616218485076E-2</v>
+        <v>1.2670619749927215E-2</v>
       </c>
       <c r="S9">
         <f>B9*Parameters!$B$6</f>
@@ -6529,11 +7245,11 @@
       </c>
       <c r="U9">
         <f t="shared" si="0"/>
-        <v>3.0753674954424475E-2</v>
+        <v>3.0588267779532431E-2</v>
       </c>
       <c r="W9">
         <f t="shared" si="1"/>
-        <v>4.5791640211459705E-2</v>
+        <v>4.5545352057205772E-2</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
@@ -6563,11 +7279,11 @@
       </c>
       <c r="I10" s="1">
         <f>'Count-&gt;Actual Activity'!F10</f>
-        <v>2.3093418823055409</v>
+        <v>2.2743300704111102</v>
       </c>
       <c r="J10" s="1">
         <f>'Count-&gt;Actual Activity'!G10</f>
-        <v>0.1266260751481677</v>
+        <v>0.12662641895849799</v>
       </c>
       <c r="K10" s="1">
         <v>10</v>
@@ -6581,11 +7297,11 @@
       <c r="P10" s="1"/>
       <c r="Q10">
         <f t="shared" si="2"/>
-        <v>0.23093418823055409</v>
+        <v>0.22743300704111102</v>
       </c>
       <c r="R10">
         <f t="shared" si="3"/>
-        <v>1.2671028035304356E-2</v>
+        <v>1.2670809085188589E-2</v>
       </c>
       <c r="S10">
         <f>B10*Parameters!$B$6</f>
@@ -6597,11 +7313,11 @@
       </c>
       <c r="U10">
         <f t="shared" si="0"/>
-        <v>1.1151036562218724E-2</v>
+        <v>2.0613688425578324E-2</v>
       </c>
       <c r="W10">
         <f t="shared" si="1"/>
-        <v>1.755246434306602E-2</v>
+        <v>3.2447300217357075E-2</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
@@ -6631,11 +7347,11 @@
       </c>
       <c r="I11" s="1">
         <f>'Count-&gt;Actual Activity'!F11</f>
-        <v>4.356631596989045</v>
+        <v>4.39497222827816</v>
       </c>
       <c r="J11" s="1">
         <f>'Count-&gt;Actual Activity'!G11</f>
-        <v>0.12660613765246881</v>
+        <v>0.12660576739760557</v>
       </c>
       <c r="K11" s="1">
         <v>10</v>
@@ -6649,11 +7365,11 @@
       <c r="P11" s="1"/>
       <c r="Q11">
         <f t="shared" si="2"/>
-        <v>0.43566315969890451</v>
+        <v>0.439497222827816</v>
       </c>
       <c r="R11">
         <f t="shared" si="3"/>
-        <v>1.2690561471725124E-2</v>
+        <v>1.2691053329761857E-2</v>
       </c>
       <c r="S11">
         <f>B11*Parameters!$B$6</f>
@@ -6665,11 +7381,11 @@
       </c>
       <c r="U11">
         <f t="shared" si="0"/>
-        <v>8.0432199623637637E-2</v>
+        <v>7.130347788813414E-2</v>
       </c>
       <c r="W11">
         <f t="shared" si="1"/>
-        <v>7.1960605852701046E-2</v>
+        <v>6.3793374944912981E-2</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
@@ -6699,11 +7415,11 @@
       </c>
       <c r="I12" s="1">
         <f>'Count-&gt;Actual Activity'!F12</f>
-        <v>4.3439347166891027</v>
+        <v>4.3925249539405637</v>
       </c>
       <c r="J12" s="1">
         <f>'Count-&gt;Actual Activity'!G12</f>
-        <v>0.1266062602913649</v>
+        <v>0.12660579102746167</v>
       </c>
       <c r="K12" s="1">
         <v>10</v>
@@ -6717,11 +7433,11 @@
       <c r="P12" s="1"/>
       <c r="Q12">
         <f t="shared" si="2"/>
-        <v>0.43439347166891029</v>
+        <v>0.43925249539405636</v>
       </c>
       <c r="R12">
         <f t="shared" si="3"/>
-        <v>1.2690399607678347E-2</v>
+        <v>1.2691021796361888E-2</v>
       </c>
       <c r="S12">
         <f>B12*Parameters!$B$6</f>
@@ -6733,11 +7449,11 @@
       </c>
       <c r="U12">
         <f t="shared" si="0"/>
-        <v>7.3023358066504215E-2</v>
+        <v>6.2900391972450009E-2</v>
       </c>
       <c r="W12">
         <f t="shared" si="1"/>
-        <v>7.4665265367465303E-2</v>
+        <v>6.4314687556047023E-2</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
@@ -6767,11 +7483,11 @@
       </c>
       <c r="I13" s="1">
         <f>'Count-&gt;Actual Activity'!F13</f>
-        <v>4.3014363505038453</v>
+        <v>4.2882789615919874</v>
       </c>
       <c r="J13" s="1">
         <f>'Count-&gt;Actual Activity'!G13</f>
-        <v>0.12660667087385308</v>
+        <v>0.12660679801779359</v>
       </c>
       <c r="K13" s="1">
         <v>10</v>
@@ -6785,11 +7501,11 @@
       <c r="P13" s="1"/>
       <c r="Q13">
         <f t="shared" si="2"/>
-        <v>0.43014363505038455</v>
+        <v>0.42882789615919875</v>
       </c>
       <c r="R13">
         <f t="shared" si="3"/>
-        <v>1.2689861515583966E-2</v>
+        <v>1.2689696076001235E-2</v>
       </c>
       <c r="S13">
         <f>B13*Parameters!$B$6</f>
@@ -6801,11 +7517,11 @@
       </c>
       <c r="U13">
         <f t="shared" si="0"/>
-        <v>0.11228870997270804</v>
+        <v>0.11604796394752454</v>
       </c>
       <c r="W13">
         <f t="shared" si="1"/>
-        <v>8.3718167162988869E-2</v>
+        <v>8.6520923136837985E-2</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
@@ -6835,11 +7551,11 @@
       </c>
       <c r="I14" s="1">
         <f>'Count-&gt;Actual Activity'!F14</f>
-        <v>10.98052168382509</v>
+        <v>10.925563270340305</v>
       </c>
       <c r="J14" s="1">
         <f>'Count-&gt;Actual Activity'!G14</f>
-        <v>0.12654387655589103</v>
+        <v>0.12654437901282267</v>
       </c>
       <c r="K14" s="1">
         <v>10</v>
@@ -6853,11 +7569,11 @@
       <c r="P14" s="1"/>
       <c r="Q14">
         <f t="shared" si="2"/>
-        <v>1.0980521683825091</v>
+        <v>1.0925563270340306</v>
       </c>
       <c r="R14">
         <f t="shared" si="3"/>
-        <v>1.2843535385394629E-2</v>
+        <v>1.2841710007174961E-2</v>
       </c>
       <c r="S14">
         <f>B14*Parameters!$B$6</f>
@@ -6869,11 +7585,11 @@
       </c>
       <c r="U14">
         <f t="shared" si="0"/>
-        <v>0.22720056003048814</v>
+        <v>0.24336479929071894</v>
       </c>
       <c r="W14">
         <f t="shared" si="1"/>
-        <v>6.5726339511804344E-2</v>
+        <v>7.0402455967791072E-2</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
@@ -6903,11 +7619,11 @@
       </c>
       <c r="I15" s="1">
         <f>'Count-&gt;Actual Activity'!F15</f>
-        <v>10.634087633776137</v>
+        <v>10.651350128028483</v>
       </c>
       <c r="J15" s="1">
         <f>'Count-&gt;Actual Activity'!G15</f>
-        <v>0.12654704777903705</v>
+        <v>0.12654688953747062</v>
       </c>
       <c r="K15" s="1">
         <v>10</v>
@@ -6921,11 +7637,11 @@
       <c r="P15" s="1"/>
       <c r="Q15">
         <f t="shared" si="2"/>
-        <v>1.0634087633776137</v>
+        <v>1.0651350128028483</v>
       </c>
       <c r="R15">
         <f t="shared" si="3"/>
-        <v>1.2832182425761103E-2</v>
+        <v>1.2832739493112217E-2</v>
       </c>
       <c r="S15">
         <f>B15*Parameters!$B$6</f>
@@ -6937,11 +7653,11 @@
       </c>
       <c r="U15">
         <f t="shared" si="0"/>
-        <v>0.26640856051252709</v>
+        <v>0.26229844283339721</v>
       </c>
       <c r="W15">
         <f t="shared" si="1"/>
-        <v>9.5202553609515406E-2</v>
+        <v>9.3733780616875845E-2</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
@@ -6971,11 +7687,11 @@
       </c>
       <c r="I16" s="1">
         <f>'Count-&gt;Actual Activity'!F16</f>
-        <v>10.869868043076446</v>
+        <v>10.952049094219847</v>
       </c>
       <c r="J16" s="1">
         <f>'Count-&gt;Actual Activity'!G16</f>
-        <v>0.12654488844728209</v>
+        <v>0.12654413683683696</v>
       </c>
       <c r="K16" s="1">
         <v>10</v>
@@ -6989,11 +7705,11 @@
       <c r="P16" s="1"/>
       <c r="Q16">
         <f t="shared" si="2"/>
-        <v>1.0869868043076445</v>
+        <v>1.0952049094219847</v>
       </c>
       <c r="R16">
         <f t="shared" si="3"/>
-        <v>1.2839869515392533E-2</v>
+        <v>1.2842588557307643E-2</v>
       </c>
       <c r="S16">
         <f>B16*Parameters!$B$6</f>
@@ -7005,11 +7721,11 @@
       </c>
       <c r="U16">
         <f t="shared" si="0"/>
-        <v>0.26761683177342593</v>
+        <v>0.2427134829420923</v>
       </c>
       <c r="W16">
         <f t="shared" si="1"/>
-        <v>7.5141263953952542E-2</v>
+        <v>6.8148919356371782E-2</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
@@ -7039,11 +7755,11 @@
       </c>
       <c r="I17" s="1">
         <f>'Count-&gt;Actual Activity'!F17</f>
-        <v>20.72409446860479</v>
+        <v>20.867575794688527</v>
       </c>
       <c r="J17" s="1">
         <f>'Count-&gt;Actual Activity'!G17</f>
-        <v>0.12645853537671536</v>
+        <v>0.12645733426536981</v>
       </c>
       <c r="K17" s="1">
         <v>10</v>
@@ -7053,11 +7769,11 @@
       </c>
       <c r="Q17">
         <f t="shared" si="2"/>
-        <v>2.0724094468604788</v>
+        <v>2.0867575794688529</v>
       </c>
       <c r="R17">
         <f t="shared" si="3"/>
-        <v>1.3307784765241205E-2</v>
+        <v>1.3316636312407032E-2</v>
       </c>
       <c r="S17">
         <f>B17*Parameters!$B$6</f>
@@ -7069,11 +7785,11 @@
       </c>
       <c r="U17">
         <f t="shared" si="0"/>
-        <v>0.71331095057761928</v>
+        <v>0.67652086696640346</v>
       </c>
       <c r="W17">
         <f t="shared" si="1"/>
-        <v>0.11834901123105059</v>
+        <v>0.11224498322619623</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
@@ -7103,11 +7819,11 @@
       </c>
       <c r="I18" s="1">
         <f>'Count-&gt;Actual Activity'!F18</f>
-        <v>20.83619542213377</v>
+        <v>20.781605415538515</v>
       </c>
       <c r="J18" s="1">
         <f>'Count-&gt;Actual Activity'!G18</f>
-        <v>0.12645759681888</v>
+        <v>0.12645805374697608</v>
       </c>
       <c r="K18" s="1">
         <v>10</v>
@@ -7117,11 +7833,11 @@
       </c>
       <c r="Q18">
         <f t="shared" si="2"/>
-        <v>2.083619542213377</v>
+        <v>2.0781605415538515</v>
       </c>
       <c r="R18">
         <f t="shared" si="3"/>
-        <v>1.33146956224631E-2</v>
+        <v>1.3311325949003597E-2</v>
       </c>
       <c r="S18">
         <f>B18*Parameters!$B$6</f>
@@ -7133,11 +7849,11 @@
       </c>
       <c r="U18">
         <f t="shared" si="0"/>
-        <v>0.54485954157627192</v>
+        <v>0.55600035924877267</v>
       </c>
       <c r="W18">
         <f t="shared" si="1"/>
-        <v>0.11357997697141166</v>
+        <v>0.11590236231686164</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
@@ -7167,11 +7883,11 @@
       </c>
       <c r="I19" s="1">
         <f>'Count-&gt;Actual Activity'!F19</f>
-        <v>20.607914724513186</v>
+        <v>20.571574016338648</v>
       </c>
       <c r="J19" s="1">
         <f>'Count-&gt;Actual Activity'!G19</f>
-        <v>0.1264595091241153</v>
+        <v>0.12645981392703273</v>
       </c>
       <c r="K19" s="1">
         <v>10</v>
@@ -7181,11 +7897,11 @@
       </c>
       <c r="Q19">
         <f t="shared" si="2"/>
-        <v>2.0607914724513186</v>
+        <v>2.057157401633865</v>
       </c>
       <c r="R19">
         <f t="shared" si="3"/>
-        <v>1.3300658647256318E-2</v>
+        <v>1.3298437189571766E-2</v>
       </c>
       <c r="S19">
         <f>B19*Parameters!$B$6</f>
@@ -7197,11 +7913,11 @@
       </c>
       <c r="U19">
         <f t="shared" si="0"/>
-        <v>0.87820983374070216</v>
+        <v>0.88922216955116729</v>
       </c>
       <c r="W19">
         <f t="shared" si="1"/>
-        <v>0.12329156669027497</v>
+        <v>0.1248375846040217</v>
       </c>
     </row>
   </sheetData>
@@ -7213,8 +7929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7257,19 +7973,19 @@
       </c>
       <c r="B2">
         <f>AVERAGE('Bottle Results'!Q2:Q4)</f>
-        <v>1.6948993662718546E-2</v>
+        <v>1.6925310362677259E-2</v>
       </c>
       <c r="C2">
         <f>_xlfn.STDEV.S('Bottle Results'!Q2:Q4)</f>
-        <v>1.738058206372433E-3</v>
+        <v>1.8138838580790591E-3</v>
       </c>
       <c r="D2">
         <f>AVERAGE('Bottle Results'!U2:U4)</f>
-        <v>-4.1388037991986711E-2</v>
+        <v>-4.1350710026416826E-2</v>
       </c>
       <c r="E2">
         <f>_xlfn.STDEV.S('Bottle Results'!U2:U4)</f>
-        <v>3.9777787088808667E-3</v>
+        <v>4.4656638868551595E-3</v>
       </c>
       <c r="F2">
         <f>AVERAGE('Bottle Results'!S2:S4)</f>
@@ -7294,19 +8010,19 @@
       </c>
       <c r="B3">
         <f>AVERAGE('Bottle Results'!Q5:Q7)</f>
-        <v>5.4750172006457015E-2</v>
+        <v>5.492253380120219E-2</v>
       </c>
       <c r="C3">
         <f>_xlfn.STDEV.S('Bottle Results'!Q5:Q7)</f>
-        <v>2.0304946209665615E-3</v>
+        <v>1.7279719631377608E-3</v>
       </c>
       <c r="D3">
         <f>AVERAGE('Bottle Results'!U5:U7)</f>
-        <v>-2.089967156388417E-2</v>
+        <v>-2.1397842331361255E-2</v>
       </c>
       <c r="E3">
         <f>_xlfn.STDEV.S('Bottle Results'!U5:U7)</f>
-        <v>6.3055619484568013E-3</v>
+        <v>5.7644001824667919E-3</v>
       </c>
       <c r="F3">
         <f>AVERAGE('Bottle Results'!S5:S7)</f>
@@ -7314,11 +8030,11 @@
       </c>
       <c r="G3">
         <f>AVERAGE('Bottle Results'!W5:W7)</f>
-        <v>-0.16627525938729357</v>
+        <v>-0.16994686971303261</v>
       </c>
       <c r="H3">
         <f>_xlfn.STDEV.S('Bottle Results'!W5:W7)</f>
-        <v>4.3253117825328348E-2</v>
+        <v>3.6808851473284679E-2</v>
       </c>
       <c r="I3">
         <f>AVERAGE('Bottle Results'!D5:D7)</f>
@@ -7335,19 +8051,19 @@
       </c>
       <c r="B4">
         <f>AVERAGE('Bottle Results'!Q8:Q10)</f>
-        <v>0.22639050325966237</v>
+        <v>0.22488442080888602</v>
       </c>
       <c r="C4">
         <f>_xlfn.STDEV.S('Bottle Results'!Q8:Q10)</f>
-        <v>3.9389535904797443E-3</v>
+        <v>2.3291800596308226E-3</v>
       </c>
       <c r="D4">
         <f>AVERAGE('Bottle Results'!U8:U10)</f>
-        <v>2.4263640630240762E-2</v>
+        <v>2.8358054298709801E-2</v>
       </c>
       <c r="E4">
         <f>_xlfn.STDEV.S('Bottle Results'!U8:U10)</f>
-        <v>1.1356041585556878E-2</v>
+        <v>6.9048870936667837E-3</v>
       </c>
       <c r="F4">
         <f>AVERAGE('Bottle Results'!S8:S10)</f>
@@ -7355,11 +8071,11 @@
       </c>
       <c r="G4">
         <f>AVERAGE('Bottle Results'!W8:W10)</f>
-        <v>3.6882352813271395E-2</v>
+        <v>4.3289576462565704E-2</v>
       </c>
       <c r="H4">
         <f>_xlfn.STDEV.S('Bottle Results'!W8:W10)</f>
-        <v>1.6757221084001666E-2</v>
+        <v>9.9088715586842461E-3</v>
       </c>
       <c r="I4">
         <f>AVERAGE('Bottle Results'!D8:D10)</f>
@@ -7376,19 +8092,19 @@
       </c>
       <c r="B5">
         <f>AVERAGE('Bottle Results'!Q11:Q13)</f>
-        <v>0.43340008880606645</v>
+        <v>0.43585920479369039</v>
       </c>
       <c r="C5">
         <f>_xlfn.STDEV.S('Bottle Results'!Q11:Q13)</f>
-        <v>2.8907430222260689E-3</v>
+        <v>6.0905212186081392E-3</v>
       </c>
       <c r="D5">
         <f>AVERAGE('Bottle Results'!U11:U13)</f>
-        <v>8.8581422554283293E-2</v>
+        <v>8.3417277936036219E-2</v>
       </c>
       <c r="E5">
         <f>_xlfn.STDEV.S('Bottle Results'!U11:U13)</f>
-        <v>2.0862630247874554E-2</v>
+        <v>2.8569637999314012E-2</v>
       </c>
       <c r="F5">
         <f>AVERAGE('Bottle Results'!S11:S13)</f>
@@ -7396,19 +8112,19 @@
       </c>
       <c r="G5">
         <f>AVERAGE('Bottle Results'!W11:W13)</f>
-        <v>7.6781346127718406E-2</v>
+        <v>7.1542995212599339E-2</v>
       </c>
       <c r="H5">
         <f>_xlfn.STDEV.S('Bottle Results'!W11:W13)</f>
-        <v>6.1577926507174058E-3</v>
+        <v>1.2973884745418272E-2</v>
       </c>
       <c r="I5">
         <f>AVERAGE('Bottle Results'!D11:D13)</f>
         <v>4.9933333333333332</v>
       </c>
       <c r="J5">
-        <f>_xlfn.STDEV.S('Bottle Results'!D3:D11)</f>
-        <v>3.4278273002005234E-2</v>
+        <f>_xlfn.STDEV.S('Bottle Results'!D11:D13)</f>
+        <v>2.0816659994661382E-2</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -7417,19 +8133,19 @@
       </c>
       <c r="B6">
         <f>AVERAGE('Bottle Results'!Q14:Q16)</f>
-        <v>1.0828159120225891</v>
+        <v>1.0842987497529546</v>
       </c>
       <c r="C6">
         <f>_xlfn.STDEV.S('Bottle Results'!Q14:Q16)</f>
-        <v>1.7694310792552886E-2</v>
+        <v>1.6649034734365097E-2</v>
       </c>
       <c r="D6">
         <f>AVERAGE('Bottle Results'!U14:U16)</f>
-        <v>0.25374198410548038</v>
+        <v>0.24945890835540283</v>
       </c>
       <c r="E6">
         <f>_xlfn.STDEV.S('Bottle Results'!U14:U16)</f>
-        <v>2.2993485464505206E-2</v>
+        <v>1.1124130862912486E-2</v>
       </c>
       <c r="F6">
         <f>AVERAGE('Bottle Results'!S14:S16)</f>
@@ -7437,11 +8153,11 @@
       </c>
       <c r="G6">
         <f>AVERAGE('Bottle Results'!W14:W16)</f>
-        <v>7.8690052358424092E-2</v>
+        <v>7.7428385313679571E-2</v>
       </c>
       <c r="H6">
         <f>_xlfn.STDEV.S('Bottle Results'!W14:W16)</f>
-        <v>1.5055139445993543E-2</v>
+        <v>1.4165770145314125E-2</v>
       </c>
       <c r="I6">
         <f>AVERAGE('Bottle Results'!D14:D16)</f>
@@ -7458,19 +8174,19 @@
       </c>
       <c r="B7">
         <f>AVERAGE('Bottle Results'!Q17:Q19)</f>
-        <v>2.0722734871750581</v>
+        <v>2.0740251742188565</v>
       </c>
       <c r="C7">
         <f>_xlfn.STDEV.S('Bottle Results'!Q17:Q19)</f>
-        <v>1.1414642177589111E-2</v>
+        <v>1.5227231501892778E-2</v>
       </c>
       <c r="D7">
         <f>AVERAGE('Bottle Results'!U17:U19)</f>
-        <v>0.71212677529819779</v>
+        <v>0.70724779858878117</v>
       </c>
       <c r="E7">
         <f>_xlfn.STDEV.S('Bottle Results'!U17:U19)</f>
-        <v>0.16667830100180092</v>
+        <v>0.16872255913331757</v>
       </c>
       <c r="F7">
         <f>AVERAGE('Bottle Results'!S17:S19)</f>
@@ -7478,11 +8194,11 @@
       </c>
       <c r="G7">
         <f>AVERAGE('Bottle Results'!W17:W19)</f>
-        <v>0.1184068516309124</v>
+        <v>0.11766164338235985</v>
       </c>
       <c r="H7">
         <f>_xlfn.STDEV.S('Bottle Results'!W17:W19)</f>
-        <v>4.8560532174570549E-3</v>
+        <v>6.4780170396324457E-3</v>
       </c>
       <c r="I7">
         <f>AVERAGE('Bottle Results'!D17:D19)</f>

--- a/Sorption Experiments/RaPYR_pH5/RaPYR_pH5_NoScript.xlsx
+++ b/Sorption Experiments/RaPYR_pH5/RaPYR_pH5_NoScript.xlsx
@@ -738,7 +738,7 @@
             <c:numRef>
               <c:f>'[1]Calibration Data'!$I$3:$I$8</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.31819999999999998</c:v>
@@ -838,11 +838,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="501773088"/>
-        <c:axId val="501774656"/>
+        <c:axId val="144869672"/>
+        <c:axId val="144868888"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="501773088"/>
+        <c:axId val="144869672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -870,12 +870,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="501774656"/>
+        <c:crossAx val="144868888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="501774656"/>
+        <c:axId val="144868888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -899,11 +899,11 @@
           </c:tx>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="501773088"/>
+        <c:crossAx val="144869672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1401,10 +1401,10 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>675.45997631774435</v>
-      </c>
-      <c r="C6">
-        <v>0.13742948708443162</v>
+        <v>1407</v>
+      </c>
+      <c r="C6" s="17">
+        <v>62</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -6965,19 +6965,19 @@
       </c>
       <c r="S5">
         <f>B5*Parameters!$B$6</f>
-        <v>4.6944468354083231</v>
+        <v>9.778649999999999</v>
       </c>
       <c r="T5">
         <f>SQRT((C5/B5)^2+(Parameters!$C$6/Parameters!$B$6)^2)*'Bottle Results'!S5</f>
-        <v>6.8217960029032382E-3</v>
+        <v>0.43112964975747142</v>
       </c>
       <c r="U5">
         <f t="shared" si="0"/>
-        <v>-1.7735293471928322E-2</v>
+        <v>0.12349257221117378</v>
       </c>
       <c r="W5">
         <f t="shared" si="1"/>
-        <v>-0.13600549486974547</v>
+        <v>0.45463664203159504</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
@@ -7033,19 +7033,19 @@
       </c>
       <c r="S6">
         <f>B6*Parameters!$B$6</f>
-        <v>4.6944468354083231</v>
+        <v>9.778649999999999</v>
       </c>
       <c r="T6">
         <f>SQRT((C6/B6)^2+(Parameters!$C$6/Parameters!$B$6)^2)*'Bottle Results'!S6</f>
-        <v>6.8217960029032382E-3</v>
+        <v>0.43112964975747142</v>
       </c>
       <c r="U6">
         <f t="shared" si="0"/>
-        <v>-1.8415842267261361E-2</v>
+        <v>0.10263661403254044</v>
       </c>
       <c r="W6">
         <f t="shared" si="1"/>
-        <v>-0.16476177116141547</v>
+        <v>0.4408315860948801</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
@@ -7101,19 +7101,19 @@
       </c>
       <c r="S7">
         <f>B7*Parameters!$B$6</f>
-        <v>4.6944468354083231</v>
+        <v>9.778649999999999</v>
       </c>
       <c r="T7">
         <f>SQRT((C7/B7)^2+(Parameters!$C$6/Parameters!$B$6)^2)*'Bottle Results'!S7</f>
-        <v>6.8217960029032382E-3</v>
+        <v>0.43112964975747142</v>
       </c>
       <c r="U7">
         <f t="shared" si="0"/>
-        <v>-2.8042391254894078E-2</v>
+        <v>0.11722055630486809</v>
       </c>
       <c r="W7">
         <f t="shared" si="1"/>
-        <v>-0.20907334310793688</v>
+        <v>0.41955888294093596</v>
       </c>
     </row>
     <row r="8" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7169,19 +7169,19 @@
       </c>
       <c r="S8">
         <f>B8*Parameters!$B$6</f>
-        <v>23.506007175857501</v>
+        <v>48.9636</v>
       </c>
       <c r="T8">
         <f>SQRT((C8/B8)^2+(Parameters!$C$6/Parameters!$B$6)^2)*'Bottle Results'!S8</f>
-        <v>6.7715098344118985E-2</v>
+        <v>2.1621827512955516</v>
       </c>
       <c r="U8">
         <f t="shared" si="0"/>
-        <v>3.3872206691018647E-2</v>
+        <v>0.74102756291719918</v>
       </c>
       <c r="W8">
         <f t="shared" si="1"/>
-        <v>5.1876077113134272E-2</v>
+        <v>0.54483314676656069</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.25">
@@ -7237,19 +7237,19 @@
       </c>
       <c r="S9">
         <f>B9*Parameters!$B$6</f>
-        <v>23.506007175857501</v>
+        <v>48.9636</v>
       </c>
       <c r="T9">
         <f>SQRT((C9/B9)^2+(Parameters!$C$6/Parameters!$B$6)^2)*'Bottle Results'!S9</f>
-        <v>6.7715098344118985E-2</v>
+        <v>2.1621827512955516</v>
       </c>
       <c r="U9">
         <f t="shared" si="0"/>
-        <v>3.0588267779532431E-2</v>
+        <v>0.75794806275503235</v>
       </c>
       <c r="W9">
         <f t="shared" si="1"/>
-        <v>4.5545352057205772E-2</v>
+        <v>0.5417939489013498</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.25">
@@ -7305,19 +7305,19 @@
       </c>
       <c r="S10">
         <f>B10*Parameters!$B$6</f>
-        <v>23.506007175857501</v>
+        <v>48.9636</v>
       </c>
       <c r="T10">
         <f>SQRT((C10/B10)^2+(Parameters!$C$6/Parameters!$B$6)^2)*'Bottle Results'!S10</f>
-        <v>6.7715098344118985E-2</v>
+        <v>2.1621827512955516</v>
       </c>
       <c r="U10">
         <f t="shared" si="0"/>
-        <v>2.0613688425578324E-2</v>
+        <v>0.70865673772672688</v>
       </c>
       <c r="W10">
         <f t="shared" si="1"/>
-        <v>3.2447300217357075E-2</v>
+        <v>0.53550595331815665</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.25">
@@ -7373,19 +7373,19 @@
       </c>
       <c r="S11">
         <f>B11*Parameters!$B$6</f>
-        <v>46.944468354083234</v>
+        <v>97.786500000000004</v>
       </c>
       <c r="T11">
         <f>SQRT((C11/B11)^2+(Parameters!$C$6/Parameters!$B$6)^2)*'Bottle Results'!S11</f>
-        <v>6.8217960029032368E-2</v>
+        <v>4.3112964975747143</v>
       </c>
       <c r="U11">
         <f t="shared" si="0"/>
-        <v>7.130347788813414E-2</v>
+        <v>1.2818280408861524</v>
       </c>
       <c r="W11">
         <f t="shared" si="1"/>
-        <v>6.3793374944912981E-2</v>
+        <v>0.55055429652578225</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.25">
@@ -7441,19 +7441,19 @@
       </c>
       <c r="S12">
         <f>B12*Parameters!$B$6</f>
-        <v>46.944468354083234</v>
+        <v>97.786500000000004</v>
       </c>
       <c r="T12">
         <f>SQRT((C12/B12)^2+(Parameters!$C$6/Parameters!$B$6)^2)*'Bottle Results'!S12</f>
-        <v>6.8217960029032368E-2</v>
+        <v>4.3112964975747143</v>
       </c>
       <c r="U12">
         <f t="shared" si="0"/>
-        <v>6.2900391972450009E-2</v>
+        <v>1.122109384595716</v>
       </c>
       <c r="W12">
         <f t="shared" si="1"/>
-        <v>6.4314687556047023E-2</v>
+        <v>0.55080456362171026</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.25">
@@ -7509,19 +7509,19 @@
       </c>
       <c r="S13">
         <f>B13*Parameters!$B$6</f>
-        <v>46.944468354083234</v>
+        <v>97.786500000000004</v>
       </c>
       <c r="T13">
         <f>SQRT((C13/B13)^2+(Parameters!$C$6/Parameters!$B$6)^2)*'Bottle Results'!S13</f>
-        <v>6.8217960029032368E-2</v>
+        <v>4.3112964975747143</v>
       </c>
       <c r="U13">
         <f t="shared" si="0"/>
-        <v>0.11604796394752454</v>
+        <v>1.5686774395451466</v>
       </c>
       <c r="W13">
         <f t="shared" si="1"/>
-        <v>8.6520923136837985E-2</v>
+        <v>0.56146513459506298</v>
       </c>
     </row>
     <row r="14" spans="1:23" x14ac:dyDescent="0.25">
@@ -7577,19 +7577,19 @@
       </c>
       <c r="S14">
         <f>B14*Parameters!$B$6</f>
-        <v>117.53003587928751</v>
+        <v>244.81799999999998</v>
       </c>
       <c r="T14">
         <f>SQRT((C14/B14)^2+(Parameters!$C$6/Parameters!$B$6)^2)*'Bottle Results'!S14</f>
-        <v>0.67588312473327705</v>
+        <v>10.879365468629134</v>
       </c>
       <c r="U14">
         <f t="shared" si="0"/>
-        <v>0.24336479929071894</v>
+        <v>3.9871284498999091</v>
       </c>
       <c r="W14">
         <f t="shared" si="1"/>
-        <v>7.0402455967791072E-2</v>
+        <v>0.55372712503409438</v>
       </c>
     </row>
     <row r="15" spans="1:23" x14ac:dyDescent="0.25">
@@ -7645,19 +7645,19 @@
       </c>
       <c r="S15">
         <f>B15*Parameters!$B$6</f>
-        <v>117.53003587928751</v>
+        <v>244.81799999999998</v>
       </c>
       <c r="T15">
         <f>SQRT((C15/B15)^2+(Parameters!$C$6/Parameters!$B$6)^2)*'Bottle Results'!S15</f>
-        <v>0.67588312473327705</v>
+        <v>10.879365468629134</v>
       </c>
       <c r="U15">
         <f t="shared" si="0"/>
-        <v>0.26229844283339721</v>
+        <v>3.2929642552313134</v>
       </c>
       <c r="W15">
         <f t="shared" si="1"/>
-        <v>9.3733780616875845E-2</v>
+        <v>0.56492781870497744</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
@@ -7713,19 +7713,19 @@
       </c>
       <c r="S16">
         <f>B16*Parameters!$B$6</f>
-        <v>117.53003587928751</v>
+        <v>244.81799999999998</v>
       </c>
       <c r="T16">
         <f>SQRT((C16/B16)^2+(Parameters!$C$6/Parameters!$B$6)^2)*'Bottle Results'!S16</f>
-        <v>0.67588312473327705</v>
+        <v>10.879365468629134</v>
       </c>
       <c r="U16">
         <f t="shared" si="0"/>
-        <v>0.2427134829420923</v>
+        <v>4.0999245169030756</v>
       </c>
       <c r="W16">
         <f t="shared" si="1"/>
-        <v>6.8148919356371782E-2</v>
+        <v>0.55264526733247354</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
@@ -7777,19 +7777,19 @@
       </c>
       <c r="S17">
         <f>B17*Parameters!$B$6</f>
-        <v>235.06007175857502</v>
+        <v>489.63599999999997</v>
       </c>
       <c r="T17">
         <f>SQRT((C17/B17)^2+(Parameters!$C$6/Parameters!$B$6)^2)*'Bottle Results'!S17</f>
-        <v>0.67715098344118985</v>
+        <v>21.621827512955516</v>
       </c>
       <c r="U17">
         <f t="shared" si="0"/>
-        <v>0.67652086696640346</v>
+        <v>7.2041087705926845</v>
       </c>
       <c r="W17">
         <f t="shared" si="1"/>
-        <v>0.11224498322619623</v>
+        <v>0.57381451129638084</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
@@ -7841,19 +7841,19 @@
       </c>
       <c r="S18">
         <f>B18*Parameters!$B$6</f>
-        <v>235.06007175857502</v>
+        <v>489.63599999999997</v>
       </c>
       <c r="T18">
         <f>SQRT((C18/B18)^2+(Parameters!$C$6/Parameters!$B$6)^2)*'Bottle Results'!S18</f>
-        <v>0.67715098344118985</v>
+        <v>21.621827512955516</v>
       </c>
       <c r="U18">
         <f t="shared" si="0"/>
-        <v>0.55600035924877267</v>
+        <v>5.7514274662166294</v>
       </c>
       <c r="W18">
         <f t="shared" si="1"/>
-        <v>0.11590236231686164</v>
+        <v>0.57557031313999552</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
@@ -7905,19 +7905,19 @@
       </c>
       <c r="S19">
         <f>B19*Parameters!$B$6</f>
-        <v>235.06007175857502</v>
+        <v>489.63599999999997</v>
       </c>
       <c r="T19">
         <f>SQRT((C19/B19)^2+(Parameters!$C$6/Parameters!$B$6)^2)*'Bottle Results'!S19</f>
-        <v>0.67715098344118985</v>
+        <v>21.621827512955516</v>
       </c>
       <c r="U19">
         <f t="shared" si="0"/>
-        <v>0.88922216955116729</v>
+        <v>8.6036442374731354</v>
       </c>
       <c r="W19">
         <f t="shared" si="1"/>
-        <v>0.1248375846040217</v>
+        <v>0.57985985474232593</v>
       </c>
     </row>
   </sheetData>
@@ -7930,7 +7930,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="B3" sqref="B3:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8018,23 +8018,23 @@
       </c>
       <c r="D3">
         <f>AVERAGE('Bottle Results'!U5:U7)</f>
-        <v>-2.1397842331361255E-2</v>
+        <v>0.11444991418286077</v>
       </c>
       <c r="E3">
         <f>_xlfn.STDEV.S('Bottle Results'!U5:U7)</f>
-        <v>5.7644001824667919E-3</v>
+        <v>1.070047154163809E-2</v>
       </c>
       <c r="F3">
         <f>AVERAGE('Bottle Results'!S5:S7)</f>
-        <v>4.6944468354083231</v>
+        <v>9.778649999999999</v>
       </c>
       <c r="G3">
         <f>AVERAGE('Bottle Results'!W5:W7)</f>
-        <v>-0.16994686971303261</v>
+        <v>0.43834237035580376</v>
       </c>
       <c r="H3">
         <f>_xlfn.STDEV.S('Bottle Results'!W5:W7)</f>
-        <v>3.6808851473284679E-2</v>
+        <v>1.7670864210681043E-2</v>
       </c>
       <c r="I3">
         <f>AVERAGE('Bottle Results'!D5:D7)</f>
@@ -8059,23 +8059,23 @@
       </c>
       <c r="D4">
         <f>AVERAGE('Bottle Results'!U8:U10)</f>
-        <v>2.8358054298709801E-2</v>
+        <v>0.73587745446631947</v>
       </c>
       <c r="E4">
         <f>_xlfn.STDEV.S('Bottle Results'!U8:U10)</f>
-        <v>6.9048870936667837E-3</v>
+        <v>2.5045985577600658E-2</v>
       </c>
       <c r="F4">
         <f>AVERAGE('Bottle Results'!S8:S10)</f>
-        <v>23.506007175857501</v>
+        <v>48.963600000000007</v>
       </c>
       <c r="G4">
         <f>AVERAGE('Bottle Results'!W8:W10)</f>
-        <v>4.3289576462565704E-2</v>
+        <v>0.54071101632868901</v>
       </c>
       <c r="H4">
         <f>_xlfn.STDEV.S('Bottle Results'!W8:W10)</f>
-        <v>9.9088715586842461E-3</v>
+        <v>4.7569624366485246E-3</v>
       </c>
       <c r="I4">
         <f>AVERAGE('Bottle Results'!D8:D10)</f>
@@ -8100,23 +8100,23 @@
       </c>
       <c r="D5">
         <f>AVERAGE('Bottle Results'!U11:U13)</f>
-        <v>8.3417277936036219E-2</v>
+        <v>1.3242049550090049</v>
       </c>
       <c r="E5">
         <f>_xlfn.STDEV.S('Bottle Results'!U11:U13)</f>
-        <v>2.8569637999314012E-2</v>
+        <v>0.22627993517601505</v>
       </c>
       <c r="F5">
         <f>AVERAGE('Bottle Results'!S11:S13)</f>
-        <v>46.944468354083234</v>
+        <v>97.786500000000004</v>
       </c>
       <c r="G5">
         <f>AVERAGE('Bottle Results'!W11:W13)</f>
-        <v>7.1542995212599339E-2</v>
+        <v>0.5542746649141852</v>
       </c>
       <c r="H5">
         <f>_xlfn.STDEV.S('Bottle Results'!W11:W13)</f>
-        <v>1.2973884745418272E-2</v>
+        <v>6.2283865550030989E-3</v>
       </c>
       <c r="I5">
         <f>AVERAGE('Bottle Results'!D11:D13)</f>
@@ -8141,23 +8141,23 @@
       </c>
       <c r="D6">
         <f>AVERAGE('Bottle Results'!U14:U16)</f>
-        <v>0.24945890835540283</v>
+        <v>3.7933390740114326</v>
       </c>
       <c r="E6">
         <f>_xlfn.STDEV.S('Bottle Results'!U14:U16)</f>
-        <v>1.1124130862912486E-2</v>
+        <v>0.4369919422995962</v>
       </c>
       <c r="F6">
         <f>AVERAGE('Bottle Results'!S14:S16)</f>
-        <v>117.5300358792875</v>
+        <v>244.81799999999998</v>
       </c>
       <c r="G6">
         <f>AVERAGE('Bottle Results'!W14:W16)</f>
-        <v>7.7428385313679571E-2</v>
+        <v>0.55710007035718179</v>
       </c>
       <c r="H6">
         <f>_xlfn.STDEV.S('Bottle Results'!W14:W16)</f>
-        <v>1.4165770145314125E-2</v>
+        <v>6.8005762380074983E-3</v>
       </c>
       <c r="I6">
         <f>AVERAGE('Bottle Results'!D14:D16)</f>
@@ -8182,23 +8182,23 @@
       </c>
       <c r="D7">
         <f>AVERAGE('Bottle Results'!U17:U19)</f>
-        <v>0.70724779858878117</v>
+        <v>7.1863934914274834</v>
       </c>
       <c r="E7">
         <f>_xlfn.STDEV.S('Bottle Results'!U17:U19)</f>
-        <v>0.16872255913331757</v>
+        <v>1.4261909061889864</v>
       </c>
       <c r="F7">
         <f>AVERAGE('Bottle Results'!S17:S19)</f>
-        <v>235.06007175857499</v>
+        <v>489.63599999999997</v>
       </c>
       <c r="G7">
         <f>AVERAGE('Bottle Results'!W17:W19)</f>
-        <v>0.11766164338235985</v>
+        <v>0.5764148930595675</v>
       </c>
       <c r="H7">
         <f>_xlfn.STDEV.S('Bottle Results'!W17:W19)</f>
-        <v>6.4780170396324457E-3</v>
+        <v>3.1099084834229291E-3</v>
       </c>
       <c r="I7">
         <f>AVERAGE('Bottle Results'!D17:D19)</f>

--- a/Sorption Experiments/RaPYR_pH5/RaPYR_pH5_NoScript.xlsx
+++ b/Sorption Experiments/RaPYR_pH5/RaPYR_pH5_NoScript.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="12285" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="12285" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" r:id="rId1"/>
@@ -738,7 +738,7 @@
             <c:numRef>
               <c:f>'[1]Calibration Data'!$I$3:$I$8</c:f>
               <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.31819999999999998</c:v>
@@ -838,11 +838,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="144869672"/>
-        <c:axId val="144868888"/>
+        <c:axId val="221900416"/>
+        <c:axId val="221902376"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="144869672"/>
+        <c:axId val="221900416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -870,12 +870,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144868888"/>
+        <c:crossAx val="221902376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="144868888"/>
+        <c:axId val="221902376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -899,11 +899,11 @@
           </c:tx>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="144869672"/>
+        <c:crossAx val="221900416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4123,7 +4123,7 @@
   <dimension ref="A1:F91"/>
   <sheetViews>
     <sheetView topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="A74" sqref="A74:A91"/>
+      <selection activeCell="C77" sqref="C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5962,7 +5962,7 @@
   <dimension ref="A1:G37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:D19"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6603,10 +6603,10 @@
   <dimension ref="A1:W19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AC16" sqref="AC16"/>
+      <selection pane="bottomRight" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6722,7 +6722,7 @@
         <v>5.04</v>
       </c>
       <c r="E2" s="1">
-        <v>43</v>
+        <v>4.2999999999999997E-2</v>
       </c>
       <c r="F2" s="1">
         <v>1</v>
@@ -6769,7 +6769,7 @@
       </c>
       <c r="U2">
         <f t="shared" ref="U2:U19" si="0">(S2-Q2*G2)/E2</f>
-        <v>-4.3764322388586317E-2</v>
+        <v>-43.764322388586315</v>
       </c>
       <c r="W2" t="e">
         <f t="shared" ref="W2:W19" si="1">(S2-Q2*G2)/S2</f>
@@ -6790,7 +6790,7 @@
         <v>5.0199999999999996</v>
       </c>
       <c r="E3" s="1">
-        <v>42</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
@@ -6837,7 +6837,7 @@
       </c>
       <c r="U3">
         <f t="shared" si="0"/>
-        <v>-3.6197638462181922E-2</v>
+        <v>-36.197638462181921</v>
       </c>
       <c r="W3" t="e">
         <f t="shared" si="1"/>
@@ -6858,7 +6858,7 @@
         <v>5.03</v>
       </c>
       <c r="E4" s="1">
-        <v>38</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="F4" s="1">
         <v>1</v>
@@ -6905,7 +6905,7 @@
       </c>
       <c r="U4">
         <f t="shared" si="0"/>
-        <v>-4.4090169228482246E-2</v>
+        <v>-44.090169228482246</v>
       </c>
       <c r="W4" t="e">
         <f t="shared" si="1"/>
@@ -6926,7 +6926,7 @@
         <v>4.97</v>
       </c>
       <c r="E5" s="1">
-        <v>36</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
@@ -6973,7 +6973,7 @@
       </c>
       <c r="U5">
         <f t="shared" si="0"/>
-        <v>0.12349257221117378</v>
+        <v>123.49257221117379</v>
       </c>
       <c r="W5">
         <f t="shared" si="1"/>
@@ -6994,7 +6994,7 @@
         <v>5.05</v>
       </c>
       <c r="E6" s="1">
-        <v>42</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
@@ -7041,7 +7041,7 @@
       </c>
       <c r="U6">
         <f t="shared" si="0"/>
-        <v>0.10263661403254044</v>
+        <v>102.63661403254044</v>
       </c>
       <c r="W6">
         <f t="shared" si="1"/>
@@ -7062,7 +7062,7 @@
         <v>5.05</v>
       </c>
       <c r="E7" s="1">
-        <v>35</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
@@ -7109,7 +7109,7 @@
       </c>
       <c r="U7">
         <f t="shared" si="0"/>
-        <v>0.11722055630486809</v>
+        <v>117.22055630486808</v>
       </c>
       <c r="W7">
         <f t="shared" si="1"/>
@@ -7130,7 +7130,7 @@
         <v>5</v>
       </c>
       <c r="E8" s="1">
-        <v>36</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="F8" s="1">
         <v>1</v>
@@ -7177,7 +7177,7 @@
       </c>
       <c r="U8">
         <f t="shared" si="0"/>
-        <v>0.74102756291719918</v>
+        <v>741.02756291719925</v>
       </c>
       <c r="W8">
         <f t="shared" si="1"/>
@@ -7198,7 +7198,7 @@
         <v>4.96</v>
       </c>
       <c r="E9" s="1">
-        <v>35</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="F9" s="1">
         <v>1</v>
@@ -7245,7 +7245,7 @@
       </c>
       <c r="U9">
         <f t="shared" si="0"/>
-        <v>0.75794806275503235</v>
+        <v>757.94806275503231</v>
       </c>
       <c r="W9">
         <f t="shared" si="1"/>
@@ -7266,7 +7266,7 @@
         <v>5.01</v>
       </c>
       <c r="E10" s="1">
-        <v>37</v>
+        <v>3.6999999999999998E-2</v>
       </c>
       <c r="F10" s="1">
         <v>1</v>
@@ -7313,7 +7313,7 @@
       </c>
       <c r="U10">
         <f t="shared" si="0"/>
-        <v>0.70865673772672688</v>
+        <v>708.65673772672699</v>
       </c>
       <c r="W10">
         <f t="shared" si="1"/>
@@ -7334,7 +7334,7 @@
         <v>4.97</v>
       </c>
       <c r="E11" s="1">
-        <v>42</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="F11" s="1">
         <v>1</v>
@@ -7381,7 +7381,7 @@
       </c>
       <c r="U11">
         <f t="shared" si="0"/>
-        <v>1.2818280408861524</v>
+        <v>1281.8280408861524</v>
       </c>
       <c r="W11">
         <f t="shared" si="1"/>
@@ -7402,7 +7402,7 @@
         <v>5</v>
       </c>
       <c r="E12" s="1">
-        <v>48</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="F12" s="1">
         <v>1</v>
@@ -7449,7 +7449,7 @@
       </c>
       <c r="U12">
         <f t="shared" si="0"/>
-        <v>1.122109384595716</v>
+        <v>1122.1093845957159</v>
       </c>
       <c r="W12">
         <f t="shared" si="1"/>
@@ -7470,7 +7470,7 @@
         <v>5.01</v>
       </c>
       <c r="E13" s="1">
-        <v>35</v>
+        <v>3.5000000000000003E-2</v>
       </c>
       <c r="F13" s="1">
         <v>1</v>
@@ -7517,7 +7517,7 @@
       </c>
       <c r="U13">
         <f t="shared" si="0"/>
-        <v>1.5686774395451466</v>
+        <v>1568.6774395451464</v>
       </c>
       <c r="W13">
         <f t="shared" si="1"/>
@@ -7538,7 +7538,7 @@
         <v>5.04</v>
       </c>
       <c r="E14" s="1">
-        <v>34</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="F14" s="1">
         <v>1</v>
@@ -7585,7 +7585,7 @@
       </c>
       <c r="U14">
         <f t="shared" si="0"/>
-        <v>3.9871284498999091</v>
+        <v>3987.1284498999084</v>
       </c>
       <c r="W14">
         <f t="shared" si="1"/>
@@ -7606,7 +7606,7 @@
         <v>5.05</v>
       </c>
       <c r="E15" s="1">
-        <v>42</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="F15" s="1">
         <v>1</v>
@@ -7653,7 +7653,7 @@
       </c>
       <c r="U15">
         <f t="shared" si="0"/>
-        <v>3.2929642552313134</v>
+        <v>3292.964255231313</v>
       </c>
       <c r="W15">
         <f t="shared" si="1"/>
@@ -7674,7 +7674,7 @@
         <v>5.0199999999999996</v>
       </c>
       <c r="E16" s="1">
-        <v>33</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="F16" s="1">
         <v>1</v>
@@ -7721,7 +7721,7 @@
       </c>
       <c r="U16">
         <f t="shared" si="0"/>
-        <v>4.0999245169030756</v>
+        <v>4099.9245169030755</v>
       </c>
       <c r="W16">
         <f t="shared" si="1"/>
@@ -7742,7 +7742,7 @@
         <v>4.9800000000000004</v>
       </c>
       <c r="E17" s="1">
-        <v>39</v>
+        <v>3.9E-2</v>
       </c>
       <c r="F17" s="1">
         <v>1</v>
@@ -7785,7 +7785,7 @@
       </c>
       <c r="U17">
         <f t="shared" si="0"/>
-        <v>7.2041087705926845</v>
+        <v>7204.1087705926848</v>
       </c>
       <c r="W17">
         <f t="shared" si="1"/>
@@ -7806,7 +7806,7 @@
         <v>5.0599999999999996</v>
       </c>
       <c r="E18" s="1">
-        <v>49</v>
+        <v>4.9000000000000002E-2</v>
       </c>
       <c r="F18" s="1">
         <v>1</v>
@@ -7849,7 +7849,7 @@
       </c>
       <c r="U18">
         <f t="shared" si="0"/>
-        <v>5.7514274662166294</v>
+        <v>5751.427466216629</v>
       </c>
       <c r="W18">
         <f t="shared" si="1"/>
@@ -7870,7 +7870,7 @@
         <v>5</v>
       </c>
       <c r="E19" s="1">
-        <v>33</v>
+        <v>3.3000000000000002E-2</v>
       </c>
       <c r="F19" s="1">
         <v>1</v>
@@ -7913,7 +7913,7 @@
       </c>
       <c r="U19">
         <f t="shared" si="0"/>
-        <v>8.6036442374731354</v>
+        <v>8603.6442374731341</v>
       </c>
       <c r="W19">
         <f t="shared" si="1"/>
@@ -7930,7 +7930,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:J7"/>
+      <selection activeCell="P15" sqref="P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7981,11 +7981,11 @@
       </c>
       <c r="D2">
         <f>AVERAGE('Bottle Results'!U2:U4)</f>
-        <v>-4.1350710026416826E-2</v>
+        <v>-41.350710026416827</v>
       </c>
       <c r="E2">
         <f>_xlfn.STDEV.S('Bottle Results'!U2:U4)</f>
-        <v>4.4656638868551595E-3</v>
+        <v>4.4656638868551592</v>
       </c>
       <c r="F2">
         <f>AVERAGE('Bottle Results'!S2:S4)</f>
@@ -8018,11 +8018,11 @@
       </c>
       <c r="D3">
         <f>AVERAGE('Bottle Results'!U5:U7)</f>
-        <v>0.11444991418286077</v>
+        <v>114.44991418286077</v>
       </c>
       <c r="E3">
         <f>_xlfn.STDEV.S('Bottle Results'!U5:U7)</f>
-        <v>1.070047154163809E-2</v>
+        <v>10.700471541638096</v>
       </c>
       <c r="F3">
         <f>AVERAGE('Bottle Results'!S5:S7)</f>
@@ -8059,11 +8059,11 @@
       </c>
       <c r="D4">
         <f>AVERAGE('Bottle Results'!U8:U10)</f>
-        <v>0.73587745446631947</v>
+        <v>735.87745446631959</v>
       </c>
       <c r="E4">
         <f>_xlfn.STDEV.S('Bottle Results'!U8:U10)</f>
-        <v>2.5045985577600658E-2</v>
+        <v>25.04598557760059</v>
       </c>
       <c r="F4">
         <f>AVERAGE('Bottle Results'!S8:S10)</f>
@@ -8100,11 +8100,11 @@
       </c>
       <c r="D5">
         <f>AVERAGE('Bottle Results'!U11:U13)</f>
-        <v>1.3242049550090049</v>
+        <v>1324.2049550090051</v>
       </c>
       <c r="E5">
         <f>_xlfn.STDEV.S('Bottle Results'!U11:U13)</f>
-        <v>0.22627993517601505</v>
+        <v>226.27993517601215</v>
       </c>
       <c r="F5">
         <f>AVERAGE('Bottle Results'!S11:S13)</f>
@@ -8141,11 +8141,11 @@
       </c>
       <c r="D6">
         <f>AVERAGE('Bottle Results'!U14:U16)</f>
-        <v>3.7933390740114326</v>
+        <v>3793.3390740114323</v>
       </c>
       <c r="E6">
         <f>_xlfn.STDEV.S('Bottle Results'!U14:U16)</f>
-        <v>0.4369919422995962</v>
+        <v>436.9919422995963</v>
       </c>
       <c r="F6">
         <f>AVERAGE('Bottle Results'!S14:S16)</f>
@@ -8182,11 +8182,11 @@
       </c>
       <c r="D7">
         <f>AVERAGE('Bottle Results'!U17:U19)</f>
-        <v>7.1863934914274834</v>
+        <v>7186.3934914274823</v>
       </c>
       <c r="E7">
         <f>_xlfn.STDEV.S('Bottle Results'!U17:U19)</f>
-        <v>1.4261909061889864</v>
+        <v>1426.1909061889894</v>
       </c>
       <c r="F7">
         <f>AVERAGE('Bottle Results'!S17:S19)</f>

--- a/Sorption Experiments/RaPYR_pH5/RaPYR_pH5_NoScript.xlsx
+++ b/Sorption Experiments/RaPYR_pH5/RaPYR_pH5_NoScript.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="128">
   <si>
     <t>Parameters</t>
   </si>
@@ -410,6 +410,12 @@
   </si>
   <si>
     <t>1 count above detection</t>
+  </si>
+  <si>
+    <t>MinMass (g)</t>
+  </si>
+  <si>
+    <t>sMinMass (g)</t>
   </si>
 </sst>
 </file>
@@ -577,27 +583,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -813,11 +799,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="226856592"/>
-        <c:axId val="226858552"/>
+        <c:axId val="217064272"/>
+        <c:axId val="217064664"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="226856592"/>
+        <c:axId val="217064272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -845,12 +831,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="226858552"/>
+        <c:crossAx val="217064664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="226858552"/>
+        <c:axId val="217064664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -878,7 +864,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="226856592"/>
+        <c:crossAx val="217064272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1113,11 +1099,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="226857768"/>
-        <c:axId val="226858944"/>
+        <c:axId val="217067408"/>
+        <c:axId val="217055648"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="226857768"/>
+        <c:axId val="217067408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1145,12 +1131,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="226858944"/>
+        <c:crossAx val="217055648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="226858944"/>
+        <c:axId val="217055648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1178,7 +1164,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="226857768"/>
+        <c:crossAx val="217067408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1281,6 +1267,7 @@
       <sheetName val="Scint Cocktail Testing"/>
       <sheetName val="Calibration Data"/>
       <sheetName val="Stock Log"/>
+      <sheetName val="Stock 6 Calc"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -1304,6 +1291,7 @@
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="9"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -7393,7 +7381,7 @@
   <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="I2" sqref="I2"/>
@@ -8646,15 +8634,19 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B6" sqref="B6:M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -8686,13 +8678,19 @@
         <v>110</v>
       </c>
       <c r="K1" t="s">
+        <v>126</v>
+      </c>
+      <c r="L1" t="s">
+        <v>127</v>
+      </c>
+      <c r="M1" t="s">
         <v>124</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -8729,14 +8727,22 @@
         <v>1.0000000000000231E-2</v>
       </c>
       <c r="K2">
+        <f>AVERAGE('Bottle Results'!E2:E4)</f>
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="L2">
+        <f>_xlfn.STDEV.S('Bottle Results'!E2:E4)</f>
+        <v>2.6457513110645903E-3</v>
+      </c>
+      <c r="M2">
         <f>COUNT('Bottle Results'!I2:I4)</f>
         <v>3</v>
       </c>
-      <c r="L2" t="s">
+      <c r="N2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>10</v>
       </c>
@@ -8777,11 +8783,19 @@
         <v>4.6188021535170098E-2</v>
       </c>
       <c r="K3">
+        <f>AVERAGE('Bottle Results'!E5:E7)</f>
+        <v>3.7666666666666668E-2</v>
+      </c>
+      <c r="L3">
+        <f>_xlfn.STDEV.S('Bottle Results'!E5:E7)</f>
+        <v>3.7859388972001835E-3</v>
+      </c>
+      <c r="M3">
         <f>COUNT('Bottle Results'!I5:I7)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>50</v>
       </c>
@@ -8822,11 +8836,19 @@
         <v>2.6457513110645845E-2</v>
       </c>
       <c r="K4">
+        <f>AVERAGE('Bottle Results'!E8:E10)</f>
+        <v>3.6000000000000004E-2</v>
+      </c>
+      <c r="L4">
+        <f>_xlfn.STDEV.S('Bottle Results'!E8:E10)</f>
+        <v>9.9999999999999742E-4</v>
+      </c>
+      <c r="M4">
         <f>COUNT('Bottle Results'!I8:I10)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>100</v>
       </c>
@@ -8867,11 +8889,19 @@
         <v>2.0816659994661382E-2</v>
       </c>
       <c r="K5">
+        <f>AVERAGE('Bottle Results'!E11:E13)</f>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="L5">
+        <f>_xlfn.STDEV.S('Bottle Results'!E11:E13)</f>
+        <v>6.5064070986477545E-3</v>
+      </c>
+      <c r="M5">
         <f>COUNT('Bottle Results'!I11:I13)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>250</v>
       </c>
@@ -8912,11 +8942,19 @@
         <v>1.5275252316519626E-2</v>
       </c>
       <c r="K6">
+        <f>AVERAGE('Bottle Results'!E14:E16)</f>
+        <v>3.6333333333333336E-2</v>
+      </c>
+      <c r="L6">
+        <f>_xlfn.STDEV.S('Bottle Results'!E14:E16)</f>
+        <v>4.9328828623162475E-3</v>
+      </c>
+      <c r="M6">
         <f>COUNT('Bottle Results'!I14:I16)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>500</v>
       </c>
@@ -8957,6 +8995,14 @@
         <v>4.1633319989322265E-2</v>
       </c>
       <c r="K7">
+        <f>AVERAGE('Bottle Results'!E17:E19)</f>
+        <v>4.0333333333333332E-2</v>
+      </c>
+      <c r="L7">
+        <f>_xlfn.STDEV.S('Bottle Results'!E17:E19)</f>
+        <v>8.082903768654769E-3</v>
+      </c>
+      <c r="M7">
         <f>COUNT('Bottle Results'!I17:I19)</f>
         <v>3</v>
       </c>
